--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O261"/>
+  <dimension ref="A1:O301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12906,6 +12906,1966 @@
         <v>512</v>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2023-08-21 23:34:18</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>40</v>
+      </c>
+      <c r="C262" t="n">
+        <v>13</v>
+      </c>
+      <c r="D262" t="n">
+        <v>8</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2</v>
+      </c>
+      <c r="F262" t="n">
+        <v>7</v>
+      </c>
+      <c r="G262" t="n">
+        <v>4</v>
+      </c>
+      <c r="H262" t="n">
+        <v>26</v>
+      </c>
+      <c r="I262" t="n">
+        <v>16</v>
+      </c>
+      <c r="J262" t="n">
+        <v>17</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N262" t="n">
+        <v>70</v>
+      </c>
+      <c r="O262" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2023-08-21 23:34:23</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>40</v>
+      </c>
+      <c r="C263" t="n">
+        <v>19</v>
+      </c>
+      <c r="D263" t="n">
+        <v>7</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1</v>
+      </c>
+      <c r="F263" t="n">
+        <v>11</v>
+      </c>
+      <c r="G263" t="n">
+        <v>7</v>
+      </c>
+      <c r="H263" t="n">
+        <v>45</v>
+      </c>
+      <c r="I263" t="n">
+        <v>12</v>
+      </c>
+      <c r="J263" t="n">
+        <v>17</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N263" t="n">
+        <v>70</v>
+      </c>
+      <c r="O263" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2023-08-21 23:34:35</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>130</v>
+      </c>
+      <c r="C264" t="n">
+        <v>62</v>
+      </c>
+      <c r="D264" t="n">
+        <v>7</v>
+      </c>
+      <c r="E264" t="n">
+        <v>11</v>
+      </c>
+      <c r="F264" t="n">
+        <v>27</v>
+      </c>
+      <c r="G264" t="n">
+        <v>24</v>
+      </c>
+      <c r="H264" t="n">
+        <v>39</v>
+      </c>
+      <c r="I264" t="n">
+        <v>25</v>
+      </c>
+      <c r="J264" t="n">
+        <v>18</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N264" t="n">
+        <v>70</v>
+      </c>
+      <c r="O264" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2023-08-21 23:34:47</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>120</v>
+      </c>
+      <c r="C265" t="n">
+        <v>64</v>
+      </c>
+      <c r="D265" t="n">
+        <v>6</v>
+      </c>
+      <c r="E265" t="n">
+        <v>10</v>
+      </c>
+      <c r="F265" t="n">
+        <v>23</v>
+      </c>
+      <c r="G265" t="n">
+        <v>31</v>
+      </c>
+      <c r="H265" t="n">
+        <v>31</v>
+      </c>
+      <c r="I265" t="n">
+        <v>28</v>
+      </c>
+      <c r="J265" t="n">
+        <v>9</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N265" t="n">
+        <v>70</v>
+      </c>
+      <c r="O265" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2023-08-21 23:34:59</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>118</v>
+      </c>
+      <c r="C266" t="n">
+        <v>56</v>
+      </c>
+      <c r="D266" t="n">
+        <v>9</v>
+      </c>
+      <c r="E266" t="n">
+        <v>18</v>
+      </c>
+      <c r="F266" t="n">
+        <v>21</v>
+      </c>
+      <c r="G266" t="n">
+        <v>17</v>
+      </c>
+      <c r="H266" t="n">
+        <v>25</v>
+      </c>
+      <c r="I266" t="n">
+        <v>19</v>
+      </c>
+      <c r="J266" t="n">
+        <v>23</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N266" t="n">
+        <v>70</v>
+      </c>
+      <c r="O266" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:05:04</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>40</v>
+      </c>
+      <c r="C267" t="n">
+        <v>14</v>
+      </c>
+      <c r="D267" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" t="n">
+        <v>3</v>
+      </c>
+      <c r="F267" t="n">
+        <v>5</v>
+      </c>
+      <c r="G267" t="n">
+        <v>6</v>
+      </c>
+      <c r="H267" t="n">
+        <v>23</v>
+      </c>
+      <c r="I267" t="n">
+        <v>33</v>
+      </c>
+      <c r="J267" t="n">
+        <v>10</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N267" t="n">
+        <v>75</v>
+      </c>
+      <c r="O267" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:05:13</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>40</v>
+      </c>
+      <c r="C268" t="n">
+        <v>22</v>
+      </c>
+      <c r="D268" t="n">
+        <v>12</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2</v>
+      </c>
+      <c r="F268" t="n">
+        <v>11</v>
+      </c>
+      <c r="G268" t="n">
+        <v>9</v>
+      </c>
+      <c r="H268" t="n">
+        <v>43</v>
+      </c>
+      <c r="I268" t="n">
+        <v>12</v>
+      </c>
+      <c r="J268" t="n">
+        <v>17</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N268" t="n">
+        <v>75</v>
+      </c>
+      <c r="O268" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:05:36</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>130</v>
+      </c>
+      <c r="C269" t="n">
+        <v>53</v>
+      </c>
+      <c r="D269" t="n">
+        <v>9</v>
+      </c>
+      <c r="E269" t="n">
+        <v>8</v>
+      </c>
+      <c r="F269" t="n">
+        <v>28</v>
+      </c>
+      <c r="G269" t="n">
+        <v>17</v>
+      </c>
+      <c r="H269" t="n">
+        <v>63</v>
+      </c>
+      <c r="I269" t="n">
+        <v>12</v>
+      </c>
+      <c r="J269" t="n">
+        <v>24</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N269" t="n">
+        <v>75</v>
+      </c>
+      <c r="O269" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:05:59</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>120</v>
+      </c>
+      <c r="C270" t="n">
+        <v>55</v>
+      </c>
+      <c r="D270" t="n">
+        <v>7</v>
+      </c>
+      <c r="E270" t="n">
+        <v>11</v>
+      </c>
+      <c r="F270" t="n">
+        <v>22</v>
+      </c>
+      <c r="G270" t="n">
+        <v>22</v>
+      </c>
+      <c r="H270" t="n">
+        <v>66</v>
+      </c>
+      <c r="I270" t="n">
+        <v>13</v>
+      </c>
+      <c r="J270" t="n">
+        <v>22</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N270" t="n">
+        <v>75</v>
+      </c>
+      <c r="O270" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:06:21</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>118</v>
+      </c>
+      <c r="C271" t="n">
+        <v>49</v>
+      </c>
+      <c r="D271" t="n">
+        <v>16</v>
+      </c>
+      <c r="E271" t="n">
+        <v>13</v>
+      </c>
+      <c r="F271" t="n">
+        <v>25</v>
+      </c>
+      <c r="G271" t="n">
+        <v>11</v>
+      </c>
+      <c r="H271" t="n">
+        <v>30</v>
+      </c>
+      <c r="I271" t="n">
+        <v>19</v>
+      </c>
+      <c r="J271" t="n">
+        <v>32</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N271" t="n">
+        <v>75</v>
+      </c>
+      <c r="O271" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:10:21</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>40</v>
+      </c>
+      <c r="C272" t="n">
+        <v>20</v>
+      </c>
+      <c r="D272" t="n">
+        <v>4</v>
+      </c>
+      <c r="E272" t="n">
+        <v>5</v>
+      </c>
+      <c r="F272" t="n">
+        <v>5</v>
+      </c>
+      <c r="G272" t="n">
+        <v>10</v>
+      </c>
+      <c r="H272" t="n">
+        <v>14</v>
+      </c>
+      <c r="I272" t="n">
+        <v>18</v>
+      </c>
+      <c r="J272" t="n">
+        <v>10</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N272" t="n">
+        <v>70</v>
+      </c>
+      <c r="O272" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:10:30</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>40</v>
+      </c>
+      <c r="C273" t="n">
+        <v>24</v>
+      </c>
+      <c r="D273" t="n">
+        <v>6</v>
+      </c>
+      <c r="E273" t="n">
+        <v>6</v>
+      </c>
+      <c r="F273" t="n">
+        <v>9</v>
+      </c>
+      <c r="G273" t="n">
+        <v>9</v>
+      </c>
+      <c r="H273" t="n">
+        <v>12</v>
+      </c>
+      <c r="I273" t="n">
+        <v>11</v>
+      </c>
+      <c r="J273" t="n">
+        <v>14</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N273" t="n">
+        <v>70</v>
+      </c>
+      <c r="O273" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:10:55</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>130</v>
+      </c>
+      <c r="C274" t="n">
+        <v>54</v>
+      </c>
+      <c r="D274" t="n">
+        <v>18</v>
+      </c>
+      <c r="E274" t="n">
+        <v>5</v>
+      </c>
+      <c r="F274" t="n">
+        <v>29</v>
+      </c>
+      <c r="G274" t="n">
+        <v>20</v>
+      </c>
+      <c r="H274" t="n">
+        <v>46</v>
+      </c>
+      <c r="I274" t="n">
+        <v>22</v>
+      </c>
+      <c r="J274" t="n">
+        <v>18</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N274" t="n">
+        <v>70</v>
+      </c>
+      <c r="O274" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:11:18</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>120</v>
+      </c>
+      <c r="C275" t="n">
+        <v>57</v>
+      </c>
+      <c r="D275" t="n">
+        <v>7</v>
+      </c>
+      <c r="E275" t="n">
+        <v>9</v>
+      </c>
+      <c r="F275" t="n">
+        <v>23</v>
+      </c>
+      <c r="G275" t="n">
+        <v>25</v>
+      </c>
+      <c r="H275" t="n">
+        <v>25</v>
+      </c>
+      <c r="I275" t="n">
+        <v>15</v>
+      </c>
+      <c r="J275" t="n">
+        <v>10</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N275" t="n">
+        <v>70</v>
+      </c>
+      <c r="O275" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:11:40</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>118</v>
+      </c>
+      <c r="C276" t="n">
+        <v>49</v>
+      </c>
+      <c r="D276" t="n">
+        <v>8</v>
+      </c>
+      <c r="E276" t="n">
+        <v>9</v>
+      </c>
+      <c r="F276" t="n">
+        <v>19</v>
+      </c>
+      <c r="G276" t="n">
+        <v>21</v>
+      </c>
+      <c r="H276" t="n">
+        <v>32</v>
+      </c>
+      <c r="I276" t="n">
+        <v>15</v>
+      </c>
+      <c r="J276" t="n">
+        <v>16</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N276" t="n">
+        <v>70</v>
+      </c>
+      <c r="O276" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:15:23</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>40</v>
+      </c>
+      <c r="C277" t="n">
+        <v>20</v>
+      </c>
+      <c r="D277" t="n">
+        <v>9</v>
+      </c>
+      <c r="E277" t="n">
+        <v>5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>9</v>
+      </c>
+      <c r="G277" t="n">
+        <v>6</v>
+      </c>
+      <c r="H277" t="n">
+        <v>31</v>
+      </c>
+      <c r="I277" t="n">
+        <v>12</v>
+      </c>
+      <c r="J277" t="n">
+        <v>16</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N277" t="n">
+        <v>70</v>
+      </c>
+      <c r="O277" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:15:31</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>40</v>
+      </c>
+      <c r="C278" t="n">
+        <v>20</v>
+      </c>
+      <c r="D278" t="n">
+        <v>5</v>
+      </c>
+      <c r="E278" t="n">
+        <v>3</v>
+      </c>
+      <c r="F278" t="n">
+        <v>10</v>
+      </c>
+      <c r="G278" t="n">
+        <v>7</v>
+      </c>
+      <c r="H278" t="n">
+        <v>18</v>
+      </c>
+      <c r="I278" t="n">
+        <v>10</v>
+      </c>
+      <c r="J278" t="n">
+        <v>10</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N278" t="n">
+        <v>70</v>
+      </c>
+      <c r="O278" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:15:54</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>130</v>
+      </c>
+      <c r="C279" t="n">
+        <v>55</v>
+      </c>
+      <c r="D279" t="n">
+        <v>9</v>
+      </c>
+      <c r="E279" t="n">
+        <v>10</v>
+      </c>
+      <c r="F279" t="n">
+        <v>22</v>
+      </c>
+      <c r="G279" t="n">
+        <v>23</v>
+      </c>
+      <c r="H279" t="n">
+        <v>39</v>
+      </c>
+      <c r="I279" t="n">
+        <v>14</v>
+      </c>
+      <c r="J279" t="n">
+        <v>15</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N279" t="n">
+        <v>70</v>
+      </c>
+      <c r="O279" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:16:17</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>120</v>
+      </c>
+      <c r="C280" t="n">
+        <v>48</v>
+      </c>
+      <c r="D280" t="n">
+        <v>10</v>
+      </c>
+      <c r="E280" t="n">
+        <v>10</v>
+      </c>
+      <c r="F280" t="n">
+        <v>15</v>
+      </c>
+      <c r="G280" t="n">
+        <v>23</v>
+      </c>
+      <c r="H280" t="n">
+        <v>24</v>
+      </c>
+      <c r="I280" t="n">
+        <v>29</v>
+      </c>
+      <c r="J280" t="n">
+        <v>15</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N280" t="n">
+        <v>70</v>
+      </c>
+      <c r="O280" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:16:42</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>118</v>
+      </c>
+      <c r="C281" t="n">
+        <v>58</v>
+      </c>
+      <c r="D281" t="n">
+        <v>8</v>
+      </c>
+      <c r="E281" t="n">
+        <v>12</v>
+      </c>
+      <c r="F281" t="n">
+        <v>22</v>
+      </c>
+      <c r="G281" t="n">
+        <v>24</v>
+      </c>
+      <c r="H281" t="n">
+        <v>23</v>
+      </c>
+      <c r="I281" t="n">
+        <v>21</v>
+      </c>
+      <c r="J281" t="n">
+        <v>12</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N281" t="n">
+        <v>70</v>
+      </c>
+      <c r="O281" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:25:31</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>40</v>
+      </c>
+      <c r="C282" t="n">
+        <v>10</v>
+      </c>
+      <c r="D282" t="n">
+        <v>7</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1</v>
+      </c>
+      <c r="F282" t="n">
+        <v>6</v>
+      </c>
+      <c r="G282" t="n">
+        <v>3</v>
+      </c>
+      <c r="H282" t="n">
+        <v>25</v>
+      </c>
+      <c r="I282" t="n">
+        <v>16</v>
+      </c>
+      <c r="J282" t="n">
+        <v>23</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N282" t="n">
+        <v>70</v>
+      </c>
+      <c r="O282" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:25:41</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>40</v>
+      </c>
+      <c r="C283" t="n">
+        <v>22</v>
+      </c>
+      <c r="D283" t="n">
+        <v>7</v>
+      </c>
+      <c r="E283" t="n">
+        <v>3</v>
+      </c>
+      <c r="F283" t="n">
+        <v>11</v>
+      </c>
+      <c r="G283" t="n">
+        <v>8</v>
+      </c>
+      <c r="H283" t="n">
+        <v>40</v>
+      </c>
+      <c r="I283" t="n">
+        <v>7</v>
+      </c>
+      <c r="J283" t="n">
+        <v>17</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N283" t="n">
+        <v>70</v>
+      </c>
+      <c r="O283" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:26:05</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>130</v>
+      </c>
+      <c r="C284" t="n">
+        <v>55</v>
+      </c>
+      <c r="D284" t="n">
+        <v>8</v>
+      </c>
+      <c r="E284" t="n">
+        <v>7</v>
+      </c>
+      <c r="F284" t="n">
+        <v>26</v>
+      </c>
+      <c r="G284" t="n">
+        <v>22</v>
+      </c>
+      <c r="H284" t="n">
+        <v>63</v>
+      </c>
+      <c r="I284" t="n">
+        <v>29</v>
+      </c>
+      <c r="J284" t="n">
+        <v>18</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N284" t="n">
+        <v>70</v>
+      </c>
+      <c r="O284" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:26:34</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>120</v>
+      </c>
+      <c r="C285" t="n">
+        <v>56</v>
+      </c>
+      <c r="D285" t="n">
+        <v>7</v>
+      </c>
+      <c r="E285" t="n">
+        <v>9</v>
+      </c>
+      <c r="F285" t="n">
+        <v>24</v>
+      </c>
+      <c r="G285" t="n">
+        <v>23</v>
+      </c>
+      <c r="H285" t="n">
+        <v>26</v>
+      </c>
+      <c r="I285" t="n">
+        <v>16</v>
+      </c>
+      <c r="J285" t="n">
+        <v>18</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N285" t="n">
+        <v>70</v>
+      </c>
+      <c r="O285" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:26:57</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>118</v>
+      </c>
+      <c r="C286" t="n">
+        <v>63</v>
+      </c>
+      <c r="D286" t="n">
+        <v>6</v>
+      </c>
+      <c r="E286" t="n">
+        <v>14</v>
+      </c>
+      <c r="F286" t="n">
+        <v>23</v>
+      </c>
+      <c r="G286" t="n">
+        <v>26</v>
+      </c>
+      <c r="H286" t="n">
+        <v>18</v>
+      </c>
+      <c r="I286" t="n">
+        <v>31</v>
+      </c>
+      <c r="J286" t="n">
+        <v>9</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N286" t="n">
+        <v>70</v>
+      </c>
+      <c r="O286" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:32:05</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>40</v>
+      </c>
+      <c r="C287" t="n">
+        <v>15</v>
+      </c>
+      <c r="D287" t="n">
+        <v>7</v>
+      </c>
+      <c r="E287" t="n">
+        <v>1</v>
+      </c>
+      <c r="F287" t="n">
+        <v>5</v>
+      </c>
+      <c r="G287" t="n">
+        <v>9</v>
+      </c>
+      <c r="H287" t="n">
+        <v>25</v>
+      </c>
+      <c r="I287" t="n">
+        <v>13</v>
+      </c>
+      <c r="J287" t="n">
+        <v>12</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N287" t="n">
+        <v>75</v>
+      </c>
+      <c r="O287" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:32:15</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>40</v>
+      </c>
+      <c r="C288" t="n">
+        <v>18</v>
+      </c>
+      <c r="D288" t="n">
+        <v>8</v>
+      </c>
+      <c r="E288" t="n">
+        <v>5</v>
+      </c>
+      <c r="F288" t="n">
+        <v>7</v>
+      </c>
+      <c r="G288" t="n">
+        <v>6</v>
+      </c>
+      <c r="H288" t="n">
+        <v>21</v>
+      </c>
+      <c r="I288" t="n">
+        <v>10</v>
+      </c>
+      <c r="J288" t="n">
+        <v>19</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N288" t="n">
+        <v>75</v>
+      </c>
+      <c r="O288" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:32:41</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>130</v>
+      </c>
+      <c r="C289" t="n">
+        <v>51</v>
+      </c>
+      <c r="D289" t="n">
+        <v>10</v>
+      </c>
+      <c r="E289" t="n">
+        <v>8</v>
+      </c>
+      <c r="F289" t="n">
+        <v>24</v>
+      </c>
+      <c r="G289" t="n">
+        <v>19</v>
+      </c>
+      <c r="H289" t="n">
+        <v>31</v>
+      </c>
+      <c r="I289" t="n">
+        <v>16</v>
+      </c>
+      <c r="J289" t="n">
+        <v>26</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N289" t="n">
+        <v>75</v>
+      </c>
+      <c r="O289" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:33:05</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>120</v>
+      </c>
+      <c r="C290" t="n">
+        <v>45</v>
+      </c>
+      <c r="D290" t="n">
+        <v>14</v>
+      </c>
+      <c r="E290" t="n">
+        <v>12</v>
+      </c>
+      <c r="F290" t="n">
+        <v>17</v>
+      </c>
+      <c r="G290" t="n">
+        <v>16</v>
+      </c>
+      <c r="H290" t="n">
+        <v>26</v>
+      </c>
+      <c r="I290" t="n">
+        <v>26</v>
+      </c>
+      <c r="J290" t="n">
+        <v>27</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N290" t="n">
+        <v>75</v>
+      </c>
+      <c r="O290" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2023-08-22 00:33:31</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>118</v>
+      </c>
+      <c r="C291" t="n">
+        <v>54</v>
+      </c>
+      <c r="D291" t="n">
+        <v>9</v>
+      </c>
+      <c r="E291" t="n">
+        <v>7</v>
+      </c>
+      <c r="F291" t="n">
+        <v>26</v>
+      </c>
+      <c r="G291" t="n">
+        <v>21</v>
+      </c>
+      <c r="H291" t="n">
+        <v>33</v>
+      </c>
+      <c r="I291" t="n">
+        <v>18</v>
+      </c>
+      <c r="J291" t="n">
+        <v>29</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N291" t="n">
+        <v>75</v>
+      </c>
+      <c r="O291" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2023-08-22 08:15:29</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>40</v>
+      </c>
+      <c r="C292" t="n">
+        <v>21</v>
+      </c>
+      <c r="D292" t="n">
+        <v>4</v>
+      </c>
+      <c r="E292" t="n">
+        <v>3</v>
+      </c>
+      <c r="F292" t="n">
+        <v>12</v>
+      </c>
+      <c r="G292" t="n">
+        <v>6</v>
+      </c>
+      <c r="H292" t="n">
+        <v>25</v>
+      </c>
+      <c r="I292" t="n">
+        <v>9</v>
+      </c>
+      <c r="J292" t="n">
+        <v>18</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N292" t="n">
+        <v>70</v>
+      </c>
+      <c r="O292" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2023-08-22 08:15:37</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>40</v>
+      </c>
+      <c r="C293" t="n">
+        <v>21</v>
+      </c>
+      <c r="D293" t="n">
+        <v>5</v>
+      </c>
+      <c r="E293" t="n">
+        <v>1</v>
+      </c>
+      <c r="F293" t="n">
+        <v>12</v>
+      </c>
+      <c r="G293" t="n">
+        <v>8</v>
+      </c>
+      <c r="H293" t="n">
+        <v>44</v>
+      </c>
+      <c r="I293" t="n">
+        <v>11</v>
+      </c>
+      <c r="J293" t="n">
+        <v>17</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N293" t="n">
+        <v>70</v>
+      </c>
+      <c r="O293" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2023-08-22 08:15:54</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>130</v>
+      </c>
+      <c r="C294" t="n">
+        <v>57</v>
+      </c>
+      <c r="D294" t="n">
+        <v>12</v>
+      </c>
+      <c r="E294" t="n">
+        <v>9</v>
+      </c>
+      <c r="F294" t="n">
+        <v>25</v>
+      </c>
+      <c r="G294" t="n">
+        <v>23</v>
+      </c>
+      <c r="H294" t="n">
+        <v>34</v>
+      </c>
+      <c r="I294" t="n">
+        <v>17</v>
+      </c>
+      <c r="J294" t="n">
+        <v>16</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N294" t="n">
+        <v>70</v>
+      </c>
+      <c r="O294" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2023-08-22 08:16:10</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>120</v>
+      </c>
+      <c r="C295" t="n">
+        <v>54</v>
+      </c>
+      <c r="D295" t="n">
+        <v>9</v>
+      </c>
+      <c r="E295" t="n">
+        <v>10</v>
+      </c>
+      <c r="F295" t="n">
+        <v>22</v>
+      </c>
+      <c r="G295" t="n">
+        <v>22</v>
+      </c>
+      <c r="H295" t="n">
+        <v>27</v>
+      </c>
+      <c r="I295" t="n">
+        <v>16</v>
+      </c>
+      <c r="J295" t="n">
+        <v>20</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N295" t="n">
+        <v>70</v>
+      </c>
+      <c r="O295" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2023-08-22 08:16:25</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>118</v>
+      </c>
+      <c r="C296" t="n">
+        <v>42</v>
+      </c>
+      <c r="D296" t="n">
+        <v>16</v>
+      </c>
+      <c r="E296" t="n">
+        <v>10</v>
+      </c>
+      <c r="F296" t="n">
+        <v>13</v>
+      </c>
+      <c r="G296" t="n">
+        <v>19</v>
+      </c>
+      <c r="H296" t="n">
+        <v>31</v>
+      </c>
+      <c r="I296" t="n">
+        <v>20</v>
+      </c>
+      <c r="J296" t="n">
+        <v>18</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N296" t="n">
+        <v>70</v>
+      </c>
+      <c r="O296" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2023-08-22 08:20:49</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>40</v>
+      </c>
+      <c r="C297" t="n">
+        <v>10</v>
+      </c>
+      <c r="D297" t="n">
+        <v>15</v>
+      </c>
+      <c r="E297" t="n">
+        <v>3</v>
+      </c>
+      <c r="F297" t="n">
+        <v>4</v>
+      </c>
+      <c r="G297" t="n">
+        <v>3</v>
+      </c>
+      <c r="H297" t="n">
+        <v>23</v>
+      </c>
+      <c r="I297" t="n">
+        <v>25</v>
+      </c>
+      <c r="J297" t="n">
+        <v>21</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N297" t="n">
+        <v>70</v>
+      </c>
+      <c r="O297" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2023-08-22 08:21:10</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>40</v>
+      </c>
+      <c r="C298" t="n">
+        <v>24</v>
+      </c>
+      <c r="D298" t="n">
+        <v>5</v>
+      </c>
+      <c r="E298" t="n">
+        <v>7</v>
+      </c>
+      <c r="F298" t="n">
+        <v>9</v>
+      </c>
+      <c r="G298" t="n">
+        <v>8</v>
+      </c>
+      <c r="H298" t="n">
+        <v>9</v>
+      </c>
+      <c r="I298" t="n">
+        <v>10</v>
+      </c>
+      <c r="J298" t="n">
+        <v>17</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N298" t="n">
+        <v>70</v>
+      </c>
+      <c r="O298" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2023-08-22 08:21:41</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>130</v>
+      </c>
+      <c r="C299" t="n">
+        <v>63</v>
+      </c>
+      <c r="D299" t="n">
+        <v>7</v>
+      </c>
+      <c r="E299" t="n">
+        <v>14</v>
+      </c>
+      <c r="F299" t="n">
+        <v>26</v>
+      </c>
+      <c r="G299" t="n">
+        <v>23</v>
+      </c>
+      <c r="H299" t="n">
+        <v>28</v>
+      </c>
+      <c r="I299" t="n">
+        <v>16</v>
+      </c>
+      <c r="J299" t="n">
+        <v>21</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N299" t="n">
+        <v>70</v>
+      </c>
+      <c r="O299" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2023-08-22 08:22:20</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>120</v>
+      </c>
+      <c r="C300" t="n">
+        <v>59</v>
+      </c>
+      <c r="D300" t="n">
+        <v>11</v>
+      </c>
+      <c r="E300" t="n">
+        <v>10</v>
+      </c>
+      <c r="F300" t="n">
+        <v>22</v>
+      </c>
+      <c r="G300" t="n">
+        <v>27</v>
+      </c>
+      <c r="H300" t="n">
+        <v>37</v>
+      </c>
+      <c r="I300" t="n">
+        <v>16</v>
+      </c>
+      <c r="J300" t="n">
+        <v>23</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M300" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N300" t="n">
+        <v>70</v>
+      </c>
+      <c r="O300" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2023-08-22 08:22:57</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>118</v>
+      </c>
+      <c r="C301" t="n">
+        <v>54</v>
+      </c>
+      <c r="D301" t="n">
+        <v>8</v>
+      </c>
+      <c r="E301" t="n">
+        <v>7</v>
+      </c>
+      <c r="F301" t="n">
+        <v>21</v>
+      </c>
+      <c r="G301" t="n">
+        <v>26</v>
+      </c>
+      <c r="H301" t="n">
+        <v>47</v>
+      </c>
+      <c r="I301" t="n">
+        <v>25</v>
+      </c>
+      <c r="J301" t="n">
+        <v>9</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M301" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N301" t="n">
+        <v>70</v>
+      </c>
+      <c r="O301" t="n">
+        <v>512</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O301"/>
+  <dimension ref="A1:P364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>batch_size</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Nros a Predecir</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -556,6 +561,7 @@
       <c r="O2" t="n">
         <v>512</v>
       </c>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -603,6 +609,7 @@
       <c r="O3" t="n">
         <v>512</v>
       </c>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -650,6 +657,7 @@
       <c r="O4" t="n">
         <v>256</v>
       </c>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -697,6 +705,7 @@
       <c r="O5" t="n">
         <v>256</v>
       </c>
+      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -744,6 +753,7 @@
       <c r="O6" t="n">
         <v>512</v>
       </c>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -791,6 +801,7 @@
       <c r="O7" t="n">
         <v>256</v>
       </c>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -838,6 +849,7 @@
       <c r="O8" t="n">
         <v>256</v>
       </c>
+      <c r="P8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -885,6 +897,7 @@
       <c r="O9" t="n">
         <v>512</v>
       </c>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -932,6 +945,7 @@
       <c r="O10" t="n">
         <v>256</v>
       </c>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -979,6 +993,7 @@
       <c r="O11" t="n">
         <v>512</v>
       </c>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1026,6 +1041,7 @@
       <c r="O12" t="n">
         <v>256</v>
       </c>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1073,6 +1089,7 @@
       <c r="O13" t="n">
         <v>256</v>
       </c>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1120,6 +1137,7 @@
       <c r="O14" t="n">
         <v>512</v>
       </c>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1167,6 +1185,7 @@
       <c r="O15" t="n">
         <v>256</v>
       </c>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1214,6 +1233,7 @@
       <c r="O16" t="n">
         <v>512</v>
       </c>
+      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1261,6 +1281,7 @@
       <c r="O17" t="n">
         <v>256</v>
       </c>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1308,6 +1329,7 @@
       <c r="O18" t="n">
         <v>512</v>
       </c>
+      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1355,6 +1377,7 @@
       <c r="O19" t="n">
         <v>256</v>
       </c>
+      <c r="P19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1402,6 +1425,7 @@
       <c r="O20" t="n">
         <v>512</v>
       </c>
+      <c r="P20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1449,6 +1473,7 @@
       <c r="O21" t="n">
         <v>256</v>
       </c>
+      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1496,6 +1521,7 @@
       <c r="O22" t="n">
         <v>512</v>
       </c>
+      <c r="P22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1543,6 +1569,7 @@
       <c r="O23" t="n">
         <v>512</v>
       </c>
+      <c r="P23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1590,6 +1617,7 @@
       <c r="O24" t="n">
         <v>512</v>
       </c>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1637,6 +1665,7 @@
       <c r="O25" t="n">
         <v>512</v>
       </c>
+      <c r="P25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1684,6 +1713,7 @@
       <c r="O26" t="n">
         <v>512</v>
       </c>
+      <c r="P26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1731,6 +1761,7 @@
       <c r="O27" t="n">
         <v>256</v>
       </c>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1778,6 +1809,7 @@
       <c r="O28" t="n">
         <v>256</v>
       </c>
+      <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1825,6 +1857,7 @@
       <c r="O29" t="n">
         <v>512</v>
       </c>
+      <c r="P29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1872,6 +1905,7 @@
       <c r="O30" t="n">
         <v>256</v>
       </c>
+      <c r="P30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1919,6 +1953,7 @@
       <c r="O31" t="n">
         <v>512</v>
       </c>
+      <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1966,6 +2001,7 @@
       <c r="O32" t="n">
         <v>256</v>
       </c>
+      <c r="P32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2013,6 +2049,7 @@
       <c r="O33" t="n">
         <v>256</v>
       </c>
+      <c r="P33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2060,6 +2097,7 @@
       <c r="O34" t="n">
         <v>512</v>
       </c>
+      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2107,6 +2145,7 @@
       <c r="O35" t="n">
         <v>512</v>
       </c>
+      <c r="P35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2154,6 +2193,7 @@
       <c r="O36" t="n">
         <v>256</v>
       </c>
+      <c r="P36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2201,6 +2241,7 @@
       <c r="O37" t="n">
         <v>256</v>
       </c>
+      <c r="P37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2248,6 +2289,7 @@
       <c r="O38" t="n">
         <v>256</v>
       </c>
+      <c r="P38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2295,6 +2337,7 @@
       <c r="O39" t="n">
         <v>512</v>
       </c>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2342,6 +2385,7 @@
       <c r="O40" t="n">
         <v>512</v>
       </c>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2389,6 +2433,7 @@
       <c r="O41" t="n">
         <v>512</v>
       </c>
+      <c r="P41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2436,6 +2481,7 @@
       <c r="O42" t="n">
         <v>512</v>
       </c>
+      <c r="P42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2483,6 +2529,7 @@
       <c r="O43" t="n">
         <v>512</v>
       </c>
+      <c r="P43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2530,6 +2577,7 @@
       <c r="O44" t="n">
         <v>512</v>
       </c>
+      <c r="P44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2577,6 +2625,7 @@
       <c r="O45" t="n">
         <v>512</v>
       </c>
+      <c r="P45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2624,6 +2673,7 @@
       <c r="O46" t="n">
         <v>256</v>
       </c>
+      <c r="P46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2671,6 +2721,7 @@
       <c r="O47" t="n">
         <v>512</v>
       </c>
+      <c r="P47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2718,6 +2769,7 @@
       <c r="O48" t="n">
         <v>256</v>
       </c>
+      <c r="P48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2765,6 +2817,7 @@
       <c r="O49" t="n">
         <v>512</v>
       </c>
+      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2812,6 +2865,7 @@
       <c r="O50" t="n">
         <v>512</v>
       </c>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2859,6 +2913,7 @@
       <c r="O51" t="n">
         <v>512</v>
       </c>
+      <c r="P51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2906,6 +2961,7 @@
       <c r="O52" t="n">
         <v>256</v>
       </c>
+      <c r="P52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2953,6 +3009,7 @@
       <c r="O53" t="n">
         <v>512</v>
       </c>
+      <c r="P53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3000,6 +3057,7 @@
       <c r="O54" t="n">
         <v>256</v>
       </c>
+      <c r="P54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3047,6 +3105,7 @@
       <c r="O55" t="n">
         <v>256</v>
       </c>
+      <c r="P55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3094,6 +3153,7 @@
       <c r="O56" t="n">
         <v>512</v>
       </c>
+      <c r="P56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3141,6 +3201,7 @@
       <c r="O57" t="n">
         <v>512</v>
       </c>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3188,6 +3249,7 @@
       <c r="O58" t="n">
         <v>256</v>
       </c>
+      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3235,6 +3297,7 @@
       <c r="O59" t="n">
         <v>512</v>
       </c>
+      <c r="P59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3282,6 +3345,7 @@
       <c r="O60" t="n">
         <v>512</v>
       </c>
+      <c r="P60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3329,6 +3393,7 @@
       <c r="O61" t="n">
         <v>512</v>
       </c>
+      <c r="P61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3376,6 +3441,7 @@
       <c r="O62" t="n">
         <v>512</v>
       </c>
+      <c r="P62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3423,6 +3489,7 @@
       <c r="O63" t="n">
         <v>512</v>
       </c>
+      <c r="P63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3470,6 +3537,7 @@
       <c r="O64" t="n">
         <v>512</v>
       </c>
+      <c r="P64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3517,6 +3585,7 @@
       <c r="O65" t="n">
         <v>512</v>
       </c>
+      <c r="P65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3564,6 +3633,7 @@
       <c r="O66" t="n">
         <v>256</v>
       </c>
+      <c r="P66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3611,6 +3681,7 @@
       <c r="O67" t="n">
         <v>256</v>
       </c>
+      <c r="P67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3658,6 +3729,7 @@
       <c r="O68" t="n">
         <v>512</v>
       </c>
+      <c r="P68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3705,6 +3777,7 @@
       <c r="O69" t="n">
         <v>512</v>
       </c>
+      <c r="P69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3752,6 +3825,7 @@
       <c r="O70" t="n">
         <v>512</v>
       </c>
+      <c r="P70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3799,6 +3873,7 @@
       <c r="O71" t="n">
         <v>256</v>
       </c>
+      <c r="P71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3846,6 +3921,7 @@
       <c r="O72" t="n">
         <v>512</v>
       </c>
+      <c r="P72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3893,6 +3969,7 @@
       <c r="O73" t="n">
         <v>256</v>
       </c>
+      <c r="P73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3940,6 +4017,7 @@
       <c r="O74" t="n">
         <v>512</v>
       </c>
+      <c r="P74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3987,6 +4065,7 @@
       <c r="O75" t="n">
         <v>512</v>
       </c>
+      <c r="P75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4034,6 +4113,7 @@
       <c r="O76" t="n">
         <v>512</v>
       </c>
+      <c r="P76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4081,6 +4161,7 @@
       <c r="O77" t="n">
         <v>512</v>
       </c>
+      <c r="P77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4128,6 +4209,7 @@
       <c r="O78" t="n">
         <v>512</v>
       </c>
+      <c r="P78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4175,6 +4257,7 @@
       <c r="O79" t="n">
         <v>512</v>
       </c>
+      <c r="P79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4222,6 +4305,7 @@
       <c r="O80" t="n">
         <v>256</v>
       </c>
+      <c r="P80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4269,6 +4353,7 @@
       <c r="O81" t="n">
         <v>512</v>
       </c>
+      <c r="P81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4316,6 +4401,7 @@
       <c r="O82" t="n">
         <v>256</v>
       </c>
+      <c r="P82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4363,6 +4449,7 @@
       <c r="O83" t="n">
         <v>256</v>
       </c>
+      <c r="P83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4410,6 +4497,7 @@
       <c r="O84" t="n">
         <v>512</v>
       </c>
+      <c r="P84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4457,6 +4545,7 @@
       <c r="O85" t="n">
         <v>256</v>
       </c>
+      <c r="P85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4504,6 +4593,7 @@
       <c r="O86" t="n">
         <v>256</v>
       </c>
+      <c r="P86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4551,6 +4641,7 @@
       <c r="O87" t="n">
         <v>256</v>
       </c>
+      <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4598,6 +4689,7 @@
       <c r="O88" t="n">
         <v>256</v>
       </c>
+      <c r="P88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4645,6 +4737,7 @@
       <c r="O89" t="n">
         <v>256</v>
       </c>
+      <c r="P89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4692,6 +4785,7 @@
       <c r="O90" t="n">
         <v>512</v>
       </c>
+      <c r="P90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4739,6 +4833,7 @@
       <c r="O91" t="n">
         <v>512</v>
       </c>
+      <c r="P91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4786,6 +4881,7 @@
       <c r="O92" t="n">
         <v>512</v>
       </c>
+      <c r="P92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4833,6 +4929,7 @@
       <c r="O93" t="n">
         <v>256</v>
       </c>
+      <c r="P93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4880,6 +4977,7 @@
       <c r="O94" t="n">
         <v>512</v>
       </c>
+      <c r="P94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4927,6 +5025,7 @@
       <c r="O95" t="n">
         <v>256</v>
       </c>
+      <c r="P95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4974,6 +5073,7 @@
       <c r="O96" t="n">
         <v>512</v>
       </c>
+      <c r="P96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5021,6 +5121,7 @@
       <c r="O97" t="n">
         <v>512</v>
       </c>
+      <c r="P97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5068,6 +5169,7 @@
       <c r="O98" t="n">
         <v>512</v>
       </c>
+      <c r="P98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5115,6 +5217,7 @@
       <c r="O99" t="n">
         <v>256</v>
       </c>
+      <c r="P99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5162,6 +5265,7 @@
       <c r="O100" t="n">
         <v>512</v>
       </c>
+      <c r="P100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5209,6 +5313,7 @@
       <c r="O101" t="n">
         <v>256</v>
       </c>
+      <c r="P101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5256,6 +5361,7 @@
       <c r="O102" t="n">
         <v>256</v>
       </c>
+      <c r="P102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5303,6 +5409,7 @@
       <c r="O103" t="n">
         <v>256</v>
       </c>
+      <c r="P103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5350,6 +5457,7 @@
       <c r="O104" t="n">
         <v>512</v>
       </c>
+      <c r="P104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5397,6 +5505,7 @@
       <c r="O105" t="n">
         <v>256</v>
       </c>
+      <c r="P105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5444,6 +5553,7 @@
       <c r="O106" t="n">
         <v>256</v>
       </c>
+      <c r="P106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5491,6 +5601,7 @@
       <c r="O107" t="n">
         <v>512</v>
       </c>
+      <c r="P107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -5538,6 +5649,7 @@
       <c r="O108" t="n">
         <v>512</v>
       </c>
+      <c r="P108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -5585,6 +5697,7 @@
       <c r="O109" t="n">
         <v>256</v>
       </c>
+      <c r="P109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5632,6 +5745,7 @@
       <c r="O110" t="n">
         <v>512</v>
       </c>
+      <c r="P110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5679,6 +5793,7 @@
       <c r="O111" t="n">
         <v>256</v>
       </c>
+      <c r="P111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5726,6 +5841,7 @@
       <c r="O112" t="n">
         <v>256</v>
       </c>
+      <c r="P112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5773,6 +5889,7 @@
       <c r="O113" t="n">
         <v>512</v>
       </c>
+      <c r="P113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5820,6 +5937,7 @@
       <c r="O114" t="n">
         <v>256</v>
       </c>
+      <c r="P114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -5867,6 +5985,7 @@
       <c r="O115" t="n">
         <v>256</v>
       </c>
+      <c r="P115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5914,6 +6033,7 @@
       <c r="O116" t="n">
         <v>512</v>
       </c>
+      <c r="P116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5961,6 +6081,7 @@
       <c r="O117" t="n">
         <v>512</v>
       </c>
+      <c r="P117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6008,6 +6129,7 @@
       <c r="O118" t="n">
         <v>256</v>
       </c>
+      <c r="P118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6055,6 +6177,7 @@
       <c r="O119" t="n">
         <v>512</v>
       </c>
+      <c r="P119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6102,6 +6225,7 @@
       <c r="O120" t="n">
         <v>256</v>
       </c>
+      <c r="P120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6149,6 +6273,7 @@
       <c r="O121" t="n">
         <v>256</v>
       </c>
+      <c r="P121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6196,6 +6321,7 @@
       <c r="O122" t="n">
         <v>256</v>
       </c>
+      <c r="P122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6243,6 +6369,7 @@
       <c r="O123" t="n">
         <v>256</v>
       </c>
+      <c r="P123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6290,6 +6417,7 @@
       <c r="O124" t="n">
         <v>256</v>
       </c>
+      <c r="P124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6337,6 +6465,7 @@
       <c r="O125" t="n">
         <v>512</v>
       </c>
+      <c r="P125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6384,6 +6513,7 @@
       <c r="O126" t="n">
         <v>512</v>
       </c>
+      <c r="P126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -6431,6 +6561,7 @@
       <c r="O127" t="n">
         <v>256</v>
       </c>
+      <c r="P127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -6478,6 +6609,7 @@
       <c r="O128" t="n">
         <v>512</v>
       </c>
+      <c r="P128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -6525,6 +6657,7 @@
       <c r="O129" t="n">
         <v>512</v>
       </c>
+      <c r="P129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -6572,6 +6705,7 @@
       <c r="O130" t="n">
         <v>256</v>
       </c>
+      <c r="P130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6619,6 +6753,7 @@
       <c r="O131" t="n">
         <v>512</v>
       </c>
+      <c r="P131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6666,6 +6801,7 @@
       <c r="O132" t="n">
         <v>256</v>
       </c>
+      <c r="P132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -6713,6 +6849,7 @@
       <c r="O133" t="n">
         <v>512</v>
       </c>
+      <c r="P133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6760,6 +6897,7 @@
       <c r="O134" t="n">
         <v>256</v>
       </c>
+      <c r="P134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6807,6 +6945,7 @@
       <c r="O135" t="n">
         <v>256</v>
       </c>
+      <c r="P135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6854,6 +6993,7 @@
       <c r="O136" t="n">
         <v>512</v>
       </c>
+      <c r="P136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6901,6 +7041,7 @@
       <c r="O137" t="n">
         <v>512</v>
       </c>
+      <c r="P137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6948,6 +7089,7 @@
       <c r="O138" t="n">
         <v>256</v>
       </c>
+      <c r="P138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6995,6 +7137,7 @@
       <c r="O139" t="n">
         <v>512</v>
       </c>
+      <c r="P139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7042,6 +7185,7 @@
       <c r="O140" t="n">
         <v>256</v>
       </c>
+      <c r="P140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7089,6 +7233,7 @@
       <c r="O141" t="n">
         <v>512</v>
       </c>
+      <c r="P141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7136,6 +7281,7 @@
       <c r="O142" t="n">
         <v>512</v>
       </c>
+      <c r="P142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7183,6 +7329,7 @@
       <c r="O143" t="n">
         <v>256</v>
       </c>
+      <c r="P143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7230,6 +7377,7 @@
       <c r="O144" t="n">
         <v>512</v>
       </c>
+      <c r="P144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7277,6 +7425,7 @@
       <c r="O145" t="n">
         <v>512</v>
       </c>
+      <c r="P145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -7324,6 +7473,7 @@
       <c r="O146" t="n">
         <v>256</v>
       </c>
+      <c r="P146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -7371,6 +7521,7 @@
       <c r="O147" t="n">
         <v>512</v>
       </c>
+      <c r="P147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -7418,6 +7569,7 @@
       <c r="O148" t="n">
         <v>512</v>
       </c>
+      <c r="P148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -7465,6 +7617,7 @@
       <c r="O149" t="n">
         <v>256</v>
       </c>
+      <c r="P149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -7512,6 +7665,7 @@
       <c r="O150" t="n">
         <v>256</v>
       </c>
+      <c r="P150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -7559,6 +7713,7 @@
       <c r="O151" t="n">
         <v>256</v>
       </c>
+      <c r="P151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -7606,6 +7761,7 @@
       <c r="O152" t="n">
         <v>512</v>
       </c>
+      <c r="P152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -7653,6 +7809,7 @@
       <c r="O153" t="n">
         <v>256</v>
       </c>
+      <c r="P153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -7700,6 +7857,7 @@
       <c r="O154" t="n">
         <v>512</v>
       </c>
+      <c r="P154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -7747,6 +7905,7 @@
       <c r="O155" t="n">
         <v>512</v>
       </c>
+      <c r="P155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -7794,6 +7953,7 @@
       <c r="O156" t="n">
         <v>512</v>
       </c>
+      <c r="P156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -7841,6 +8001,7 @@
       <c r="O157" t="n">
         <v>256</v>
       </c>
+      <c r="P157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -7888,6 +8049,7 @@
       <c r="O158" t="n">
         <v>512</v>
       </c>
+      <c r="P158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -7935,6 +8097,7 @@
       <c r="O159" t="n">
         <v>512</v>
       </c>
+      <c r="P159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -7982,6 +8145,7 @@
       <c r="O160" t="n">
         <v>512</v>
       </c>
+      <c r="P160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8029,6 +8193,7 @@
       <c r="O161" t="n">
         <v>256</v>
       </c>
+      <c r="P161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8076,6 +8241,7 @@
       <c r="O162" t="n">
         <v>512</v>
       </c>
+      <c r="P162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8123,6 +8289,7 @@
       <c r="O163" t="n">
         <v>256</v>
       </c>
+      <c r="P163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8170,6 +8337,7 @@
       <c r="O164" t="n">
         <v>256</v>
       </c>
+      <c r="P164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -8217,6 +8385,7 @@
       <c r="O165" t="n">
         <v>512</v>
       </c>
+      <c r="P165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -8264,6 +8433,7 @@
       <c r="O166" t="n">
         <v>512</v>
       </c>
+      <c r="P166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -8311,6 +8481,7 @@
       <c r="O167" t="n">
         <v>512</v>
       </c>
+      <c r="P167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -8358,6 +8529,7 @@
       <c r="O168" t="n">
         <v>512</v>
       </c>
+      <c r="P168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8405,6 +8577,7 @@
       <c r="O169" t="n">
         <v>512</v>
       </c>
+      <c r="P169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -8452,6 +8625,7 @@
       <c r="O170" t="n">
         <v>512</v>
       </c>
+      <c r="P170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -8499,6 +8673,7 @@
       <c r="O171" t="n">
         <v>512</v>
       </c>
+      <c r="P171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -8546,6 +8721,7 @@
       <c r="O172" t="n">
         <v>512</v>
       </c>
+      <c r="P172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -8593,6 +8769,7 @@
       <c r="O173" t="n">
         <v>512</v>
       </c>
+      <c r="P173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -8642,6 +8819,7 @@
       <c r="O174" t="n">
         <v>512</v>
       </c>
+      <c r="P174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -8691,6 +8869,7 @@
       <c r="O175" t="n">
         <v>512</v>
       </c>
+      <c r="P175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -8740,6 +8919,7 @@
       <c r="O176" t="n">
         <v>512</v>
       </c>
+      <c r="P176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -8789,6 +8969,7 @@
       <c r="O177" t="n">
         <v>512</v>
       </c>
+      <c r="P177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -8838,6 +9019,7 @@
       <c r="O178" t="n">
         <v>512</v>
       </c>
+      <c r="P178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -8887,6 +9069,7 @@
       <c r="O179" t="n">
         <v>512</v>
       </c>
+      <c r="P179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -8936,6 +9119,7 @@
       <c r="O180" t="n">
         <v>512</v>
       </c>
+      <c r="P180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -8985,6 +9169,7 @@
       <c r="O181" t="n">
         <v>512</v>
       </c>
+      <c r="P181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9034,6 +9219,7 @@
       <c r="O182" t="n">
         <v>512</v>
       </c>
+      <c r="P182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9083,6 +9269,7 @@
       <c r="O183" t="n">
         <v>512</v>
       </c>
+      <c r="P183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9132,6 +9319,7 @@
       <c r="O184" t="n">
         <v>512</v>
       </c>
+      <c r="P184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -9181,6 +9369,7 @@
       <c r="O185" t="n">
         <v>512</v>
       </c>
+      <c r="P185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -9230,6 +9419,7 @@
       <c r="O186" t="n">
         <v>512</v>
       </c>
+      <c r="P186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -9279,6 +9469,7 @@
       <c r="O187" t="n">
         <v>512</v>
       </c>
+      <c r="P187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -9328,6 +9519,7 @@
       <c r="O188" t="n">
         <v>512</v>
       </c>
+      <c r="P188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -9377,6 +9569,7 @@
       <c r="O189" t="n">
         <v>512</v>
       </c>
+      <c r="P189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -9426,6 +9619,7 @@
       <c r="O190" t="n">
         <v>512</v>
       </c>
+      <c r="P190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -9475,6 +9669,7 @@
       <c r="O191" t="n">
         <v>512</v>
       </c>
+      <c r="P191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -9524,6 +9719,7 @@
       <c r="O192" t="n">
         <v>512</v>
       </c>
+      <c r="P192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -9573,6 +9769,7 @@
       <c r="O193" t="n">
         <v>512</v>
       </c>
+      <c r="P193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -9622,6 +9819,7 @@
       <c r="O194" t="n">
         <v>512</v>
       </c>
+      <c r="P194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -9671,6 +9869,7 @@
       <c r="O195" t="n">
         <v>512</v>
       </c>
+      <c r="P195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -9720,6 +9919,7 @@
       <c r="O196" t="n">
         <v>512</v>
       </c>
+      <c r="P196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -9769,6 +9969,7 @@
       <c r="O197" t="n">
         <v>512</v>
       </c>
+      <c r="P197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -9818,6 +10019,7 @@
       <c r="O198" t="n">
         <v>512</v>
       </c>
+      <c r="P198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -9867,6 +10069,7 @@
       <c r="O199" t="n">
         <v>512</v>
       </c>
+      <c r="P199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -9916,6 +10119,7 @@
       <c r="O200" t="n">
         <v>256</v>
       </c>
+      <c r="P200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9965,6 +10169,7 @@
       <c r="O201" t="n">
         <v>256</v>
       </c>
+      <c r="P201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10014,6 +10219,7 @@
       <c r="O202" t="n">
         <v>256</v>
       </c>
+      <c r="P202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10063,6 +10269,7 @@
       <c r="O203" t="n">
         <v>512</v>
       </c>
+      <c r="P203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -10112,6 +10319,7 @@
       <c r="O204" t="n">
         <v>512</v>
       </c>
+      <c r="P204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -10161,6 +10369,7 @@
       <c r="O205" t="n">
         <v>512</v>
       </c>
+      <c r="P205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -10210,6 +10419,7 @@
       <c r="O206" t="n">
         <v>512</v>
       </c>
+      <c r="P206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -10259,6 +10469,7 @@
       <c r="O207" t="n">
         <v>256</v>
       </c>
+      <c r="P207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -10308,6 +10519,7 @@
       <c r="O208" t="n">
         <v>256</v>
       </c>
+      <c r="P208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -10357,6 +10569,7 @@
       <c r="O209" t="n">
         <v>256</v>
       </c>
+      <c r="P209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -10406,6 +10619,7 @@
       <c r="O210" t="n">
         <v>256</v>
       </c>
+      <c r="P210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -10455,6 +10669,7 @@
       <c r="O211" t="n">
         <v>256</v>
       </c>
+      <c r="P211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -10504,6 +10719,7 @@
       <c r="O212" t="n">
         <v>512</v>
       </c>
+      <c r="P212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -10553,6 +10769,7 @@
       <c r="O213" t="n">
         <v>512</v>
       </c>
+      <c r="P213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -10602,6 +10819,7 @@
       <c r="O214" t="n">
         <v>512</v>
       </c>
+      <c r="P214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -10651,6 +10869,7 @@
       <c r="O215" t="n">
         <v>512</v>
       </c>
+      <c r="P215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -10700,6 +10919,7 @@
       <c r="O216" t="n">
         <v>512</v>
       </c>
+      <c r="P216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -10749,6 +10969,7 @@
       <c r="O217" t="n">
         <v>512</v>
       </c>
+      <c r="P217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -10798,6 +11019,7 @@
       <c r="O218" t="n">
         <v>512</v>
       </c>
+      <c r="P218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -10847,6 +11069,7 @@
       <c r="O219" t="n">
         <v>512</v>
       </c>
+      <c r="P219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -10896,6 +11119,7 @@
       <c r="O220" t="n">
         <v>512</v>
       </c>
+      <c r="P220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -10945,6 +11169,7 @@
       <c r="O221" t="n">
         <v>512</v>
       </c>
+      <c r="P221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -10994,6 +11219,7 @@
       <c r="O222" t="n">
         <v>512</v>
       </c>
+      <c r="P222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -11043,6 +11269,7 @@
       <c r="O223" t="n">
         <v>512</v>
       </c>
+      <c r="P223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -11092,6 +11319,7 @@
       <c r="O224" t="n">
         <v>512</v>
       </c>
+      <c r="P224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -11141,6 +11369,7 @@
       <c r="O225" t="n">
         <v>512</v>
       </c>
+      <c r="P225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -11190,6 +11419,7 @@
       <c r="O226" t="n">
         <v>512</v>
       </c>
+      <c r="P226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -11239,6 +11469,7 @@
       <c r="O227" t="n">
         <v>512</v>
       </c>
+      <c r="P227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -11288,6 +11519,7 @@
       <c r="O228" t="n">
         <v>512</v>
       </c>
+      <c r="P228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -11337,6 +11569,7 @@
       <c r="O229" t="n">
         <v>512</v>
       </c>
+      <c r="P229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -11386,6 +11619,7 @@
       <c r="O230" t="n">
         <v>512</v>
       </c>
+      <c r="P230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -11435,6 +11669,7 @@
       <c r="O231" t="n">
         <v>512</v>
       </c>
+      <c r="P231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -11484,6 +11719,7 @@
       <c r="O232" t="n">
         <v>512</v>
       </c>
+      <c r="P232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -11533,6 +11769,7 @@
       <c r="O233" t="n">
         <v>512</v>
       </c>
+      <c r="P233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -11582,6 +11819,7 @@
       <c r="O234" t="n">
         <v>512</v>
       </c>
+      <c r="P234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -11631,6 +11869,7 @@
       <c r="O235" t="n">
         <v>512</v>
       </c>
+      <c r="P235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -11680,6 +11919,7 @@
       <c r="O236" t="n">
         <v>512</v>
       </c>
+      <c r="P236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -11729,6 +11969,7 @@
       <c r="O237" t="n">
         <v>512</v>
       </c>
+      <c r="P237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -11778,6 +12019,7 @@
       <c r="O238" t="n">
         <v>512</v>
       </c>
+      <c r="P238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -11827,6 +12069,7 @@
       <c r="O239" t="n">
         <v>512</v>
       </c>
+      <c r="P239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -11876,6 +12119,7 @@
       <c r="O240" t="n">
         <v>512</v>
       </c>
+      <c r="P240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -11925,6 +12169,7 @@
       <c r="O241" t="n">
         <v>512</v>
       </c>
+      <c r="P241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -11974,6 +12219,7 @@
       <c r="O242" t="n">
         <v>512</v>
       </c>
+      <c r="P242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -12023,6 +12269,7 @@
       <c r="O243" t="n">
         <v>512</v>
       </c>
+      <c r="P243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -12072,6 +12319,7 @@
       <c r="O244" t="n">
         <v>512</v>
       </c>
+      <c r="P244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -12121,6 +12369,7 @@
       <c r="O245" t="n">
         <v>512</v>
       </c>
+      <c r="P245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -12170,6 +12419,7 @@
       <c r="O246" t="n">
         <v>512</v>
       </c>
+      <c r="P246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -12219,6 +12469,7 @@
       <c r="O247" t="n">
         <v>512</v>
       </c>
+      <c r="P247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -12268,6 +12519,7 @@
       <c r="O248" t="n">
         <v>512</v>
       </c>
+      <c r="P248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -12317,6 +12569,7 @@
       <c r="O249" t="n">
         <v>512</v>
       </c>
+      <c r="P249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -12366,6 +12619,7 @@
       <c r="O250" t="n">
         <v>512</v>
       </c>
+      <c r="P250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -12415,6 +12669,7 @@
       <c r="O251" t="n">
         <v>512</v>
       </c>
+      <c r="P251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -12464,6 +12719,7 @@
       <c r="O252" t="n">
         <v>512</v>
       </c>
+      <c r="P252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -12513,6 +12769,7 @@
       <c r="O253" t="n">
         <v>512</v>
       </c>
+      <c r="P253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -12562,6 +12819,7 @@
       <c r="O254" t="n">
         <v>512</v>
       </c>
+      <c r="P254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -12611,6 +12869,7 @@
       <c r="O255" t="n">
         <v>512</v>
       </c>
+      <c r="P255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -12660,6 +12919,7 @@
       <c r="O256" t="n">
         <v>512</v>
       </c>
+      <c r="P256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -12709,6 +12969,7 @@
       <c r="O257" t="n">
         <v>512</v>
       </c>
+      <c r="P257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -12758,6 +13019,7 @@
       <c r="O258" t="n">
         <v>512</v>
       </c>
+      <c r="P258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -12807,6 +13069,7 @@
       <c r="O259" t="n">
         <v>512</v>
       </c>
+      <c r="P259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -12856,6 +13119,7 @@
       <c r="O260" t="n">
         <v>512</v>
       </c>
+      <c r="P260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -12905,6 +13169,7 @@
       <c r="O261" t="n">
         <v>512</v>
       </c>
+      <c r="P261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -12954,6 +13219,7 @@
       <c r="O262" t="n">
         <v>512</v>
       </c>
+      <c r="P262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -13003,6 +13269,7 @@
       <c r="O263" t="n">
         <v>512</v>
       </c>
+      <c r="P263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -13052,6 +13319,7 @@
       <c r="O264" t="n">
         <v>512</v>
       </c>
+      <c r="P264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -13101,6 +13369,7 @@
       <c r="O265" t="n">
         <v>512</v>
       </c>
+      <c r="P265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -13150,6 +13419,7 @@
       <c r="O266" t="n">
         <v>512</v>
       </c>
+      <c r="P266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -13199,6 +13469,7 @@
       <c r="O267" t="n">
         <v>512</v>
       </c>
+      <c r="P267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -13248,6 +13519,7 @@
       <c r="O268" t="n">
         <v>512</v>
       </c>
+      <c r="P268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -13297,6 +13569,7 @@
       <c r="O269" t="n">
         <v>512</v>
       </c>
+      <c r="P269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -13346,6 +13619,7 @@
       <c r="O270" t="n">
         <v>512</v>
       </c>
+      <c r="P270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -13395,6 +13669,7 @@
       <c r="O271" t="n">
         <v>512</v>
       </c>
+      <c r="P271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -13444,6 +13719,7 @@
       <c r="O272" t="n">
         <v>512</v>
       </c>
+      <c r="P272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -13493,6 +13769,7 @@
       <c r="O273" t="n">
         <v>512</v>
       </c>
+      <c r="P273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -13542,6 +13819,7 @@
       <c r="O274" t="n">
         <v>512</v>
       </c>
+      <c r="P274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -13591,6 +13869,7 @@
       <c r="O275" t="n">
         <v>512</v>
       </c>
+      <c r="P275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -13640,6 +13919,7 @@
       <c r="O276" t="n">
         <v>512</v>
       </c>
+      <c r="P276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -13689,6 +13969,7 @@
       <c r="O277" t="n">
         <v>512</v>
       </c>
+      <c r="P277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -13738,6 +14019,7 @@
       <c r="O278" t="n">
         <v>512</v>
       </c>
+      <c r="P278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -13787,6 +14069,7 @@
       <c r="O279" t="n">
         <v>512</v>
       </c>
+      <c r="P279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -13836,6 +14119,7 @@
       <c r="O280" t="n">
         <v>512</v>
       </c>
+      <c r="P280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -13885,6 +14169,7 @@
       <c r="O281" t="n">
         <v>512</v>
       </c>
+      <c r="P281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -13934,6 +14219,7 @@
       <c r="O282" t="n">
         <v>512</v>
       </c>
+      <c r="P282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -13983,6 +14269,7 @@
       <c r="O283" t="n">
         <v>512</v>
       </c>
+      <c r="P283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -14032,6 +14319,7 @@
       <c r="O284" t="n">
         <v>512</v>
       </c>
+      <c r="P284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -14081,6 +14369,7 @@
       <c r="O285" t="n">
         <v>512</v>
       </c>
+      <c r="P285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -14130,6 +14419,7 @@
       <c r="O286" t="n">
         <v>512</v>
       </c>
+      <c r="P286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -14179,6 +14469,7 @@
       <c r="O287" t="n">
         <v>512</v>
       </c>
+      <c r="P287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -14228,6 +14519,7 @@
       <c r="O288" t="n">
         <v>512</v>
       </c>
+      <c r="P288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -14277,6 +14569,7 @@
       <c r="O289" t="n">
         <v>512</v>
       </c>
+      <c r="P289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -14326,6 +14619,7 @@
       <c r="O290" t="n">
         <v>512</v>
       </c>
+      <c r="P290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -14375,6 +14669,7 @@
       <c r="O291" t="n">
         <v>512</v>
       </c>
+      <c r="P291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -14424,6 +14719,7 @@
       <c r="O292" t="n">
         <v>512</v>
       </c>
+      <c r="P292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -14473,6 +14769,7 @@
       <c r="O293" t="n">
         <v>512</v>
       </c>
+      <c r="P293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -14522,6 +14819,7 @@
       <c r="O294" t="n">
         <v>512</v>
       </c>
+      <c r="P294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -14571,6 +14869,7 @@
       <c r="O295" t="n">
         <v>512</v>
       </c>
+      <c r="P295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -14620,6 +14919,7 @@
       <c r="O296" t="n">
         <v>512</v>
       </c>
+      <c r="P296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -14669,6 +14969,7 @@
       <c r="O297" t="n">
         <v>512</v>
       </c>
+      <c r="P297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -14718,6 +15019,7 @@
       <c r="O298" t="n">
         <v>512</v>
       </c>
+      <c r="P298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -14767,6 +15069,7 @@
       <c r="O299" t="n">
         <v>512</v>
       </c>
+      <c r="P299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -14816,6 +15119,7 @@
       <c r="O300" t="n">
         <v>512</v>
       </c>
+      <c r="P300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -14864,6 +15168,3169 @@
       </c>
       <c r="O301" t="n">
         <v>512</v>
+      </c>
+      <c r="P301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2023-08-22 17:44:56</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>40</v>
+      </c>
+      <c r="C302" t="n">
+        <v>18</v>
+      </c>
+      <c r="D302" t="n">
+        <v>8</v>
+      </c>
+      <c r="E302" t="n">
+        <v>4</v>
+      </c>
+      <c r="F302" t="n">
+        <v>7</v>
+      </c>
+      <c r="G302" t="n">
+        <v>7</v>
+      </c>
+      <c r="H302" t="n">
+        <v>19</v>
+      </c>
+      <c r="I302" t="n">
+        <v>11</v>
+      </c>
+      <c r="J302" t="n">
+        <v>15</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M302" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N302" t="n">
+        <v>30</v>
+      </c>
+      <c r="O302" t="n">
+        <v>512</v>
+      </c>
+      <c r="P302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2023-08-22 17:45:02</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>40</v>
+      </c>
+      <c r="C303" t="n">
+        <v>20</v>
+      </c>
+      <c r="D303" t="n">
+        <v>7</v>
+      </c>
+      <c r="E303" t="n">
+        <v>3</v>
+      </c>
+      <c r="F303" t="n">
+        <v>9</v>
+      </c>
+      <c r="G303" t="n">
+        <v>8</v>
+      </c>
+      <c r="H303" t="n">
+        <v>27</v>
+      </c>
+      <c r="I303" t="n">
+        <v>25</v>
+      </c>
+      <c r="J303" t="n">
+        <v>13</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M303" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N303" t="n">
+        <v>30</v>
+      </c>
+      <c r="O303" t="n">
+        <v>512</v>
+      </c>
+      <c r="P303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2023-08-22 17:45:19</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>130</v>
+      </c>
+      <c r="C304" t="n">
+        <v>56</v>
+      </c>
+      <c r="D304" t="n">
+        <v>8</v>
+      </c>
+      <c r="E304" t="n">
+        <v>12</v>
+      </c>
+      <c r="F304" t="n">
+        <v>27</v>
+      </c>
+      <c r="G304" t="n">
+        <v>17</v>
+      </c>
+      <c r="H304" t="n">
+        <v>37</v>
+      </c>
+      <c r="I304" t="n">
+        <v>14</v>
+      </c>
+      <c r="J304" t="n">
+        <v>21</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M304" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N304" t="n">
+        <v>30</v>
+      </c>
+      <c r="O304" t="n">
+        <v>512</v>
+      </c>
+      <c r="P304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2023-08-22 17:45:36</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>120</v>
+      </c>
+      <c r="C305" t="n">
+        <v>57</v>
+      </c>
+      <c r="D305" t="n">
+        <v>6</v>
+      </c>
+      <c r="E305" t="n">
+        <v>12</v>
+      </c>
+      <c r="F305" t="n">
+        <v>22</v>
+      </c>
+      <c r="G305" t="n">
+        <v>23</v>
+      </c>
+      <c r="H305" t="n">
+        <v>37</v>
+      </c>
+      <c r="I305" t="n">
+        <v>25</v>
+      </c>
+      <c r="J305" t="n">
+        <v>13</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N305" t="n">
+        <v>30</v>
+      </c>
+      <c r="O305" t="n">
+        <v>512</v>
+      </c>
+      <c r="P305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2023-08-22 17:45:52</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>118</v>
+      </c>
+      <c r="C306" t="n">
+        <v>45</v>
+      </c>
+      <c r="D306" t="n">
+        <v>7</v>
+      </c>
+      <c r="E306" t="n">
+        <v>6</v>
+      </c>
+      <c r="F306" t="n">
+        <v>26</v>
+      </c>
+      <c r="G306" t="n">
+        <v>13</v>
+      </c>
+      <c r="H306" t="n">
+        <v>58</v>
+      </c>
+      <c r="I306" t="n">
+        <v>11</v>
+      </c>
+      <c r="J306" t="n">
+        <v>31</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M306" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N306" t="n">
+        <v>30</v>
+      </c>
+      <c r="O306" t="n">
+        <v>512</v>
+      </c>
+      <c r="P306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2023-08-22 17:56:02</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>40</v>
+      </c>
+      <c r="C307" t="n">
+        <v>19</v>
+      </c>
+      <c r="D307" t="n">
+        <v>6</v>
+      </c>
+      <c r="E307" t="n">
+        <v>7</v>
+      </c>
+      <c r="F307" t="n">
+        <v>5</v>
+      </c>
+      <c r="G307" t="n">
+        <v>7</v>
+      </c>
+      <c r="H307" t="n">
+        <v>9</v>
+      </c>
+      <c r="I307" t="n">
+        <v>23</v>
+      </c>
+      <c r="J307" t="n">
+        <v>11</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M307" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N307" t="n">
+        <v>70</v>
+      </c>
+      <c r="O307" t="n">
+        <v>512</v>
+      </c>
+      <c r="P307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2023-08-22 17:56:25</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>40</v>
+      </c>
+      <c r="C308" t="n">
+        <v>19</v>
+      </c>
+      <c r="D308" t="n">
+        <v>5</v>
+      </c>
+      <c r="E308" t="n">
+        <v>4</v>
+      </c>
+      <c r="F308" t="n">
+        <v>8</v>
+      </c>
+      <c r="G308" t="n">
+        <v>7</v>
+      </c>
+      <c r="H308" t="n">
+        <v>16</v>
+      </c>
+      <c r="I308" t="n">
+        <v>7</v>
+      </c>
+      <c r="J308" t="n">
+        <v>24</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N308" t="n">
+        <v>70</v>
+      </c>
+      <c r="O308" t="n">
+        <v>512</v>
+      </c>
+      <c r="P308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2023-08-22 17:57:33</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>130</v>
+      </c>
+      <c r="C309" t="n">
+        <v>58</v>
+      </c>
+      <c r="D309" t="n">
+        <v>10</v>
+      </c>
+      <c r="E309" t="n">
+        <v>12</v>
+      </c>
+      <c r="F309" t="n">
+        <v>27</v>
+      </c>
+      <c r="G309" t="n">
+        <v>19</v>
+      </c>
+      <c r="H309" t="n">
+        <v>25</v>
+      </c>
+      <c r="I309" t="n">
+        <v>25</v>
+      </c>
+      <c r="J309" t="n">
+        <v>30</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N309" t="n">
+        <v>70</v>
+      </c>
+      <c r="O309" t="n">
+        <v>512</v>
+      </c>
+      <c r="P309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2023-08-22 17:58:41</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>120</v>
+      </c>
+      <c r="C310" t="n">
+        <v>57</v>
+      </c>
+      <c r="D310" t="n">
+        <v>7</v>
+      </c>
+      <c r="E310" t="n">
+        <v>10</v>
+      </c>
+      <c r="F310" t="n">
+        <v>23</v>
+      </c>
+      <c r="G310" t="n">
+        <v>24</v>
+      </c>
+      <c r="H310" t="n">
+        <v>25</v>
+      </c>
+      <c r="I310" t="n">
+        <v>14</v>
+      </c>
+      <c r="J310" t="n">
+        <v>29</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M310" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N310" t="n">
+        <v>70</v>
+      </c>
+      <c r="O310" t="n">
+        <v>512</v>
+      </c>
+      <c r="P310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2023-08-22 17:59:16</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>118</v>
+      </c>
+      <c r="C311" t="n">
+        <v>41</v>
+      </c>
+      <c r="D311" t="n">
+        <v>15</v>
+      </c>
+      <c r="E311" t="n">
+        <v>7</v>
+      </c>
+      <c r="F311" t="n">
+        <v>18</v>
+      </c>
+      <c r="G311" t="n">
+        <v>16</v>
+      </c>
+      <c r="H311" t="n">
+        <v>30</v>
+      </c>
+      <c r="I311" t="n">
+        <v>26</v>
+      </c>
+      <c r="J311" t="n">
+        <v>21</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M311" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N311" t="n">
+        <v>70</v>
+      </c>
+      <c r="O311" t="n">
+        <v>512</v>
+      </c>
+      <c r="P311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:05:15</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>40</v>
+      </c>
+      <c r="C312" t="n">
+        <v>12</v>
+      </c>
+      <c r="D312" t="n">
+        <v>7</v>
+      </c>
+      <c r="E312" t="n">
+        <v>3</v>
+      </c>
+      <c r="F312" t="n">
+        <v>3</v>
+      </c>
+      <c r="G312" t="n">
+        <v>6</v>
+      </c>
+      <c r="H312" t="n">
+        <v>19</v>
+      </c>
+      <c r="I312" t="n">
+        <v>20</v>
+      </c>
+      <c r="J312" t="n">
+        <v>10</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M312" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N312" t="n">
+        <v>40</v>
+      </c>
+      <c r="O312" t="n">
+        <v>512</v>
+      </c>
+      <c r="P312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:05:22</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>40</v>
+      </c>
+      <c r="C313" t="n">
+        <v>21</v>
+      </c>
+      <c r="D313" t="n">
+        <v>7</v>
+      </c>
+      <c r="E313" t="n">
+        <v>4</v>
+      </c>
+      <c r="F313" t="n">
+        <v>8</v>
+      </c>
+      <c r="G313" t="n">
+        <v>9</v>
+      </c>
+      <c r="H313" t="n">
+        <v>18</v>
+      </c>
+      <c r="I313" t="n">
+        <v>10</v>
+      </c>
+      <c r="J313" t="n">
+        <v>17</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N313" t="n">
+        <v>40</v>
+      </c>
+      <c r="O313" t="n">
+        <v>512</v>
+      </c>
+      <c r="P313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:05:41</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>130</v>
+      </c>
+      <c r="C314" t="n">
+        <v>64</v>
+      </c>
+      <c r="D314" t="n">
+        <v>6</v>
+      </c>
+      <c r="E314" t="n">
+        <v>13</v>
+      </c>
+      <c r="F314" t="n">
+        <v>33</v>
+      </c>
+      <c r="G314" t="n">
+        <v>18</v>
+      </c>
+      <c r="H314" t="n">
+        <v>20</v>
+      </c>
+      <c r="I314" t="n">
+        <v>11</v>
+      </c>
+      <c r="J314" t="n">
+        <v>19</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M314" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N314" t="n">
+        <v>40</v>
+      </c>
+      <c r="O314" t="n">
+        <v>512</v>
+      </c>
+      <c r="P314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:05:59</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>120</v>
+      </c>
+      <c r="C315" t="n">
+        <v>50</v>
+      </c>
+      <c r="D315" t="n">
+        <v>10</v>
+      </c>
+      <c r="E315" t="n">
+        <v>8</v>
+      </c>
+      <c r="F315" t="n">
+        <v>21</v>
+      </c>
+      <c r="G315" t="n">
+        <v>21</v>
+      </c>
+      <c r="H315" t="n">
+        <v>47</v>
+      </c>
+      <c r="I315" t="n">
+        <v>17</v>
+      </c>
+      <c r="J315" t="n">
+        <v>18</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M315" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N315" t="n">
+        <v>40</v>
+      </c>
+      <c r="O315" t="n">
+        <v>512</v>
+      </c>
+      <c r="P315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:06:20</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>118</v>
+      </c>
+      <c r="C316" t="n">
+        <v>53</v>
+      </c>
+      <c r="D316" t="n">
+        <v>6</v>
+      </c>
+      <c r="E316" t="n">
+        <v>11</v>
+      </c>
+      <c r="F316" t="n">
+        <v>27</v>
+      </c>
+      <c r="G316" t="n">
+        <v>15</v>
+      </c>
+      <c r="H316" t="n">
+        <v>24</v>
+      </c>
+      <c r="I316" t="n">
+        <v>13</v>
+      </c>
+      <c r="J316" t="n">
+        <v>34</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M316" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N316" t="n">
+        <v>40</v>
+      </c>
+      <c r="O316" t="n">
+        <v>512</v>
+      </c>
+      <c r="P316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:12:17</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>40</v>
+      </c>
+      <c r="C317" t="n">
+        <v>11</v>
+      </c>
+      <c r="D317" t="n">
+        <v>10</v>
+      </c>
+      <c r="E317" t="n">
+        <v>3</v>
+      </c>
+      <c r="F317" t="n">
+        <v>4</v>
+      </c>
+      <c r="G317" t="n">
+        <v>4</v>
+      </c>
+      <c r="H317" t="n">
+        <v>21</v>
+      </c>
+      <c r="I317" t="n">
+        <v>20</v>
+      </c>
+      <c r="J317" t="n">
+        <v>18</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M317" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N317" t="n">
+        <v>50</v>
+      </c>
+      <c r="O317" t="n">
+        <v>512</v>
+      </c>
+      <c r="P317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:12:25</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>40</v>
+      </c>
+      <c r="C318" t="n">
+        <v>19</v>
+      </c>
+      <c r="D318" t="n">
+        <v>7</v>
+      </c>
+      <c r="E318" t="n">
+        <v>5</v>
+      </c>
+      <c r="F318" t="n">
+        <v>9</v>
+      </c>
+      <c r="G318" t="n">
+        <v>5</v>
+      </c>
+      <c r="H318" t="n">
+        <v>15</v>
+      </c>
+      <c r="I318" t="n">
+        <v>7</v>
+      </c>
+      <c r="J318" t="n">
+        <v>21</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N318" t="n">
+        <v>50</v>
+      </c>
+      <c r="O318" t="n">
+        <v>512</v>
+      </c>
+      <c r="P318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:12:44</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>130</v>
+      </c>
+      <c r="C319" t="n">
+        <v>52</v>
+      </c>
+      <c r="D319" t="n">
+        <v>9</v>
+      </c>
+      <c r="E319" t="n">
+        <v>13</v>
+      </c>
+      <c r="F319" t="n">
+        <v>26</v>
+      </c>
+      <c r="G319" t="n">
+        <v>13</v>
+      </c>
+      <c r="H319" t="n">
+        <v>27</v>
+      </c>
+      <c r="I319" t="n">
+        <v>17</v>
+      </c>
+      <c r="J319" t="n">
+        <v>38</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N319" t="n">
+        <v>50</v>
+      </c>
+      <c r="O319" t="n">
+        <v>512</v>
+      </c>
+      <c r="P319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:13:20</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>120</v>
+      </c>
+      <c r="C320" t="n">
+        <v>55</v>
+      </c>
+      <c r="D320" t="n">
+        <v>10</v>
+      </c>
+      <c r="E320" t="n">
+        <v>7</v>
+      </c>
+      <c r="F320" t="n">
+        <v>23</v>
+      </c>
+      <c r="G320" t="n">
+        <v>25</v>
+      </c>
+      <c r="H320" t="n">
+        <v>48</v>
+      </c>
+      <c r="I320" t="n">
+        <v>16</v>
+      </c>
+      <c r="J320" t="n">
+        <v>27</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N320" t="n">
+        <v>50</v>
+      </c>
+      <c r="O320" t="n">
+        <v>512</v>
+      </c>
+      <c r="P320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:13:39</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>118</v>
+      </c>
+      <c r="C321" t="n">
+        <v>51</v>
+      </c>
+      <c r="D321" t="n">
+        <v>11</v>
+      </c>
+      <c r="E321" t="n">
+        <v>9</v>
+      </c>
+      <c r="F321" t="n">
+        <v>26</v>
+      </c>
+      <c r="G321" t="n">
+        <v>16</v>
+      </c>
+      <c r="H321" t="n">
+        <v>45</v>
+      </c>
+      <c r="I321" t="n">
+        <v>14</v>
+      </c>
+      <c r="J321" t="n">
+        <v>36</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M321" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N321" t="n">
+        <v>50</v>
+      </c>
+      <c r="O321" t="n">
+        <v>512</v>
+      </c>
+      <c r="P321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:16:38</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>40</v>
+      </c>
+      <c r="C322" t="n">
+        <v>20</v>
+      </c>
+      <c r="D322" t="n">
+        <v>5</v>
+      </c>
+      <c r="E322" t="n">
+        <v>5</v>
+      </c>
+      <c r="F322" t="n">
+        <v>7</v>
+      </c>
+      <c r="G322" t="n">
+        <v>8</v>
+      </c>
+      <c r="H322" t="n">
+        <v>17</v>
+      </c>
+      <c r="I322" t="n">
+        <v>20</v>
+      </c>
+      <c r="J322" t="n">
+        <v>14</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M322" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N322" t="n">
+        <v>25</v>
+      </c>
+      <c r="O322" t="n">
+        <v>512</v>
+      </c>
+      <c r="P322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:16:44</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>40</v>
+      </c>
+      <c r="C323" t="n">
+        <v>18</v>
+      </c>
+      <c r="D323" t="n">
+        <v>11</v>
+      </c>
+      <c r="E323" t="n">
+        <v>4</v>
+      </c>
+      <c r="F323" t="n">
+        <v>6</v>
+      </c>
+      <c r="G323" t="n">
+        <v>8</v>
+      </c>
+      <c r="H323" t="n">
+        <v>25</v>
+      </c>
+      <c r="I323" t="n">
+        <v>12</v>
+      </c>
+      <c r="J323" t="n">
+        <v>16</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M323" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N323" t="n">
+        <v>25</v>
+      </c>
+      <c r="O323" t="n">
+        <v>512</v>
+      </c>
+      <c r="P323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:17:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>130</v>
+      </c>
+      <c r="C324" t="n">
+        <v>60</v>
+      </c>
+      <c r="D324" t="n">
+        <v>10</v>
+      </c>
+      <c r="E324" t="n">
+        <v>12</v>
+      </c>
+      <c r="F324" t="n">
+        <v>29</v>
+      </c>
+      <c r="G324" t="n">
+        <v>19</v>
+      </c>
+      <c r="H324" t="n">
+        <v>27</v>
+      </c>
+      <c r="I324" t="n">
+        <v>17</v>
+      </c>
+      <c r="J324" t="n">
+        <v>24</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N324" t="n">
+        <v>25</v>
+      </c>
+      <c r="O324" t="n">
+        <v>512</v>
+      </c>
+      <c r="P324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:17:15</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>120</v>
+      </c>
+      <c r="C325" t="n">
+        <v>47</v>
+      </c>
+      <c r="D325" t="n">
+        <v>7</v>
+      </c>
+      <c r="E325" t="n">
+        <v>11</v>
+      </c>
+      <c r="F325" t="n">
+        <v>16</v>
+      </c>
+      <c r="G325" t="n">
+        <v>20</v>
+      </c>
+      <c r="H325" t="n">
+        <v>35</v>
+      </c>
+      <c r="I325" t="n">
+        <v>30</v>
+      </c>
+      <c r="J325" t="n">
+        <v>21</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M325" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N325" t="n">
+        <v>25</v>
+      </c>
+      <c r="O325" t="n">
+        <v>512</v>
+      </c>
+      <c r="P325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:17:29</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>118</v>
+      </c>
+      <c r="C326" t="n">
+        <v>54</v>
+      </c>
+      <c r="D326" t="n">
+        <v>10</v>
+      </c>
+      <c r="E326" t="n">
+        <v>9</v>
+      </c>
+      <c r="F326" t="n">
+        <v>31</v>
+      </c>
+      <c r="G326" t="n">
+        <v>14</v>
+      </c>
+      <c r="H326" t="n">
+        <v>48</v>
+      </c>
+      <c r="I326" t="n">
+        <v>12</v>
+      </c>
+      <c r="J326" t="n">
+        <v>23</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M326" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N326" t="n">
+        <v>25</v>
+      </c>
+      <c r="O326" t="n">
+        <v>512</v>
+      </c>
+      <c r="P326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:17:43</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>110</v>
+      </c>
+      <c r="C327" t="n">
+        <v>40</v>
+      </c>
+      <c r="D327" t="n">
+        <v>10</v>
+      </c>
+      <c r="E327" t="n">
+        <v>9</v>
+      </c>
+      <c r="F327" t="n">
+        <v>20</v>
+      </c>
+      <c r="G327" t="n">
+        <v>11</v>
+      </c>
+      <c r="H327" t="n">
+        <v>28</v>
+      </c>
+      <c r="I327" t="n">
+        <v>12</v>
+      </c>
+      <c r="J327" t="n">
+        <v>34</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M327" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N327" t="n">
+        <v>25</v>
+      </c>
+      <c r="O327" t="n">
+        <v>512</v>
+      </c>
+      <c r="P327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:26:12</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>40</v>
+      </c>
+      <c r="C328" t="n">
+        <v>17</v>
+      </c>
+      <c r="D328" t="n">
+        <v>7</v>
+      </c>
+      <c r="E328" t="n">
+        <v>5</v>
+      </c>
+      <c r="F328" t="n">
+        <v>8</v>
+      </c>
+      <c r="G328" t="n">
+        <v>4</v>
+      </c>
+      <c r="H328" t="n">
+        <v>19</v>
+      </c>
+      <c r="I328" t="n">
+        <v>12</v>
+      </c>
+      <c r="J328" t="n">
+        <v>16</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M328" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N328" t="n">
+        <v>20</v>
+      </c>
+      <c r="O328" t="n">
+        <v>512</v>
+      </c>
+      <c r="P328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:26:17</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>40</v>
+      </c>
+      <c r="C329" t="n">
+        <v>20</v>
+      </c>
+      <c r="D329" t="n">
+        <v>5</v>
+      </c>
+      <c r="E329" t="n">
+        <v>3</v>
+      </c>
+      <c r="F329" t="n">
+        <v>7</v>
+      </c>
+      <c r="G329" t="n">
+        <v>10</v>
+      </c>
+      <c r="H329" t="n">
+        <v>24</v>
+      </c>
+      <c r="I329" t="n">
+        <v>10</v>
+      </c>
+      <c r="J329" t="n">
+        <v>9</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M329" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N329" t="n">
+        <v>20</v>
+      </c>
+      <c r="O329" t="n">
+        <v>512</v>
+      </c>
+      <c r="P329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:26:34</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>130</v>
+      </c>
+      <c r="C330" t="n">
+        <v>51</v>
+      </c>
+      <c r="D330" t="n">
+        <v>9</v>
+      </c>
+      <c r="E330" t="n">
+        <v>12</v>
+      </c>
+      <c r="F330" t="n">
+        <v>21</v>
+      </c>
+      <c r="G330" t="n">
+        <v>18</v>
+      </c>
+      <c r="H330" t="n">
+        <v>39</v>
+      </c>
+      <c r="I330" t="n">
+        <v>13</v>
+      </c>
+      <c r="J330" t="n">
+        <v>21</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M330" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N330" t="n">
+        <v>20</v>
+      </c>
+      <c r="O330" t="n">
+        <v>512</v>
+      </c>
+      <c r="P330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:26:49</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>120</v>
+      </c>
+      <c r="C331" t="n">
+        <v>54</v>
+      </c>
+      <c r="D331" t="n">
+        <v>7</v>
+      </c>
+      <c r="E331" t="n">
+        <v>10</v>
+      </c>
+      <c r="F331" t="n">
+        <v>19</v>
+      </c>
+      <c r="G331" t="n">
+        <v>25</v>
+      </c>
+      <c r="H331" t="n">
+        <v>30</v>
+      </c>
+      <c r="I331" t="n">
+        <v>29</v>
+      </c>
+      <c r="J331" t="n">
+        <v>15</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N331" t="n">
+        <v>20</v>
+      </c>
+      <c r="O331" t="n">
+        <v>512</v>
+      </c>
+      <c r="P331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:27:04</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>118</v>
+      </c>
+      <c r="C332" t="n">
+        <v>59</v>
+      </c>
+      <c r="D332" t="n">
+        <v>10</v>
+      </c>
+      <c r="E332" t="n">
+        <v>8</v>
+      </c>
+      <c r="F332" t="n">
+        <v>32</v>
+      </c>
+      <c r="G332" t="n">
+        <v>19</v>
+      </c>
+      <c r="H332" t="n">
+        <v>35</v>
+      </c>
+      <c r="I332" t="n">
+        <v>12</v>
+      </c>
+      <c r="J332" t="n">
+        <v>21</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N332" t="n">
+        <v>20</v>
+      </c>
+      <c r="O332" t="n">
+        <v>512</v>
+      </c>
+      <c r="P332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:27:18</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>110</v>
+      </c>
+      <c r="C333" t="n">
+        <v>48</v>
+      </c>
+      <c r="D333" t="n">
+        <v>8</v>
+      </c>
+      <c r="E333" t="n">
+        <v>7</v>
+      </c>
+      <c r="F333" t="n">
+        <v>21</v>
+      </c>
+      <c r="G333" t="n">
+        <v>20</v>
+      </c>
+      <c r="H333" t="n">
+        <v>31</v>
+      </c>
+      <c r="I333" t="n">
+        <v>10</v>
+      </c>
+      <c r="J333" t="n">
+        <v>16</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N333" t="n">
+        <v>20</v>
+      </c>
+      <c r="O333" t="n">
+        <v>512</v>
+      </c>
+      <c r="P333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:31:49</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>40</v>
+      </c>
+      <c r="C334" t="n">
+        <v>13</v>
+      </c>
+      <c r="D334" t="n">
+        <v>9</v>
+      </c>
+      <c r="E334" t="n">
+        <v>7</v>
+      </c>
+      <c r="F334" t="n">
+        <v>3</v>
+      </c>
+      <c r="G334" t="n">
+        <v>3</v>
+      </c>
+      <c r="H334" t="n">
+        <v>16</v>
+      </c>
+      <c r="I334" t="n">
+        <v>23</v>
+      </c>
+      <c r="J334" t="n">
+        <v>18</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N334" t="n">
+        <v>10</v>
+      </c>
+      <c r="O334" t="n">
+        <v>512</v>
+      </c>
+      <c r="P334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:33:47</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>40</v>
+      </c>
+      <c r="C335" t="n">
+        <v>13</v>
+      </c>
+      <c r="D335" t="n">
+        <v>14</v>
+      </c>
+      <c r="E335" t="n">
+        <v>3</v>
+      </c>
+      <c r="F335" t="n">
+        <v>4</v>
+      </c>
+      <c r="G335" t="n">
+        <v>6</v>
+      </c>
+      <c r="H335" t="n">
+        <v>19</v>
+      </c>
+      <c r="I335" t="n">
+        <v>20</v>
+      </c>
+      <c r="J335" t="n">
+        <v>23</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M335" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N335" t="n">
+        <v>20</v>
+      </c>
+      <c r="O335" t="n">
+        <v>256</v>
+      </c>
+      <c r="P335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:33:53</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>40</v>
+      </c>
+      <c r="C336" t="n">
+        <v>24</v>
+      </c>
+      <c r="D336" t="n">
+        <v>11</v>
+      </c>
+      <c r="E336" t="n">
+        <v>3</v>
+      </c>
+      <c r="F336" t="n">
+        <v>12</v>
+      </c>
+      <c r="G336" t="n">
+        <v>9</v>
+      </c>
+      <c r="H336" t="n">
+        <v>31</v>
+      </c>
+      <c r="I336" t="n">
+        <v>19</v>
+      </c>
+      <c r="J336" t="n">
+        <v>17</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M336" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N336" t="n">
+        <v>20</v>
+      </c>
+      <c r="O336" t="n">
+        <v>256</v>
+      </c>
+      <c r="P336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:34:09</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>130</v>
+      </c>
+      <c r="C337" t="n">
+        <v>56</v>
+      </c>
+      <c r="D337" t="n">
+        <v>10</v>
+      </c>
+      <c r="E337" t="n">
+        <v>13</v>
+      </c>
+      <c r="F337" t="n">
+        <v>22</v>
+      </c>
+      <c r="G337" t="n">
+        <v>21</v>
+      </c>
+      <c r="H337" t="n">
+        <v>28</v>
+      </c>
+      <c r="I337" t="n">
+        <v>15</v>
+      </c>
+      <c r="J337" t="n">
+        <v>21</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M337" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N337" t="n">
+        <v>20</v>
+      </c>
+      <c r="O337" t="n">
+        <v>256</v>
+      </c>
+      <c r="P337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:34:25</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>120</v>
+      </c>
+      <c r="C338" t="n">
+        <v>59</v>
+      </c>
+      <c r="D338" t="n">
+        <v>8</v>
+      </c>
+      <c r="E338" t="n">
+        <v>13</v>
+      </c>
+      <c r="F338" t="n">
+        <v>23</v>
+      </c>
+      <c r="G338" t="n">
+        <v>23</v>
+      </c>
+      <c r="H338" t="n">
+        <v>19</v>
+      </c>
+      <c r="I338" t="n">
+        <v>18</v>
+      </c>
+      <c r="J338" t="n">
+        <v>26</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M338" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N338" t="n">
+        <v>20</v>
+      </c>
+      <c r="O338" t="n">
+        <v>256</v>
+      </c>
+      <c r="P338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:34:41</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>118</v>
+      </c>
+      <c r="C339" t="n">
+        <v>57</v>
+      </c>
+      <c r="D339" t="n">
+        <v>7</v>
+      </c>
+      <c r="E339" t="n">
+        <v>7</v>
+      </c>
+      <c r="F339" t="n">
+        <v>27</v>
+      </c>
+      <c r="G339" t="n">
+        <v>23</v>
+      </c>
+      <c r="H339" t="n">
+        <v>35</v>
+      </c>
+      <c r="I339" t="n">
+        <v>17</v>
+      </c>
+      <c r="J339" t="n">
+        <v>17</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N339" t="n">
+        <v>20</v>
+      </c>
+      <c r="O339" t="n">
+        <v>256</v>
+      </c>
+      <c r="P339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:34:55</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>110</v>
+      </c>
+      <c r="C340" t="n">
+        <v>47</v>
+      </c>
+      <c r="D340" t="n">
+        <v>7</v>
+      </c>
+      <c r="E340" t="n">
+        <v>8</v>
+      </c>
+      <c r="F340" t="n">
+        <v>21</v>
+      </c>
+      <c r="G340" t="n">
+        <v>18</v>
+      </c>
+      <c r="H340" t="n">
+        <v>47</v>
+      </c>
+      <c r="I340" t="n">
+        <v>10</v>
+      </c>
+      <c r="J340" t="n">
+        <v>21</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M340" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N340" t="n">
+        <v>20</v>
+      </c>
+      <c r="O340" t="n">
+        <v>256</v>
+      </c>
+      <c r="P340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:37:30</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>40</v>
+      </c>
+      <c r="C341" t="n">
+        <v>17</v>
+      </c>
+      <c r="D341" t="n">
+        <v>9</v>
+      </c>
+      <c r="E341" t="n">
+        <v>3</v>
+      </c>
+      <c r="F341" t="n">
+        <v>5</v>
+      </c>
+      <c r="G341" t="n">
+        <v>9</v>
+      </c>
+      <c r="H341" t="n">
+        <v>21</v>
+      </c>
+      <c r="I341" t="n">
+        <v>15</v>
+      </c>
+      <c r="J341" t="n">
+        <v>13</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M341" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N341" t="n">
+        <v>20</v>
+      </c>
+      <c r="O341" t="n">
+        <v>128</v>
+      </c>
+      <c r="P341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:41:14</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>40</v>
+      </c>
+      <c r="C342" t="n">
+        <v>18</v>
+      </c>
+      <c r="D342" t="n">
+        <v>8</v>
+      </c>
+      <c r="E342" t="n">
+        <v>5</v>
+      </c>
+      <c r="F342" t="n">
+        <v>8</v>
+      </c>
+      <c r="G342" t="n">
+        <v>5</v>
+      </c>
+      <c r="H342" t="n">
+        <v>20</v>
+      </c>
+      <c r="I342" t="n">
+        <v>13</v>
+      </c>
+      <c r="J342" t="n">
+        <v>16</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M342" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N342" t="n">
+        <v>50</v>
+      </c>
+      <c r="O342" t="n">
+        <v>128</v>
+      </c>
+      <c r="P342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:41:20</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>40</v>
+      </c>
+      <c r="C343" t="n">
+        <v>24</v>
+      </c>
+      <c r="D343" t="n">
+        <v>7</v>
+      </c>
+      <c r="E343" t="n">
+        <v>5</v>
+      </c>
+      <c r="F343" t="n">
+        <v>13</v>
+      </c>
+      <c r="G343" t="n">
+        <v>6</v>
+      </c>
+      <c r="H343" t="n">
+        <v>18</v>
+      </c>
+      <c r="I343" t="n">
+        <v>12</v>
+      </c>
+      <c r="J343" t="n">
+        <v>16</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M343" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N343" t="n">
+        <v>50</v>
+      </c>
+      <c r="O343" t="n">
+        <v>128</v>
+      </c>
+      <c r="P343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:41:35</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>130</v>
+      </c>
+      <c r="C344" t="n">
+        <v>58</v>
+      </c>
+      <c r="D344" t="n">
+        <v>6</v>
+      </c>
+      <c r="E344" t="n">
+        <v>10</v>
+      </c>
+      <c r="F344" t="n">
+        <v>25</v>
+      </c>
+      <c r="G344" t="n">
+        <v>23</v>
+      </c>
+      <c r="H344" t="n">
+        <v>25</v>
+      </c>
+      <c r="I344" t="n">
+        <v>13</v>
+      </c>
+      <c r="J344" t="n">
+        <v>21</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M344" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N344" t="n">
+        <v>50</v>
+      </c>
+      <c r="O344" t="n">
+        <v>128</v>
+      </c>
+      <c r="P344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:41:50</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>120</v>
+      </c>
+      <c r="C345" t="n">
+        <v>50</v>
+      </c>
+      <c r="D345" t="n">
+        <v>12</v>
+      </c>
+      <c r="E345" t="n">
+        <v>10</v>
+      </c>
+      <c r="F345" t="n">
+        <v>19</v>
+      </c>
+      <c r="G345" t="n">
+        <v>21</v>
+      </c>
+      <c r="H345" t="n">
+        <v>45</v>
+      </c>
+      <c r="I345" t="n">
+        <v>26</v>
+      </c>
+      <c r="J345" t="n">
+        <v>30</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M345" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N345" t="n">
+        <v>50</v>
+      </c>
+      <c r="O345" t="n">
+        <v>128</v>
+      </c>
+      <c r="P345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:42:03</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>118</v>
+      </c>
+      <c r="C346" t="n">
+        <v>50</v>
+      </c>
+      <c r="D346" t="n">
+        <v>6</v>
+      </c>
+      <c r="E346" t="n">
+        <v>9</v>
+      </c>
+      <c r="F346" t="n">
+        <v>21</v>
+      </c>
+      <c r="G346" t="n">
+        <v>20</v>
+      </c>
+      <c r="H346" t="n">
+        <v>50</v>
+      </c>
+      <c r="I346" t="n">
+        <v>31</v>
+      </c>
+      <c r="J346" t="n">
+        <v>18</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M346" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N346" t="n">
+        <v>50</v>
+      </c>
+      <c r="O346" t="n">
+        <v>128</v>
+      </c>
+      <c r="P346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:42:17</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>110</v>
+      </c>
+      <c r="C347" t="n">
+        <v>50</v>
+      </c>
+      <c r="D347" t="n">
+        <v>9</v>
+      </c>
+      <c r="E347" t="n">
+        <v>9</v>
+      </c>
+      <c r="F347" t="n">
+        <v>19</v>
+      </c>
+      <c r="G347" t="n">
+        <v>22</v>
+      </c>
+      <c r="H347" t="n">
+        <v>37</v>
+      </c>
+      <c r="I347" t="n">
+        <v>22</v>
+      </c>
+      <c r="J347" t="n">
+        <v>16</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M347" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N347" t="n">
+        <v>50</v>
+      </c>
+      <c r="O347" t="n">
+        <v>128</v>
+      </c>
+      <c r="P347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:45:52</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>40</v>
+      </c>
+      <c r="C348" t="n">
+        <v>12</v>
+      </c>
+      <c r="D348" t="n">
+        <v>12</v>
+      </c>
+      <c r="E348" t="n">
+        <v>2</v>
+      </c>
+      <c r="F348" t="n">
+        <v>7</v>
+      </c>
+      <c r="G348" t="n">
+        <v>3</v>
+      </c>
+      <c r="H348" t="n">
+        <v>24</v>
+      </c>
+      <c r="I348" t="n">
+        <v>14</v>
+      </c>
+      <c r="J348" t="n">
+        <v>45</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M348" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N348" t="n">
+        <v>50</v>
+      </c>
+      <c r="O348" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:49:29</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>40</v>
+      </c>
+      <c r="C349" t="n">
+        <v>9</v>
+      </c>
+      <c r="D349" t="n">
+        <v>10</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1</v>
+      </c>
+      <c r="F349" t="n">
+        <v>5</v>
+      </c>
+      <c r="G349" t="n">
+        <v>3</v>
+      </c>
+      <c r="H349" t="n">
+        <v>28</v>
+      </c>
+      <c r="I349" t="n">
+        <v>16</v>
+      </c>
+      <c r="J349" t="n">
+        <v>33</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M349" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N349" t="n">
+        <v>50</v>
+      </c>
+      <c r="O349" t="n">
+        <v>256</v>
+      </c>
+      <c r="P349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:49:35</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>40</v>
+      </c>
+      <c r="C350" t="n">
+        <v>19</v>
+      </c>
+      <c r="D350" t="n">
+        <v>4</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1</v>
+      </c>
+      <c r="F350" t="n">
+        <v>9</v>
+      </c>
+      <c r="G350" t="n">
+        <v>9</v>
+      </c>
+      <c r="H350" t="n">
+        <v>35</v>
+      </c>
+      <c r="I350" t="n">
+        <v>15</v>
+      </c>
+      <c r="J350" t="n">
+        <v>9</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N350" t="n">
+        <v>50</v>
+      </c>
+      <c r="O350" t="n">
+        <v>256</v>
+      </c>
+      <c r="P350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:49:52</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>130</v>
+      </c>
+      <c r="C351" t="n">
+        <v>66</v>
+      </c>
+      <c r="D351" t="n">
+        <v>11</v>
+      </c>
+      <c r="E351" t="n">
+        <v>12</v>
+      </c>
+      <c r="F351" t="n">
+        <v>33</v>
+      </c>
+      <c r="G351" t="n">
+        <v>21</v>
+      </c>
+      <c r="H351" t="n">
+        <v>34</v>
+      </c>
+      <c r="I351" t="n">
+        <v>12</v>
+      </c>
+      <c r="J351" t="n">
+        <v>23</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M351" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N351" t="n">
+        <v>50</v>
+      </c>
+      <c r="O351" t="n">
+        <v>256</v>
+      </c>
+      <c r="P351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:50:07</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>120</v>
+      </c>
+      <c r="C352" t="n">
+        <v>52</v>
+      </c>
+      <c r="D352" t="n">
+        <v>12</v>
+      </c>
+      <c r="E352" t="n">
+        <v>14</v>
+      </c>
+      <c r="F352" t="n">
+        <v>20</v>
+      </c>
+      <c r="G352" t="n">
+        <v>18</v>
+      </c>
+      <c r="H352" t="n">
+        <v>21</v>
+      </c>
+      <c r="I352" t="n">
+        <v>29</v>
+      </c>
+      <c r="J352" t="n">
+        <v>19</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M352" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N352" t="n">
+        <v>50</v>
+      </c>
+      <c r="O352" t="n">
+        <v>256</v>
+      </c>
+      <c r="P352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:50:21</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>118</v>
+      </c>
+      <c r="C353" t="n">
+        <v>46</v>
+      </c>
+      <c r="D353" t="n">
+        <v>13</v>
+      </c>
+      <c r="E353" t="n">
+        <v>7</v>
+      </c>
+      <c r="F353" t="n">
+        <v>22</v>
+      </c>
+      <c r="G353" t="n">
+        <v>17</v>
+      </c>
+      <c r="H353" t="n">
+        <v>32</v>
+      </c>
+      <c r="I353" t="n">
+        <v>17</v>
+      </c>
+      <c r="J353" t="n">
+        <v>22</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M353" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N353" t="n">
+        <v>50</v>
+      </c>
+      <c r="O353" t="n">
+        <v>256</v>
+      </c>
+      <c r="P353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:50:38</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>110</v>
+      </c>
+      <c r="C354" t="n">
+        <v>53</v>
+      </c>
+      <c r="D354" t="n">
+        <v>5</v>
+      </c>
+      <c r="E354" t="n">
+        <v>12</v>
+      </c>
+      <c r="F354" t="n">
+        <v>17</v>
+      </c>
+      <c r="G354" t="n">
+        <v>24</v>
+      </c>
+      <c r="H354" t="n">
+        <v>26</v>
+      </c>
+      <c r="I354" t="n">
+        <v>26</v>
+      </c>
+      <c r="J354" t="n">
+        <v>14</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M354" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N354" t="n">
+        <v>50</v>
+      </c>
+      <c r="O354" t="n">
+        <v>256</v>
+      </c>
+      <c r="P354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:53:05</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>40</v>
+      </c>
+      <c r="C355" t="n">
+        <v>13</v>
+      </c>
+      <c r="D355" t="n">
+        <v>7</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1</v>
+      </c>
+      <c r="F355" t="n">
+        <v>6</v>
+      </c>
+      <c r="G355" t="n">
+        <v>6</v>
+      </c>
+      <c r="H355" t="n">
+        <v>28</v>
+      </c>
+      <c r="I355" t="n">
+        <v>20</v>
+      </c>
+      <c r="J355" t="n">
+        <v>15</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M355" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N355" t="n">
+        <v>30</v>
+      </c>
+      <c r="O355" t="n">
+        <v>512</v>
+      </c>
+      <c r="P355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:53:11</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>40</v>
+      </c>
+      <c r="C356" t="n">
+        <v>17</v>
+      </c>
+      <c r="D356" t="n">
+        <v>12</v>
+      </c>
+      <c r="E356" t="n">
+        <v>3</v>
+      </c>
+      <c r="F356" t="n">
+        <v>9</v>
+      </c>
+      <c r="G356" t="n">
+        <v>5</v>
+      </c>
+      <c r="H356" t="n">
+        <v>31</v>
+      </c>
+      <c r="I356" t="n">
+        <v>12</v>
+      </c>
+      <c r="J356" t="n">
+        <v>22</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M356" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N356" t="n">
+        <v>30</v>
+      </c>
+      <c r="O356" t="n">
+        <v>512</v>
+      </c>
+      <c r="P356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:53:28</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>130</v>
+      </c>
+      <c r="C357" t="n">
+        <v>55</v>
+      </c>
+      <c r="D357" t="n">
+        <v>10</v>
+      </c>
+      <c r="E357" t="n">
+        <v>10</v>
+      </c>
+      <c r="F357" t="n">
+        <v>23</v>
+      </c>
+      <c r="G357" t="n">
+        <v>22</v>
+      </c>
+      <c r="H357" t="n">
+        <v>39</v>
+      </c>
+      <c r="I357" t="n">
+        <v>21</v>
+      </c>
+      <c r="J357" t="n">
+        <v>24</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M357" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N357" t="n">
+        <v>30</v>
+      </c>
+      <c r="O357" t="n">
+        <v>512</v>
+      </c>
+      <c r="P357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2023-08-22 18:56:38</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>40</v>
+      </c>
+      <c r="C358" t="n">
+        <v>14</v>
+      </c>
+      <c r="D358" t="n">
+        <v>15</v>
+      </c>
+      <c r="E358" t="n">
+        <v>5</v>
+      </c>
+      <c r="F358" t="n">
+        <v>4</v>
+      </c>
+      <c r="G358" t="n">
+        <v>5</v>
+      </c>
+      <c r="H358" t="n">
+        <v>17</v>
+      </c>
+      <c r="I358" t="n">
+        <v>23</v>
+      </c>
+      <c r="J358" t="n">
+        <v>25</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M358" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N358" t="n">
+        <v>30</v>
+      </c>
+      <c r="O358" t="n">
+        <v>100</v>
+      </c>
+      <c r="P358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2023-08-22 19:02:53</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>40</v>
+      </c>
+      <c r="C359" t="n">
+        <v>18</v>
+      </c>
+      <c r="D359" t="n">
+        <v>8</v>
+      </c>
+      <c r="E359" t="n">
+        <v>7</v>
+      </c>
+      <c r="F359" t="n">
+        <v>7</v>
+      </c>
+      <c r="G359" t="n">
+        <v>4</v>
+      </c>
+      <c r="H359" t="n">
+        <v>18</v>
+      </c>
+      <c r="I359" t="n">
+        <v>18</v>
+      </c>
+      <c r="J359" t="n">
+        <v>13</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M359" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N359" t="n">
+        <v>50</v>
+      </c>
+      <c r="O359" t="n">
+        <v>512</v>
+      </c>
+      <c r="P359" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2023-08-22 19:02:59</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>40</v>
+      </c>
+      <c r="C360" t="n">
+        <v>17</v>
+      </c>
+      <c r="D360" t="n">
+        <v>9</v>
+      </c>
+      <c r="E360" t="n">
+        <v>4</v>
+      </c>
+      <c r="F360" t="n">
+        <v>5</v>
+      </c>
+      <c r="G360" t="n">
+        <v>8</v>
+      </c>
+      <c r="H360" t="n">
+        <v>35</v>
+      </c>
+      <c r="I360" t="n">
+        <v>12</v>
+      </c>
+      <c r="J360" t="n">
+        <v>11</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M360" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N360" t="n">
+        <v>50</v>
+      </c>
+      <c r="O360" t="n">
+        <v>512</v>
+      </c>
+      <c r="P360" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2023-08-22 19:03:21</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>130</v>
+      </c>
+      <c r="C361" t="n">
+        <v>57</v>
+      </c>
+      <c r="D361" t="n">
+        <v>7</v>
+      </c>
+      <c r="E361" t="n">
+        <v>14</v>
+      </c>
+      <c r="F361" t="n">
+        <v>26</v>
+      </c>
+      <c r="G361" t="n">
+        <v>17</v>
+      </c>
+      <c r="H361" t="n">
+        <v>26</v>
+      </c>
+      <c r="I361" t="n">
+        <v>26</v>
+      </c>
+      <c r="J361" t="n">
+        <v>27</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L361" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M361" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N361" t="n">
+        <v>50</v>
+      </c>
+      <c r="O361" t="n">
+        <v>512</v>
+      </c>
+      <c r="P361" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2023-08-22 19:03:38</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>120</v>
+      </c>
+      <c r="C362" t="n">
+        <v>51</v>
+      </c>
+      <c r="D362" t="n">
+        <v>9</v>
+      </c>
+      <c r="E362" t="n">
+        <v>6</v>
+      </c>
+      <c r="F362" t="n">
+        <v>27</v>
+      </c>
+      <c r="G362" t="n">
+        <v>18</v>
+      </c>
+      <c r="H362" t="n">
+        <v>41</v>
+      </c>
+      <c r="I362" t="n">
+        <v>14</v>
+      </c>
+      <c r="J362" t="n">
+        <v>20</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L362" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M362" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N362" t="n">
+        <v>50</v>
+      </c>
+      <c r="O362" t="n">
+        <v>512</v>
+      </c>
+      <c r="P362" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2023-08-22 19:03:55</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>118</v>
+      </c>
+      <c r="C363" t="n">
+        <v>42</v>
+      </c>
+      <c r="D363" t="n">
+        <v>7</v>
+      </c>
+      <c r="E363" t="n">
+        <v>5</v>
+      </c>
+      <c r="F363" t="n">
+        <v>22</v>
+      </c>
+      <c r="G363" t="n">
+        <v>15</v>
+      </c>
+      <c r="H363" t="n">
+        <v>41</v>
+      </c>
+      <c r="I363" t="n">
+        <v>10</v>
+      </c>
+      <c r="J363" t="n">
+        <v>22</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N363" t="n">
+        <v>50</v>
+      </c>
+      <c r="O363" t="n">
+        <v>512</v>
+      </c>
+      <c r="P363" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2023-08-22 19:04:11</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>110</v>
+      </c>
+      <c r="C364" t="n">
+        <v>54</v>
+      </c>
+      <c r="D364" t="n">
+        <v>7</v>
+      </c>
+      <c r="E364" t="n">
+        <v>13</v>
+      </c>
+      <c r="F364" t="n">
+        <v>23</v>
+      </c>
+      <c r="G364" t="n">
+        <v>18</v>
+      </c>
+      <c r="H364" t="n">
+        <v>23</v>
+      </c>
+      <c r="I364" t="n">
+        <v>18</v>
+      </c>
+      <c r="J364" t="n">
+        <v>19</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L364" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M364" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N364" t="n">
+        <v>50</v>
+      </c>
+      <c r="O364" t="n">
+        <v>512</v>
+      </c>
+      <c r="P364" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5403,6 +5403,942 @@
         <v>4</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:26:53</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>40</v>
+      </c>
+      <c r="C96" t="n">
+        <v>21</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3</v>
+      </c>
+      <c r="F96" t="n">
+        <v>8</v>
+      </c>
+      <c r="G96" t="n">
+        <v>10</v>
+      </c>
+      <c r="H96" t="n">
+        <v>26</v>
+      </c>
+      <c r="I96" t="n">
+        <v>13</v>
+      </c>
+      <c r="J96" t="n">
+        <v>14</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N96" t="n">
+        <v>50</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:26:58</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>40</v>
+      </c>
+      <c r="C97" t="n">
+        <v>31</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6</v>
+      </c>
+      <c r="E97" t="n">
+        <v>6</v>
+      </c>
+      <c r="F97" t="n">
+        <v>13</v>
+      </c>
+      <c r="G97" t="n">
+        <v>12</v>
+      </c>
+      <c r="H97" t="n">
+        <v>11</v>
+      </c>
+      <c r="I97" t="n">
+        <v>15</v>
+      </c>
+      <c r="J97" t="n">
+        <v>14</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N97" t="n">
+        <v>50</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:27:12</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>130</v>
+      </c>
+      <c r="C98" t="n">
+        <v>73</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6</v>
+      </c>
+      <c r="E98" t="n">
+        <v>13</v>
+      </c>
+      <c r="F98" t="n">
+        <v>36</v>
+      </c>
+      <c r="G98" t="n">
+        <v>24</v>
+      </c>
+      <c r="H98" t="n">
+        <v>32</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12</v>
+      </c>
+      <c r="J98" t="n">
+        <v>21</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N98" t="n">
+        <v>50</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:27:30</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>120</v>
+      </c>
+      <c r="C99" t="n">
+        <v>86</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>16</v>
+      </c>
+      <c r="F99" t="n">
+        <v>41</v>
+      </c>
+      <c r="G99" t="n">
+        <v>29</v>
+      </c>
+      <c r="H99" t="n">
+        <v>19</v>
+      </c>
+      <c r="I99" t="n">
+        <v>11</v>
+      </c>
+      <c r="J99" t="n">
+        <v>21</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N99" t="n">
+        <v>50</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:27:52</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>118</v>
+      </c>
+      <c r="C100" t="n">
+        <v>73</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" t="n">
+        <v>14</v>
+      </c>
+      <c r="F100" t="n">
+        <v>33</v>
+      </c>
+      <c r="G100" t="n">
+        <v>26</v>
+      </c>
+      <c r="H100" t="n">
+        <v>30</v>
+      </c>
+      <c r="I100" t="n">
+        <v>13</v>
+      </c>
+      <c r="J100" t="n">
+        <v>15</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N100" t="n">
+        <v>50</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:28:12</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>110</v>
+      </c>
+      <c r="C101" t="n">
+        <v>66</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>13</v>
+      </c>
+      <c r="F101" t="n">
+        <v>24</v>
+      </c>
+      <c r="G101" t="n">
+        <v>29</v>
+      </c>
+      <c r="H101" t="n">
+        <v>24</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>14</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N101" t="n">
+        <v>50</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:33:51</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>40</v>
+      </c>
+      <c r="C102" t="n">
+        <v>13</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>6</v>
+      </c>
+      <c r="G102" t="n">
+        <v>6</v>
+      </c>
+      <c r="H102" t="n">
+        <v>26</v>
+      </c>
+      <c r="I102" t="n">
+        <v>15</v>
+      </c>
+      <c r="J102" t="n">
+        <v>15</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N102" t="n">
+        <v>50</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:34:00</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>40</v>
+      </c>
+      <c r="C103" t="n">
+        <v>24</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10</v>
+      </c>
+      <c r="G103" t="n">
+        <v>11</v>
+      </c>
+      <c r="H103" t="n">
+        <v>31</v>
+      </c>
+      <c r="I103" t="n">
+        <v>11</v>
+      </c>
+      <c r="J103" t="n">
+        <v>10</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N103" t="n">
+        <v>50</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:34:23</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>130</v>
+      </c>
+      <c r="C104" t="n">
+        <v>57</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>11</v>
+      </c>
+      <c r="F104" t="n">
+        <v>24</v>
+      </c>
+      <c r="G104" t="n">
+        <v>22</v>
+      </c>
+      <c r="H104" t="n">
+        <v>20</v>
+      </c>
+      <c r="I104" t="n">
+        <v>16</v>
+      </c>
+      <c r="J104" t="n">
+        <v>20</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N104" t="n">
+        <v>50</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:34:43</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>120</v>
+      </c>
+      <c r="C105" t="n">
+        <v>56</v>
+      </c>
+      <c r="D105" t="n">
+        <v>6</v>
+      </c>
+      <c r="E105" t="n">
+        <v>13</v>
+      </c>
+      <c r="F105" t="n">
+        <v>20</v>
+      </c>
+      <c r="G105" t="n">
+        <v>23</v>
+      </c>
+      <c r="H105" t="n">
+        <v>20</v>
+      </c>
+      <c r="I105" t="n">
+        <v>34</v>
+      </c>
+      <c r="J105" t="n">
+        <v>14</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N105" t="n">
+        <v>50</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:35:06</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>118</v>
+      </c>
+      <c r="C106" t="n">
+        <v>43</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8</v>
+      </c>
+      <c r="E106" t="n">
+        <v>13</v>
+      </c>
+      <c r="F106" t="n">
+        <v>17</v>
+      </c>
+      <c r="G106" t="n">
+        <v>13</v>
+      </c>
+      <c r="H106" t="n">
+        <v>34</v>
+      </c>
+      <c r="I106" t="n">
+        <v>21</v>
+      </c>
+      <c r="J106" t="n">
+        <v>26</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N106" t="n">
+        <v>50</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:35:26</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>110</v>
+      </c>
+      <c r="C107" t="n">
+        <v>56</v>
+      </c>
+      <c r="D107" t="n">
+        <v>12</v>
+      </c>
+      <c r="E107" t="n">
+        <v>11</v>
+      </c>
+      <c r="F107" t="n">
+        <v>24</v>
+      </c>
+      <c r="G107" t="n">
+        <v>21</v>
+      </c>
+      <c r="H107" t="n">
+        <v>43</v>
+      </c>
+      <c r="I107" t="n">
+        <v>13</v>
+      </c>
+      <c r="J107" t="n">
+        <v>20</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N107" t="n">
+        <v>50</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:39:40</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>40</v>
+      </c>
+      <c r="C108" t="n">
+        <v>16</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8</v>
+      </c>
+      <c r="E108" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4</v>
+      </c>
+      <c r="H108" t="n">
+        <v>16</v>
+      </c>
+      <c r="I108" t="n">
+        <v>12</v>
+      </c>
+      <c r="J108" t="n">
+        <v>18</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N108" t="n">
+        <v>50</v>
+      </c>
+      <c r="O108" t="n">
+        <v>512</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:39:48</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>40</v>
+      </c>
+      <c r="C109" t="n">
+        <v>23</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7</v>
+      </c>
+      <c r="E109" t="n">
+        <v>4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11</v>
+      </c>
+      <c r="G109" t="n">
+        <v>8</v>
+      </c>
+      <c r="H109" t="n">
+        <v>19</v>
+      </c>
+      <c r="I109" t="n">
+        <v>8</v>
+      </c>
+      <c r="J109" t="n">
+        <v>14</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N109" t="n">
+        <v>50</v>
+      </c>
+      <c r="O109" t="n">
+        <v>512</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:40:11</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>130</v>
+      </c>
+      <c r="C110" t="n">
+        <v>69</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>32</v>
+      </c>
+      <c r="G110" t="n">
+        <v>30</v>
+      </c>
+      <c r="H110" t="n">
+        <v>37</v>
+      </c>
+      <c r="I110" t="n">
+        <v>18</v>
+      </c>
+      <c r="J110" t="n">
+        <v>15</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N110" t="n">
+        <v>50</v>
+      </c>
+      <c r="O110" t="n">
+        <v>512</v>
+      </c>
+      <c r="P110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:40:32</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>120</v>
+      </c>
+      <c r="C111" t="n">
+        <v>89</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6</v>
+      </c>
+      <c r="E111" t="n">
+        <v>20</v>
+      </c>
+      <c r="F111" t="n">
+        <v>36</v>
+      </c>
+      <c r="G111" t="n">
+        <v>33</v>
+      </c>
+      <c r="H111" t="n">
+        <v>18</v>
+      </c>
+      <c r="I111" t="n">
+        <v>17</v>
+      </c>
+      <c r="J111" t="n">
+        <v>10</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N111" t="n">
+        <v>50</v>
+      </c>
+      <c r="O111" t="n">
+        <v>512</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:40:54</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>118</v>
+      </c>
+      <c r="C112" t="n">
+        <v>64</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15</v>
+      </c>
+      <c r="F112" t="n">
+        <v>25</v>
+      </c>
+      <c r="G112" t="n">
+        <v>24</v>
+      </c>
+      <c r="H112" t="n">
+        <v>24</v>
+      </c>
+      <c r="I112" t="n">
+        <v>11</v>
+      </c>
+      <c r="J112" t="n">
+        <v>17</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N112" t="n">
+        <v>50</v>
+      </c>
+      <c r="O112" t="n">
+        <v>512</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2023-08-26 11:41:16</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>110</v>
+      </c>
+      <c r="C113" t="n">
+        <v>68</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>12</v>
+      </c>
+      <c r="F113" t="n">
+        <v>30</v>
+      </c>
+      <c r="G113" t="n">
+        <v>26</v>
+      </c>
+      <c r="H113" t="n">
+        <v>21</v>
+      </c>
+      <c r="I113" t="n">
+        <v>12</v>
+      </c>
+      <c r="J113" t="n">
+        <v>15</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N113" t="n">
+        <v>50</v>
+      </c>
+      <c r="O113" t="n">
+        <v>512</v>
+      </c>
+      <c r="P113" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P113"/>
+  <dimension ref="A1:Q263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,11 @@
           <t>Nros a Predecir</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Nros Anteriores</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -566,6 +571,7 @@
       <c r="P2" t="n">
         <v>4</v>
       </c>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -618,6 +624,7 @@
       <c r="P3" t="n">
         <v>4</v>
       </c>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -670,6 +677,7 @@
       <c r="P4" t="n">
         <v>4</v>
       </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -722,6 +730,7 @@
       <c r="P5" t="n">
         <v>4</v>
       </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -774,6 +783,7 @@
       <c r="P6" t="n">
         <v>4</v>
       </c>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -826,6 +836,7 @@
       <c r="P7" t="n">
         <v>4</v>
       </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -878,6 +889,7 @@
       <c r="P8" t="n">
         <v>3</v>
       </c>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -930,6 +942,7 @@
       <c r="P9" t="n">
         <v>3</v>
       </c>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -982,6 +995,7 @@
       <c r="P10" t="n">
         <v>3</v>
       </c>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1048,7 @@
       <c r="P11" t="n">
         <v>3</v>
       </c>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1086,6 +1101,7 @@
       <c r="P12" t="n">
         <v>3</v>
       </c>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1138,6 +1154,7 @@
       <c r="P13" t="n">
         <v>3</v>
       </c>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1190,6 +1207,7 @@
       <c r="P14" t="n">
         <v>3</v>
       </c>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1242,6 +1260,7 @@
       <c r="P15" t="n">
         <v>3</v>
       </c>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1294,6 +1313,7 @@
       <c r="P16" t="n">
         <v>3</v>
       </c>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1346,6 +1366,7 @@
       <c r="P17" t="n">
         <v>3</v>
       </c>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1398,6 +1419,7 @@
       <c r="P18" t="n">
         <v>3</v>
       </c>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1450,6 +1472,7 @@
       <c r="P19" t="n">
         <v>3</v>
       </c>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1502,6 +1525,7 @@
       <c r="P20" t="n">
         <v>3</v>
       </c>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1554,6 +1578,7 @@
       <c r="P21" t="n">
         <v>3</v>
       </c>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1606,6 +1631,7 @@
       <c r="P22" t="n">
         <v>3</v>
       </c>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1658,6 +1684,7 @@
       <c r="P23" t="n">
         <v>3</v>
       </c>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1710,6 +1737,7 @@
       <c r="P24" t="n">
         <v>3</v>
       </c>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1762,6 +1790,7 @@
       <c r="P25" t="n">
         <v>3</v>
       </c>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1814,6 +1843,7 @@
       <c r="P26" t="n">
         <v>3</v>
       </c>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1866,6 +1896,7 @@
       <c r="P27" t="n">
         <v>3</v>
       </c>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1918,6 +1949,7 @@
       <c r="P28" t="n">
         <v>3</v>
       </c>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1970,6 +2002,7 @@
       <c r="P29" t="n">
         <v>3</v>
       </c>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2022,6 +2055,7 @@
       <c r="P30" t="n">
         <v>3</v>
       </c>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2074,6 +2108,7 @@
       <c r="P31" t="n">
         <v>3</v>
       </c>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2126,6 +2161,7 @@
       <c r="P32" t="n">
         <v>3</v>
       </c>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2178,6 +2214,7 @@
       <c r="P33" t="n">
         <v>3</v>
       </c>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2230,6 +2267,7 @@
       <c r="P34" t="n">
         <v>3</v>
       </c>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2282,6 +2320,7 @@
       <c r="P35" t="n">
         <v>3</v>
       </c>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2334,6 +2373,7 @@
       <c r="P36" t="n">
         <v>3</v>
       </c>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2386,6 +2426,7 @@
       <c r="P37" t="n">
         <v>3</v>
       </c>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2438,6 +2479,7 @@
       <c r="P38" t="n">
         <v>3</v>
       </c>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2490,6 +2532,7 @@
       <c r="P39" t="n">
         <v>3</v>
       </c>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2542,6 +2585,7 @@
       <c r="P40" t="n">
         <v>3</v>
       </c>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2594,6 +2638,7 @@
       <c r="P41" t="n">
         <v>3</v>
       </c>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2646,6 +2691,7 @@
       <c r="P42" t="n">
         <v>3</v>
       </c>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2698,6 +2744,7 @@
       <c r="P43" t="n">
         <v>3</v>
       </c>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2750,6 +2797,7 @@
       <c r="P44" t="n">
         <v>3</v>
       </c>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2802,6 +2850,7 @@
       <c r="P45" t="n">
         <v>3</v>
       </c>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2854,6 +2903,7 @@
       <c r="P46" t="n">
         <v>3</v>
       </c>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2906,6 +2956,7 @@
       <c r="P47" t="n">
         <v>3</v>
       </c>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2958,6 +3009,7 @@
       <c r="P48" t="n">
         <v>3</v>
       </c>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3010,6 +3062,7 @@
       <c r="P49" t="n">
         <v>3</v>
       </c>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3062,6 +3115,7 @@
       <c r="P50" t="n">
         <v>3</v>
       </c>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3114,6 +3168,7 @@
       <c r="P51" t="n">
         <v>3</v>
       </c>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3166,6 +3221,7 @@
       <c r="P52" t="n">
         <v>3</v>
       </c>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3218,6 +3274,7 @@
       <c r="P53" t="n">
         <v>3</v>
       </c>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3270,6 +3327,7 @@
       <c r="P54" t="n">
         <v>3</v>
       </c>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3322,6 +3380,7 @@
       <c r="P55" t="n">
         <v>3</v>
       </c>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3374,6 +3433,7 @@
       <c r="P56" t="n">
         <v>3</v>
       </c>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3426,6 +3486,7 @@
       <c r="P57" t="n">
         <v>3</v>
       </c>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3478,6 +3539,7 @@
       <c r="P58" t="n">
         <v>3</v>
       </c>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3530,6 +3592,7 @@
       <c r="P59" t="n">
         <v>3</v>
       </c>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3582,6 +3645,7 @@
       <c r="P60" t="n">
         <v>3</v>
       </c>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3634,6 +3698,7 @@
       <c r="P61" t="n">
         <v>3</v>
       </c>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3686,6 +3751,7 @@
       <c r="P62" t="n">
         <v>3</v>
       </c>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3738,6 +3804,7 @@
       <c r="P63" t="n">
         <v>3</v>
       </c>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3790,6 +3857,7 @@
       <c r="P64" t="n">
         <v>3</v>
       </c>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3842,6 +3910,7 @@
       <c r="P65" t="n">
         <v>3</v>
       </c>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3894,6 +3963,7 @@
       <c r="P66" t="n">
         <v>3</v>
       </c>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3946,6 +4016,7 @@
       <c r="P67" t="n">
         <v>3</v>
       </c>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3998,6 +4069,7 @@
       <c r="P68" t="n">
         <v>3</v>
       </c>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4050,6 +4122,7 @@
       <c r="P69" t="n">
         <v>3</v>
       </c>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4102,6 +4175,7 @@
       <c r="P70" t="n">
         <v>3</v>
       </c>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4154,6 +4228,7 @@
       <c r="P71" t="n">
         <v>3</v>
       </c>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4206,6 +4281,7 @@
       <c r="P72" t="n">
         <v>3</v>
       </c>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4258,6 +4334,7 @@
       <c r="P73" t="n">
         <v>3</v>
       </c>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4310,6 +4387,7 @@
       <c r="P74" t="n">
         <v>3</v>
       </c>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4362,6 +4440,7 @@
       <c r="P75" t="n">
         <v>3</v>
       </c>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4414,6 +4493,7 @@
       <c r="P76" t="n">
         <v>3</v>
       </c>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4466,6 +4546,7 @@
       <c r="P77" t="n">
         <v>3</v>
       </c>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4518,6 +4599,7 @@
       <c r="P78" t="n">
         <v>5</v>
       </c>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4570,6 +4652,7 @@
       <c r="P79" t="n">
         <v>5</v>
       </c>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4622,6 +4705,7 @@
       <c r="P80" t="n">
         <v>5</v>
       </c>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4674,6 +4758,7 @@
       <c r="P81" t="n">
         <v>5</v>
       </c>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4726,6 +4811,7 @@
       <c r="P82" t="n">
         <v>5</v>
       </c>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4778,6 +4864,7 @@
       <c r="P83" t="n">
         <v>5</v>
       </c>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4830,6 +4917,7 @@
       <c r="P84" t="n">
         <v>4</v>
       </c>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4882,6 +4970,7 @@
       <c r="P85" t="n">
         <v>4</v>
       </c>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4934,6 +5023,7 @@
       <c r="P86" t="n">
         <v>4</v>
       </c>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4986,6 +5076,7 @@
       <c r="P87" t="n">
         <v>4</v>
       </c>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5038,6 +5129,7 @@
       <c r="P88" t="n">
         <v>4</v>
       </c>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5090,6 +5182,7 @@
       <c r="P89" t="n">
         <v>4</v>
       </c>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5142,6 +5235,7 @@
       <c r="P90" t="n">
         <v>4</v>
       </c>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5194,6 +5288,7 @@
       <c r="P91" t="n">
         <v>4</v>
       </c>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5246,6 +5341,7 @@
       <c r="P92" t="n">
         <v>4</v>
       </c>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5298,6 +5394,7 @@
       <c r="P93" t="n">
         <v>4</v>
       </c>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5350,6 +5447,7 @@
       <c r="P94" t="n">
         <v>4</v>
       </c>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5402,6 +5500,7 @@
       <c r="P95" t="n">
         <v>4</v>
       </c>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5454,6 +5553,7 @@
       <c r="P96" t="n">
         <v>4</v>
       </c>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5506,6 +5606,7 @@
       <c r="P97" t="n">
         <v>4</v>
       </c>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5558,6 +5659,7 @@
       <c r="P98" t="n">
         <v>4</v>
       </c>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5610,6 +5712,7 @@
       <c r="P99" t="n">
         <v>4</v>
       </c>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5662,6 +5765,7 @@
       <c r="P100" t="n">
         <v>4</v>
       </c>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5714,6 +5818,7 @@
       <c r="P101" t="n">
         <v>4</v>
       </c>
+      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5766,6 +5871,7 @@
       <c r="P102" t="n">
         <v>3</v>
       </c>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5818,6 +5924,7 @@
       <c r="P103" t="n">
         <v>3</v>
       </c>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5870,6 +5977,7 @@
       <c r="P104" t="n">
         <v>3</v>
       </c>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5922,6 +6030,7 @@
       <c r="P105" t="n">
         <v>3</v>
       </c>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5974,6 +6083,7 @@
       <c r="P106" t="n">
         <v>3</v>
       </c>
+      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6026,6 +6136,7 @@
       <c r="P107" t="n">
         <v>3</v>
       </c>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6078,6 +6189,7 @@
       <c r="P108" t="n">
         <v>4</v>
       </c>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6130,6 +6242,7 @@
       <c r="P109" t="n">
         <v>4</v>
       </c>
+      <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6182,6 +6295,7 @@
       <c r="P110" t="n">
         <v>4</v>
       </c>
+      <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6234,6 +6348,7 @@
       <c r="P111" t="n">
         <v>4</v>
       </c>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6286,6 +6401,7 @@
       <c r="P112" t="n">
         <v>4</v>
       </c>
+      <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6337,6 +6453,8193 @@
       </c>
       <c r="P113" t="n">
         <v>4</v>
+      </c>
+      <c r="Q113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2023-08-26 12:46:19</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>62</v>
+      </c>
+      <c r="C114" t="n">
+        <v>27</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2</v>
+      </c>
+      <c r="F114" t="n">
+        <v>8</v>
+      </c>
+      <c r="G114" t="n">
+        <v>17</v>
+      </c>
+      <c r="H114" t="n">
+        <v>39</v>
+      </c>
+      <c r="I114" t="n">
+        <v>12</v>
+      </c>
+      <c r="J114" t="n">
+        <v>9</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N114" t="n">
+        <v>50</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P114" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2023-08-26 12:46:22</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>62</v>
+      </c>
+      <c r="C115" t="n">
+        <v>27</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>8</v>
+      </c>
+      <c r="G115" t="n">
+        <v>17</v>
+      </c>
+      <c r="H115" t="n">
+        <v>39</v>
+      </c>
+      <c r="I115" t="n">
+        <v>12</v>
+      </c>
+      <c r="J115" t="n">
+        <v>9</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N115" t="n">
+        <v>50</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P115" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:34:30</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>40</v>
+      </c>
+      <c r="C116" t="n">
+        <v>55</v>
+      </c>
+      <c r="D116" t="n">
+        <v>4</v>
+      </c>
+      <c r="E116" t="n">
+        <v>13</v>
+      </c>
+      <c r="F116" t="n">
+        <v>26</v>
+      </c>
+      <c r="G116" t="n">
+        <v>16</v>
+      </c>
+      <c r="H116" t="n">
+        <v>11</v>
+      </c>
+      <c r="I116" t="n">
+        <v>8</v>
+      </c>
+      <c r="J116" t="n">
+        <v>9</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N116" t="n">
+        <v>70</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P116" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:34:37</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>40</v>
+      </c>
+      <c r="C117" t="n">
+        <v>80</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
+      <c r="E117" t="n">
+        <v>17</v>
+      </c>
+      <c r="F117" t="n">
+        <v>35</v>
+      </c>
+      <c r="G117" t="n">
+        <v>28</v>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+      <c r="I117" t="n">
+        <v>4</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N117" t="n">
+        <v>70</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P117" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:34:57</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>130</v>
+      </c>
+      <c r="C118" t="n">
+        <v>202</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2</v>
+      </c>
+      <c r="E118" t="n">
+        <v>40</v>
+      </c>
+      <c r="F118" t="n">
+        <v>92</v>
+      </c>
+      <c r="G118" t="n">
+        <v>70</v>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+      <c r="I118" t="n">
+        <v>8</v>
+      </c>
+      <c r="J118" t="n">
+        <v>10</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N118" t="n">
+        <v>70</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P118" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:46:33</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>40</v>
+      </c>
+      <c r="C119" t="n">
+        <v>33</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6</v>
+      </c>
+      <c r="F119" t="n">
+        <v>14</v>
+      </c>
+      <c r="G119" t="n">
+        <v>13</v>
+      </c>
+      <c r="H119" t="n">
+        <v>15</v>
+      </c>
+      <c r="I119" t="n">
+        <v>10</v>
+      </c>
+      <c r="J119" t="n">
+        <v>9</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N119" t="n">
+        <v>70</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P119" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:46:39</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>40</v>
+      </c>
+      <c r="C120" t="n">
+        <v>48</v>
+      </c>
+      <c r="D120" t="n">
+        <v>4</v>
+      </c>
+      <c r="E120" t="n">
+        <v>8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>25</v>
+      </c>
+      <c r="G120" t="n">
+        <v>15</v>
+      </c>
+      <c r="H120" t="n">
+        <v>11</v>
+      </c>
+      <c r="I120" t="n">
+        <v>9</v>
+      </c>
+      <c r="J120" t="n">
+        <v>9</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N120" t="n">
+        <v>70</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P120" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:47:03</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>130</v>
+      </c>
+      <c r="C121" t="n">
+        <v>126</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>26</v>
+      </c>
+      <c r="F121" t="n">
+        <v>63</v>
+      </c>
+      <c r="G121" t="n">
+        <v>37</v>
+      </c>
+      <c r="H121" t="n">
+        <v>15</v>
+      </c>
+      <c r="I121" t="n">
+        <v>8</v>
+      </c>
+      <c r="J121" t="n">
+        <v>18</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N121" t="n">
+        <v>70</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P121" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:47:24</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>111</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>22</v>
+      </c>
+      <c r="F122" t="n">
+        <v>42</v>
+      </c>
+      <c r="G122" t="n">
+        <v>47</v>
+      </c>
+      <c r="H122" t="n">
+        <v>18</v>
+      </c>
+      <c r="I122" t="n">
+        <v>10</v>
+      </c>
+      <c r="J122" t="n">
+        <v>9</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N122" t="n">
+        <v>70</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P122" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:47:44</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>118</v>
+      </c>
+      <c r="C123" t="n">
+        <v>108</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>25</v>
+      </c>
+      <c r="F123" t="n">
+        <v>44</v>
+      </c>
+      <c r="G123" t="n">
+        <v>39</v>
+      </c>
+      <c r="H123" t="n">
+        <v>15</v>
+      </c>
+      <c r="I123" t="n">
+        <v>10</v>
+      </c>
+      <c r="J123" t="n">
+        <v>11</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N123" t="n">
+        <v>70</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P123" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:47:59</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>110</v>
+      </c>
+      <c r="C124" t="n">
+        <v>125</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>25</v>
+      </c>
+      <c r="F124" t="n">
+        <v>53</v>
+      </c>
+      <c r="G124" t="n">
+        <v>47</v>
+      </c>
+      <c r="H124" t="n">
+        <v>12</v>
+      </c>
+      <c r="I124" t="n">
+        <v>6</v>
+      </c>
+      <c r="J124" t="n">
+        <v>7</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N124" t="n">
+        <v>70</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P124" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:55:23</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>40</v>
+      </c>
+      <c r="C125" t="n">
+        <v>33</v>
+      </c>
+      <c r="D125" t="n">
+        <v>3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9</v>
+      </c>
+      <c r="F125" t="n">
+        <v>11</v>
+      </c>
+      <c r="G125" t="n">
+        <v>13</v>
+      </c>
+      <c r="H125" t="n">
+        <v>11</v>
+      </c>
+      <c r="I125" t="n">
+        <v>10</v>
+      </c>
+      <c r="J125" t="n">
+        <v>10</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N125" t="n">
+        <v>50</v>
+      </c>
+      <c r="O125" t="n">
+        <v>512</v>
+      </c>
+      <c r="P125" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:55:29</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>40</v>
+      </c>
+      <c r="C126" t="n">
+        <v>33</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>17</v>
+      </c>
+      <c r="G126" t="n">
+        <v>10</v>
+      </c>
+      <c r="H126" t="n">
+        <v>18</v>
+      </c>
+      <c r="I126" t="n">
+        <v>7</v>
+      </c>
+      <c r="J126" t="n">
+        <v>9</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N126" t="n">
+        <v>50</v>
+      </c>
+      <c r="O126" t="n">
+        <v>512</v>
+      </c>
+      <c r="P126" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:55:46</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>130</v>
+      </c>
+      <c r="C127" t="n">
+        <v>120</v>
+      </c>
+      <c r="D127" t="n">
+        <v>3</v>
+      </c>
+      <c r="E127" t="n">
+        <v>23</v>
+      </c>
+      <c r="F127" t="n">
+        <v>54</v>
+      </c>
+      <c r="G127" t="n">
+        <v>43</v>
+      </c>
+      <c r="H127" t="n">
+        <v>17</v>
+      </c>
+      <c r="I127" t="n">
+        <v>8</v>
+      </c>
+      <c r="J127" t="n">
+        <v>13</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N127" t="n">
+        <v>50</v>
+      </c>
+      <c r="O127" t="n">
+        <v>512</v>
+      </c>
+      <c r="P127" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:56:03</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>120</v>
+      </c>
+      <c r="C128" t="n">
+        <v>105</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>21</v>
+      </c>
+      <c r="F128" t="n">
+        <v>43</v>
+      </c>
+      <c r="G128" t="n">
+        <v>41</v>
+      </c>
+      <c r="H128" t="n">
+        <v>15</v>
+      </c>
+      <c r="I128" t="n">
+        <v>11</v>
+      </c>
+      <c r="J128" t="n">
+        <v>10</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N128" t="n">
+        <v>50</v>
+      </c>
+      <c r="O128" t="n">
+        <v>512</v>
+      </c>
+      <c r="P128" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:56:19</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>118</v>
+      </c>
+      <c r="C129" t="n">
+        <v>108</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>19</v>
+      </c>
+      <c r="F129" t="n">
+        <v>49</v>
+      </c>
+      <c r="G129" t="n">
+        <v>40</v>
+      </c>
+      <c r="H129" t="n">
+        <v>25</v>
+      </c>
+      <c r="I129" t="n">
+        <v>7</v>
+      </c>
+      <c r="J129" t="n">
+        <v>12</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N129" t="n">
+        <v>50</v>
+      </c>
+      <c r="O129" t="n">
+        <v>512</v>
+      </c>
+      <c r="P129" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2023-08-26 18:56:33</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>110</v>
+      </c>
+      <c r="C130" t="n">
+        <v>95</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4</v>
+      </c>
+      <c r="E130" t="n">
+        <v>18</v>
+      </c>
+      <c r="F130" t="n">
+        <v>38</v>
+      </c>
+      <c r="G130" t="n">
+        <v>39</v>
+      </c>
+      <c r="H130" t="n">
+        <v>18</v>
+      </c>
+      <c r="I130" t="n">
+        <v>8</v>
+      </c>
+      <c r="J130" t="n">
+        <v>9</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N130" t="n">
+        <v>50</v>
+      </c>
+      <c r="O130" t="n">
+        <v>512</v>
+      </c>
+      <c r="P130" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2023-08-26 19:21:40</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>40</v>
+      </c>
+      <c r="C131" t="n">
+        <v>65</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F131" t="n">
+        <v>22</v>
+      </c>
+      <c r="G131" t="n">
+        <v>30</v>
+      </c>
+      <c r="H131" t="n">
+        <v>12</v>
+      </c>
+      <c r="I131" t="n">
+        <v>7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>6</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N131" t="n">
+        <v>50</v>
+      </c>
+      <c r="O131" t="n">
+        <v>512</v>
+      </c>
+      <c r="P131" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2023-08-26 19:21:47</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>40</v>
+      </c>
+      <c r="C132" t="n">
+        <v>86</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>22</v>
+      </c>
+      <c r="F132" t="n">
+        <v>29</v>
+      </c>
+      <c r="G132" t="n">
+        <v>35</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+      <c r="I132" t="n">
+        <v>5</v>
+      </c>
+      <c r="J132" t="n">
+        <v>4</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N132" t="n">
+        <v>50</v>
+      </c>
+      <c r="O132" t="n">
+        <v>512</v>
+      </c>
+      <c r="P132" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2023-08-26 19:22:04</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>130</v>
+      </c>
+      <c r="C133" t="n">
+        <v>237</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2</v>
+      </c>
+      <c r="E133" t="n">
+        <v>48</v>
+      </c>
+      <c r="F133" t="n">
+        <v>106</v>
+      </c>
+      <c r="G133" t="n">
+        <v>83</v>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+      <c r="I133" t="n">
+        <v>5</v>
+      </c>
+      <c r="J133" t="n">
+        <v>7</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N133" t="n">
+        <v>50</v>
+      </c>
+      <c r="O133" t="n">
+        <v>512</v>
+      </c>
+      <c r="P133" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:40:24</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>40</v>
+      </c>
+      <c r="C134" t="n">
+        <v>66</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12</v>
+      </c>
+      <c r="F134" t="n">
+        <v>27</v>
+      </c>
+      <c r="G134" t="n">
+        <v>27</v>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+      <c r="I134" t="n">
+        <v>5</v>
+      </c>
+      <c r="J134" t="n">
+        <v>6</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N134" t="n">
+        <v>50</v>
+      </c>
+      <c r="O134" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P134" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:40:30</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>40</v>
+      </c>
+      <c r="C135" t="n">
+        <v>79</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>20</v>
+      </c>
+      <c r="F135" t="n">
+        <v>35</v>
+      </c>
+      <c r="G135" t="n">
+        <v>24</v>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+      <c r="I135" t="n">
+        <v>4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>4</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N135" t="n">
+        <v>50</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P135" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:40:46</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>130</v>
+      </c>
+      <c r="C136" t="n">
+        <v>234</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>45</v>
+      </c>
+      <c r="F136" t="n">
+        <v>103</v>
+      </c>
+      <c r="G136" t="n">
+        <v>86</v>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+      <c r="I136" t="n">
+        <v>9</v>
+      </c>
+      <c r="J136" t="n">
+        <v>6</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N136" t="n">
+        <v>50</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P136" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:41:01</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>120</v>
+      </c>
+      <c r="C137" t="n">
+        <v>194</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>38</v>
+      </c>
+      <c r="F137" t="n">
+        <v>78</v>
+      </c>
+      <c r="G137" t="n">
+        <v>78</v>
+      </c>
+      <c r="H137" t="n">
+        <v>17</v>
+      </c>
+      <c r="I137" t="n">
+        <v>10</v>
+      </c>
+      <c r="J137" t="n">
+        <v>5</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N137" t="n">
+        <v>50</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P137" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:41:14</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>118</v>
+      </c>
+      <c r="C138" t="n">
+        <v>216</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>50</v>
+      </c>
+      <c r="F138" t="n">
+        <v>89</v>
+      </c>
+      <c r="G138" t="n">
+        <v>77</v>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+      <c r="I138" t="n">
+        <v>6</v>
+      </c>
+      <c r="J138" t="n">
+        <v>6</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N138" t="n">
+        <v>50</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P138" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:41:28</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>110</v>
+      </c>
+      <c r="C139" t="n">
+        <v>183</v>
+      </c>
+      <c r="D139" t="n">
+        <v>3</v>
+      </c>
+      <c r="E139" t="n">
+        <v>35</v>
+      </c>
+      <c r="F139" t="n">
+        <v>75</v>
+      </c>
+      <c r="G139" t="n">
+        <v>73</v>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+      <c r="I139" t="n">
+        <v>5</v>
+      </c>
+      <c r="J139" t="n">
+        <v>10</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N139" t="n">
+        <v>50</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P139" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:44:30</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>40</v>
+      </c>
+      <c r="C140" t="n">
+        <v>25</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12</v>
+      </c>
+      <c r="G140" t="n">
+        <v>10</v>
+      </c>
+      <c r="H140" t="n">
+        <v>18</v>
+      </c>
+      <c r="I140" t="n">
+        <v>10</v>
+      </c>
+      <c r="J140" t="n">
+        <v>15</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N140" t="n">
+        <v>50</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P140" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:44:36</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>40</v>
+      </c>
+      <c r="C141" t="n">
+        <v>47</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="n">
+        <v>16</v>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+      <c r="I141" t="n">
+        <v>6</v>
+      </c>
+      <c r="J141" t="n">
+        <v>5</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N141" t="n">
+        <v>50</v>
+      </c>
+      <c r="O141" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P141" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:44:51</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>130</v>
+      </c>
+      <c r="C142" t="n">
+        <v>119</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>23</v>
+      </c>
+      <c r="F142" t="n">
+        <v>52</v>
+      </c>
+      <c r="G142" t="n">
+        <v>44</v>
+      </c>
+      <c r="H142" t="n">
+        <v>27</v>
+      </c>
+      <c r="I142" t="n">
+        <v>14</v>
+      </c>
+      <c r="J142" t="n">
+        <v>11</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N142" t="n">
+        <v>50</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P142" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:48:07</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>40</v>
+      </c>
+      <c r="C143" t="n">
+        <v>24</v>
+      </c>
+      <c r="D143" t="n">
+        <v>6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>9</v>
+      </c>
+      <c r="G143" t="n">
+        <v>7</v>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+      <c r="I143" t="n">
+        <v>10</v>
+      </c>
+      <c r="J143" t="n">
+        <v>14</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N143" t="n">
+        <v>50</v>
+      </c>
+      <c r="O143" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P143" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:48:13</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>40</v>
+      </c>
+      <c r="C144" t="n">
+        <v>34</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>11</v>
+      </c>
+      <c r="F144" t="n">
+        <v>12</v>
+      </c>
+      <c r="G144" t="n">
+        <v>11</v>
+      </c>
+      <c r="H144" t="n">
+        <v>22</v>
+      </c>
+      <c r="I144" t="n">
+        <v>8</v>
+      </c>
+      <c r="J144" t="n">
+        <v>16</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N144" t="n">
+        <v>50</v>
+      </c>
+      <c r="O144" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P144" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:48:29</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>130</v>
+      </c>
+      <c r="C145" t="n">
+        <v>78</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>16</v>
+      </c>
+      <c r="F145" t="n">
+        <v>34</v>
+      </c>
+      <c r="G145" t="n">
+        <v>28</v>
+      </c>
+      <c r="H145" t="n">
+        <v>19</v>
+      </c>
+      <c r="I145" t="n">
+        <v>14</v>
+      </c>
+      <c r="J145" t="n">
+        <v>16</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N145" t="n">
+        <v>50</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P145" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:48:43</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>120</v>
+      </c>
+      <c r="C146" t="n">
+        <v>61</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12</v>
+      </c>
+      <c r="E146" t="n">
+        <v>13</v>
+      </c>
+      <c r="F146" t="n">
+        <v>24</v>
+      </c>
+      <c r="G146" t="n">
+        <v>24</v>
+      </c>
+      <c r="H146" t="n">
+        <v>25</v>
+      </c>
+      <c r="I146" t="n">
+        <v>18</v>
+      </c>
+      <c r="J146" t="n">
+        <v>29</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N146" t="n">
+        <v>50</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P146" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:48:58</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>118</v>
+      </c>
+      <c r="C147" t="n">
+        <v>72</v>
+      </c>
+      <c r="D147" t="n">
+        <v>7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>21</v>
+      </c>
+      <c r="F147" t="n">
+        <v>30</v>
+      </c>
+      <c r="G147" t="n">
+        <v>21</v>
+      </c>
+      <c r="H147" t="n">
+        <v>17</v>
+      </c>
+      <c r="I147" t="n">
+        <v>11</v>
+      </c>
+      <c r="J147" t="n">
+        <v>23</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N147" t="n">
+        <v>50</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P147" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:49:12</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>110</v>
+      </c>
+      <c r="C148" t="n">
+        <v>67</v>
+      </c>
+      <c r="D148" t="n">
+        <v>8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>14</v>
+      </c>
+      <c r="F148" t="n">
+        <v>26</v>
+      </c>
+      <c r="G148" t="n">
+        <v>27</v>
+      </c>
+      <c r="H148" t="n">
+        <v>23</v>
+      </c>
+      <c r="I148" t="n">
+        <v>13</v>
+      </c>
+      <c r="J148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N148" t="n">
+        <v>50</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P148" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:53:54</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>40</v>
+      </c>
+      <c r="C149" t="n">
+        <v>23</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>8</v>
+      </c>
+      <c r="G149" t="n">
+        <v>9</v>
+      </c>
+      <c r="H149" t="n">
+        <v>12</v>
+      </c>
+      <c r="I149" t="n">
+        <v>18</v>
+      </c>
+      <c r="J149" t="n">
+        <v>14</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N149" t="n">
+        <v>50</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P149" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:54:00</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>40</v>
+      </c>
+      <c r="C150" t="n">
+        <v>32</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>14</v>
+      </c>
+      <c r="G150" t="n">
+        <v>12</v>
+      </c>
+      <c r="H150" t="n">
+        <v>13</v>
+      </c>
+      <c r="I150" t="n">
+        <v>10</v>
+      </c>
+      <c r="J150" t="n">
+        <v>13</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N150" t="n">
+        <v>50</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P150" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:54:16</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>130</v>
+      </c>
+      <c r="C151" t="n">
+        <v>78</v>
+      </c>
+      <c r="D151" t="n">
+        <v>10</v>
+      </c>
+      <c r="E151" t="n">
+        <v>10</v>
+      </c>
+      <c r="F151" t="n">
+        <v>34</v>
+      </c>
+      <c r="G151" t="n">
+        <v>34</v>
+      </c>
+      <c r="H151" t="n">
+        <v>29</v>
+      </c>
+      <c r="I151" t="n">
+        <v>16</v>
+      </c>
+      <c r="J151" t="n">
+        <v>16</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N151" t="n">
+        <v>50</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P151" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:54:31</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>120</v>
+      </c>
+      <c r="C152" t="n">
+        <v>77</v>
+      </c>
+      <c r="D152" t="n">
+        <v>7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>16</v>
+      </c>
+      <c r="F152" t="n">
+        <v>30</v>
+      </c>
+      <c r="G152" t="n">
+        <v>31</v>
+      </c>
+      <c r="H152" t="n">
+        <v>18</v>
+      </c>
+      <c r="I152" t="n">
+        <v>14</v>
+      </c>
+      <c r="J152" t="n">
+        <v>14</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N152" t="n">
+        <v>50</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P152" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:54:46</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>118</v>
+      </c>
+      <c r="C153" t="n">
+        <v>64</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9</v>
+      </c>
+      <c r="E153" t="n">
+        <v>19</v>
+      </c>
+      <c r="F153" t="n">
+        <v>28</v>
+      </c>
+      <c r="G153" t="n">
+        <v>17</v>
+      </c>
+      <c r="H153" t="n">
+        <v>21</v>
+      </c>
+      <c r="I153" t="n">
+        <v>31</v>
+      </c>
+      <c r="J153" t="n">
+        <v>16</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N153" t="n">
+        <v>50</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P153" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:54:59</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>110</v>
+      </c>
+      <c r="C154" t="n">
+        <v>79</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>18</v>
+      </c>
+      <c r="F154" t="n">
+        <v>28</v>
+      </c>
+      <c r="G154" t="n">
+        <v>33</v>
+      </c>
+      <c r="H154" t="n">
+        <v>16</v>
+      </c>
+      <c r="I154" t="n">
+        <v>15</v>
+      </c>
+      <c r="J154" t="n">
+        <v>23</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N154" t="n">
+        <v>50</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P154" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:57:54</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>40</v>
+      </c>
+      <c r="C155" t="n">
+        <v>19</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6</v>
+      </c>
+      <c r="G155" t="n">
+        <v>5</v>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+      <c r="I155" t="n">
+        <v>24</v>
+      </c>
+      <c r="J155" t="n">
+        <v>23</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N155" t="n">
+        <v>50</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P155" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:58:07</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>40</v>
+      </c>
+      <c r="C156" t="n">
+        <v>27</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>10</v>
+      </c>
+      <c r="F156" t="n">
+        <v>9</v>
+      </c>
+      <c r="G156" t="n">
+        <v>8</v>
+      </c>
+      <c r="H156" t="n">
+        <v>16</v>
+      </c>
+      <c r="I156" t="n">
+        <v>15</v>
+      </c>
+      <c r="J156" t="n">
+        <v>11</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N156" t="n">
+        <v>50</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P156" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:58:26</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>130</v>
+      </c>
+      <c r="C157" t="n">
+        <v>86</v>
+      </c>
+      <c r="D157" t="n">
+        <v>8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>19</v>
+      </c>
+      <c r="F157" t="n">
+        <v>32</v>
+      </c>
+      <c r="G157" t="n">
+        <v>35</v>
+      </c>
+      <c r="H157" t="n">
+        <v>18</v>
+      </c>
+      <c r="I157" t="n">
+        <v>18</v>
+      </c>
+      <c r="J157" t="n">
+        <v>16</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N157" t="n">
+        <v>50</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P157" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:58:43</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>120</v>
+      </c>
+      <c r="C158" t="n">
+        <v>67</v>
+      </c>
+      <c r="D158" t="n">
+        <v>8</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11</v>
+      </c>
+      <c r="F158" t="n">
+        <v>30</v>
+      </c>
+      <c r="G158" t="n">
+        <v>26</v>
+      </c>
+      <c r="H158" t="n">
+        <v>25</v>
+      </c>
+      <c r="I158" t="n">
+        <v>13</v>
+      </c>
+      <c r="J158" t="n">
+        <v>13</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N158" t="n">
+        <v>50</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P158" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2023-08-27 06:58:58</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>118</v>
+      </c>
+      <c r="C159" t="n">
+        <v>78</v>
+      </c>
+      <c r="D159" t="n">
+        <v>8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>21</v>
+      </c>
+      <c r="F159" t="n">
+        <v>33</v>
+      </c>
+      <c r="G159" t="n">
+        <v>24</v>
+      </c>
+      <c r="H159" t="n">
+        <v>13</v>
+      </c>
+      <c r="I159" t="n">
+        <v>23</v>
+      </c>
+      <c r="J159" t="n">
+        <v>14</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N159" t="n">
+        <v>50</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P159" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2023-08-27 07:10:31</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>40</v>
+      </c>
+      <c r="C160" t="n">
+        <v>24</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10</v>
+      </c>
+      <c r="G160" t="n">
+        <v>10</v>
+      </c>
+      <c r="H160" t="n">
+        <v>24</v>
+      </c>
+      <c r="I160" t="n">
+        <v>10</v>
+      </c>
+      <c r="J160" t="n">
+        <v>12</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N160" t="n">
+        <v>50</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P160" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2023-08-27 07:10:37</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>40</v>
+      </c>
+      <c r="C161" t="n">
+        <v>29</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>14</v>
+      </c>
+      <c r="G161" t="n">
+        <v>11</v>
+      </c>
+      <c r="H161" t="n">
+        <v>25</v>
+      </c>
+      <c r="I161" t="n">
+        <v>7</v>
+      </c>
+      <c r="J161" t="n">
+        <v>9</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N161" t="n">
+        <v>50</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P161" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2023-08-27 07:10:56</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>130</v>
+      </c>
+      <c r="C162" t="n">
+        <v>81</v>
+      </c>
+      <c r="D162" t="n">
+        <v>8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>20</v>
+      </c>
+      <c r="F162" t="n">
+        <v>32</v>
+      </c>
+      <c r="G162" t="n">
+        <v>29</v>
+      </c>
+      <c r="H162" t="n">
+        <v>17</v>
+      </c>
+      <c r="I162" t="n">
+        <v>13</v>
+      </c>
+      <c r="J162" t="n">
+        <v>16</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N162" t="n">
+        <v>50</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P162" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2023-08-27 07:14:27</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>40</v>
+      </c>
+      <c r="C163" t="n">
+        <v>25</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>9</v>
+      </c>
+      <c r="F163" t="n">
+        <v>9</v>
+      </c>
+      <c r="G163" t="n">
+        <v>7</v>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+      <c r="I163" t="n">
+        <v>11</v>
+      </c>
+      <c r="J163" t="n">
+        <v>15</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N163" t="n">
+        <v>50</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P163" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2023-08-27 07:14:33</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>40</v>
+      </c>
+      <c r="C164" t="n">
+        <v>38</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>16</v>
+      </c>
+      <c r="G164" t="n">
+        <v>15</v>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+      <c r="I164" t="n">
+        <v>7</v>
+      </c>
+      <c r="J164" t="n">
+        <v>8</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N164" t="n">
+        <v>50</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P164" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2023-08-27 07:14:48</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>130</v>
+      </c>
+      <c r="C165" t="n">
+        <v>85</v>
+      </c>
+      <c r="D165" t="n">
+        <v>11</v>
+      </c>
+      <c r="E165" t="n">
+        <v>16</v>
+      </c>
+      <c r="F165" t="n">
+        <v>39</v>
+      </c>
+      <c r="G165" t="n">
+        <v>30</v>
+      </c>
+      <c r="H165" t="n">
+        <v>20</v>
+      </c>
+      <c r="I165" t="n">
+        <v>11</v>
+      </c>
+      <c r="J165" t="n">
+        <v>28</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N165" t="n">
+        <v>50</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P165" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2023-08-27 07:15:04</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>120</v>
+      </c>
+      <c r="C166" t="n">
+        <v>87</v>
+      </c>
+      <c r="D166" t="n">
+        <v>7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>18</v>
+      </c>
+      <c r="F166" t="n">
+        <v>37</v>
+      </c>
+      <c r="G166" t="n">
+        <v>32</v>
+      </c>
+      <c r="H166" t="n">
+        <v>19</v>
+      </c>
+      <c r="I166" t="n">
+        <v>13</v>
+      </c>
+      <c r="J166" t="n">
+        <v>13</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N166" t="n">
+        <v>50</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P166" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2023-08-27 07:15:18</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>118</v>
+      </c>
+      <c r="C167" t="n">
+        <v>83</v>
+      </c>
+      <c r="D167" t="n">
+        <v>8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15</v>
+      </c>
+      <c r="F167" t="n">
+        <v>39</v>
+      </c>
+      <c r="G167" t="n">
+        <v>29</v>
+      </c>
+      <c r="H167" t="n">
+        <v>26</v>
+      </c>
+      <c r="I167" t="n">
+        <v>14</v>
+      </c>
+      <c r="J167" t="n">
+        <v>16</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N167" t="n">
+        <v>50</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P167" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2023-08-27 07:15:32</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>110</v>
+      </c>
+      <c r="C168" t="n">
+        <v>79</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15</v>
+      </c>
+      <c r="F168" t="n">
+        <v>35</v>
+      </c>
+      <c r="G168" t="n">
+        <v>29</v>
+      </c>
+      <c r="H168" t="n">
+        <v>17</v>
+      </c>
+      <c r="I168" t="n">
+        <v>7</v>
+      </c>
+      <c r="J168" t="n">
+        <v>19</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N168" t="n">
+        <v>50</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P168" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2023-09-14 13:01:29</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>35</v>
+      </c>
+      <c r="C169" t="n">
+        <v>14</v>
+      </c>
+      <c r="D169" t="n">
+        <v>11</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>10</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>17</v>
+      </c>
+      <c r="I169" t="n">
+        <v>11</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N169" t="n">
+        <v>50</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P169" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2023-09-14 13:01:44</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>35</v>
+      </c>
+      <c r="C170" t="n">
+        <v>14</v>
+      </c>
+      <c r="D170" t="n">
+        <v>11</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4</v>
+      </c>
+      <c r="F170" t="n">
+        <v>10</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>17</v>
+      </c>
+      <c r="I170" t="n">
+        <v>11</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N170" t="n">
+        <v>50</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P170" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2023-09-14 13:49:23</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>40</v>
+      </c>
+      <c r="C171" t="n">
+        <v>27</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>12</v>
+      </c>
+      <c r="G171" t="n">
+        <v>12</v>
+      </c>
+      <c r="H171" t="n">
+        <v>23</v>
+      </c>
+      <c r="I171" t="n">
+        <v>10</v>
+      </c>
+      <c r="J171" t="n">
+        <v>9</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N171" t="n">
+        <v>50</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P171" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2023-09-14 13:49:31</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>40</v>
+      </c>
+      <c r="C172" t="n">
+        <v>46</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3</v>
+      </c>
+      <c r="E172" t="n">
+        <v>9</v>
+      </c>
+      <c r="F172" t="n">
+        <v>20</v>
+      </c>
+      <c r="G172" t="n">
+        <v>17</v>
+      </c>
+      <c r="H172" t="n">
+        <v>18</v>
+      </c>
+      <c r="I172" t="n">
+        <v>8</v>
+      </c>
+      <c r="J172" t="n">
+        <v>11</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N172" t="n">
+        <v>50</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P172" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2023-09-14 13:49:51</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>130</v>
+      </c>
+      <c r="C173" t="n">
+        <v>108</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4</v>
+      </c>
+      <c r="E173" t="n">
+        <v>19</v>
+      </c>
+      <c r="F173" t="n">
+        <v>48</v>
+      </c>
+      <c r="G173" t="n">
+        <v>41</v>
+      </c>
+      <c r="H173" t="n">
+        <v>27</v>
+      </c>
+      <c r="I173" t="n">
+        <v>11</v>
+      </c>
+      <c r="J173" t="n">
+        <v>10</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N173" t="n">
+        <v>50</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P173" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2023-09-14 13:50:08</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>120</v>
+      </c>
+      <c r="C174" t="n">
+        <v>108</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4</v>
+      </c>
+      <c r="E174" t="n">
+        <v>15</v>
+      </c>
+      <c r="F174" t="n">
+        <v>47</v>
+      </c>
+      <c r="G174" t="n">
+        <v>46</v>
+      </c>
+      <c r="H174" t="n">
+        <v>38</v>
+      </c>
+      <c r="I174" t="n">
+        <v>13</v>
+      </c>
+      <c r="J174" t="n">
+        <v>10</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N174" t="n">
+        <v>50</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P174" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2023-09-14 13:50:28</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>118</v>
+      </c>
+      <c r="C175" t="n">
+        <v>109</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4</v>
+      </c>
+      <c r="E175" t="n">
+        <v>26</v>
+      </c>
+      <c r="F175" t="n">
+        <v>50</v>
+      </c>
+      <c r="G175" t="n">
+        <v>33</v>
+      </c>
+      <c r="H175" t="n">
+        <v>17</v>
+      </c>
+      <c r="I175" t="n">
+        <v>11</v>
+      </c>
+      <c r="J175" t="n">
+        <v>12</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N175" t="n">
+        <v>50</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P175" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2023-09-14 13:50:45</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>110</v>
+      </c>
+      <c r="C176" t="n">
+        <v>111</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4</v>
+      </c>
+      <c r="E176" t="n">
+        <v>26</v>
+      </c>
+      <c r="F176" t="n">
+        <v>44</v>
+      </c>
+      <c r="G176" t="n">
+        <v>41</v>
+      </c>
+      <c r="H176" t="n">
+        <v>14</v>
+      </c>
+      <c r="I176" t="n">
+        <v>9</v>
+      </c>
+      <c r="J176" t="n">
+        <v>9</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N176" t="n">
+        <v>50</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P176" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:02:09</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>40</v>
+      </c>
+      <c r="C177" t="n">
+        <v>39</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4</v>
+      </c>
+      <c r="E177" t="n">
+        <v>10</v>
+      </c>
+      <c r="F177" t="n">
+        <v>14</v>
+      </c>
+      <c r="G177" t="n">
+        <v>15</v>
+      </c>
+      <c r="H177" t="n">
+        <v>11</v>
+      </c>
+      <c r="I177" t="n">
+        <v>10</v>
+      </c>
+      <c r="J177" t="n">
+        <v>9</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N177" t="n">
+        <v>50</v>
+      </c>
+      <c r="O177" t="n">
+        <v>512</v>
+      </c>
+      <c r="P177" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:02:16</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>40</v>
+      </c>
+      <c r="C178" t="n">
+        <v>41</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20</v>
+      </c>
+      <c r="G178" t="n">
+        <v>18</v>
+      </c>
+      <c r="H178" t="n">
+        <v>25</v>
+      </c>
+      <c r="I178" t="n">
+        <v>5</v>
+      </c>
+      <c r="J178" t="n">
+        <v>7</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N178" t="n">
+        <v>50</v>
+      </c>
+      <c r="O178" t="n">
+        <v>512</v>
+      </c>
+      <c r="P178" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:02:36</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>130</v>
+      </c>
+      <c r="C179" t="n">
+        <v>119</v>
+      </c>
+      <c r="D179" t="n">
+        <v>5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>21</v>
+      </c>
+      <c r="F179" t="n">
+        <v>54</v>
+      </c>
+      <c r="G179" t="n">
+        <v>44</v>
+      </c>
+      <c r="H179" t="n">
+        <v>21</v>
+      </c>
+      <c r="I179" t="n">
+        <v>10</v>
+      </c>
+      <c r="J179" t="n">
+        <v>11</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N179" t="n">
+        <v>50</v>
+      </c>
+      <c r="O179" t="n">
+        <v>512</v>
+      </c>
+      <c r="P179" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:02:54</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>120</v>
+      </c>
+      <c r="C180" t="n">
+        <v>121</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>23</v>
+      </c>
+      <c r="F180" t="n">
+        <v>53</v>
+      </c>
+      <c r="G180" t="n">
+        <v>45</v>
+      </c>
+      <c r="H180" t="n">
+        <v>13</v>
+      </c>
+      <c r="I180" t="n">
+        <v>7</v>
+      </c>
+      <c r="J180" t="n">
+        <v>15</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N180" t="n">
+        <v>50</v>
+      </c>
+      <c r="O180" t="n">
+        <v>512</v>
+      </c>
+      <c r="P180" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:03:13</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>118</v>
+      </c>
+      <c r="C181" t="n">
+        <v>116</v>
+      </c>
+      <c r="D181" t="n">
+        <v>7</v>
+      </c>
+      <c r="E181" t="n">
+        <v>25</v>
+      </c>
+      <c r="F181" t="n">
+        <v>57</v>
+      </c>
+      <c r="G181" t="n">
+        <v>34</v>
+      </c>
+      <c r="H181" t="n">
+        <v>17</v>
+      </c>
+      <c r="I181" t="n">
+        <v>9</v>
+      </c>
+      <c r="J181" t="n">
+        <v>12</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N181" t="n">
+        <v>50</v>
+      </c>
+      <c r="O181" t="n">
+        <v>512</v>
+      </c>
+      <c r="P181" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:03:30</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>110</v>
+      </c>
+      <c r="C182" t="n">
+        <v>102</v>
+      </c>
+      <c r="D182" t="n">
+        <v>3</v>
+      </c>
+      <c r="E182" t="n">
+        <v>20</v>
+      </c>
+      <c r="F182" t="n">
+        <v>47</v>
+      </c>
+      <c r="G182" t="n">
+        <v>35</v>
+      </c>
+      <c r="H182" t="n">
+        <v>21</v>
+      </c>
+      <c r="I182" t="n">
+        <v>6</v>
+      </c>
+      <c r="J182" t="n">
+        <v>23</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N182" t="n">
+        <v>50</v>
+      </c>
+      <c r="O182" t="n">
+        <v>512</v>
+      </c>
+      <c r="P182" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:11:01</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>40</v>
+      </c>
+      <c r="C183" t="n">
+        <v>22</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9</v>
+      </c>
+      <c r="E183" t="n">
+        <v>10</v>
+      </c>
+      <c r="F183" t="n">
+        <v>12</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+      <c r="I183" t="n">
+        <v>14</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N183" t="n">
+        <v>50</v>
+      </c>
+      <c r="O183" t="n">
+        <v>512</v>
+      </c>
+      <c r="P183" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:11:09</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>40</v>
+      </c>
+      <c r="C184" t="n">
+        <v>22</v>
+      </c>
+      <c r="D184" t="n">
+        <v>7</v>
+      </c>
+      <c r="E184" t="n">
+        <v>6</v>
+      </c>
+      <c r="F184" t="n">
+        <v>16</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>18</v>
+      </c>
+      <c r="I184" t="n">
+        <v>7</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N184" t="n">
+        <v>50</v>
+      </c>
+      <c r="O184" t="n">
+        <v>512</v>
+      </c>
+      <c r="P184" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:11:27</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>130</v>
+      </c>
+      <c r="C185" t="n">
+        <v>75</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>24</v>
+      </c>
+      <c r="F185" t="n">
+        <v>51</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>13</v>
+      </c>
+      <c r="I185" t="n">
+        <v>9</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N185" t="n">
+        <v>50</v>
+      </c>
+      <c r="O185" t="n">
+        <v>512</v>
+      </c>
+      <c r="P185" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:11:45</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>120</v>
+      </c>
+      <c r="C186" t="n">
+        <v>55</v>
+      </c>
+      <c r="D186" t="n">
+        <v>10</v>
+      </c>
+      <c r="E186" t="n">
+        <v>19</v>
+      </c>
+      <c r="F186" t="n">
+        <v>36</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>28</v>
+      </c>
+      <c r="I186" t="n">
+        <v>13</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N186" t="n">
+        <v>50</v>
+      </c>
+      <c r="O186" t="n">
+        <v>512</v>
+      </c>
+      <c r="P186" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:12:00</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>118</v>
+      </c>
+      <c r="C187" t="n">
+        <v>50</v>
+      </c>
+      <c r="D187" t="n">
+        <v>7</v>
+      </c>
+      <c r="E187" t="n">
+        <v>18</v>
+      </c>
+      <c r="F187" t="n">
+        <v>32</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>21</v>
+      </c>
+      <c r="I187" t="n">
+        <v>10</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N187" t="n">
+        <v>50</v>
+      </c>
+      <c r="O187" t="n">
+        <v>512</v>
+      </c>
+      <c r="P187" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:12:15</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>110</v>
+      </c>
+      <c r="C188" t="n">
+        <v>63</v>
+      </c>
+      <c r="D188" t="n">
+        <v>7</v>
+      </c>
+      <c r="E188" t="n">
+        <v>19</v>
+      </c>
+      <c r="F188" t="n">
+        <v>44</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>17</v>
+      </c>
+      <c r="I188" t="n">
+        <v>10</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N188" t="n">
+        <v>50</v>
+      </c>
+      <c r="O188" t="n">
+        <v>512</v>
+      </c>
+      <c r="P188" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:24:15</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>40</v>
+      </c>
+      <c r="C189" t="n">
+        <v>31</v>
+      </c>
+      <c r="D189" t="n">
+        <v>6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>13</v>
+      </c>
+      <c r="F189" t="n">
+        <v>18</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>9</v>
+      </c>
+      <c r="I189" t="n">
+        <v>7</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N189" t="n">
+        <v>50</v>
+      </c>
+      <c r="O189" t="n">
+        <v>512</v>
+      </c>
+      <c r="P189" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:24:22</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>40</v>
+      </c>
+      <c r="C190" t="n">
+        <v>46</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4</v>
+      </c>
+      <c r="E190" t="n">
+        <v>11</v>
+      </c>
+      <c r="F190" t="n">
+        <v>35</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>13</v>
+      </c>
+      <c r="I190" t="n">
+        <v>4</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N190" t="n">
+        <v>50</v>
+      </c>
+      <c r="O190" t="n">
+        <v>512</v>
+      </c>
+      <c r="P190" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:24:39</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>130</v>
+      </c>
+      <c r="C191" t="n">
+        <v>119</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>46</v>
+      </c>
+      <c r="F191" t="n">
+        <v>73</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+      <c r="I191" t="n">
+        <v>6</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N191" t="n">
+        <v>50</v>
+      </c>
+      <c r="O191" t="n">
+        <v>512</v>
+      </c>
+      <c r="P191" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:24:55</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>120</v>
+      </c>
+      <c r="C192" t="n">
+        <v>105</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4</v>
+      </c>
+      <c r="E192" t="n">
+        <v>32</v>
+      </c>
+      <c r="F192" t="n">
+        <v>73</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>16</v>
+      </c>
+      <c r="I192" t="n">
+        <v>5</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N192" t="n">
+        <v>50</v>
+      </c>
+      <c r="O192" t="n">
+        <v>512</v>
+      </c>
+      <c r="P192" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:25:12</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>118</v>
+      </c>
+      <c r="C193" t="n">
+        <v>100</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>35</v>
+      </c>
+      <c r="F193" t="n">
+        <v>65</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+      <c r="I193" t="n">
+        <v>10</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N193" t="n">
+        <v>50</v>
+      </c>
+      <c r="O193" t="n">
+        <v>512</v>
+      </c>
+      <c r="P193" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:25:29</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>110</v>
+      </c>
+      <c r="C194" t="n">
+        <v>97</v>
+      </c>
+      <c r="D194" t="n">
+        <v>4</v>
+      </c>
+      <c r="E194" t="n">
+        <v>32</v>
+      </c>
+      <c r="F194" t="n">
+        <v>65</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>12</v>
+      </c>
+      <c r="I194" t="n">
+        <v>7</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N194" t="n">
+        <v>50</v>
+      </c>
+      <c r="O194" t="n">
+        <v>512</v>
+      </c>
+      <c r="P194" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:44:05</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>40</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11</v>
+      </c>
+      <c r="D195" t="n">
+        <v>13</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>8</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>23</v>
+      </c>
+      <c r="I195" t="n">
+        <v>13</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N195" t="n">
+        <v>70</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P195" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:44:10</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>40</v>
+      </c>
+      <c r="C196" t="n">
+        <v>24</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5</v>
+      </c>
+      <c r="E196" t="n">
+        <v>8</v>
+      </c>
+      <c r="F196" t="n">
+        <v>16</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>13</v>
+      </c>
+      <c r="I196" t="n">
+        <v>7</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N196" t="n">
+        <v>70</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P196" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:44:25</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>130</v>
+      </c>
+      <c r="C197" t="n">
+        <v>74</v>
+      </c>
+      <c r="D197" t="n">
+        <v>6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>20</v>
+      </c>
+      <c r="F197" t="n">
+        <v>54</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>22</v>
+      </c>
+      <c r="I197" t="n">
+        <v>14</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N197" t="n">
+        <v>70</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P197" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:44:40</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>120</v>
+      </c>
+      <c r="C198" t="n">
+        <v>75</v>
+      </c>
+      <c r="D198" t="n">
+        <v>4</v>
+      </c>
+      <c r="E198" t="n">
+        <v>25</v>
+      </c>
+      <c r="F198" t="n">
+        <v>50</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>13</v>
+      </c>
+      <c r="I198" t="n">
+        <v>8</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N198" t="n">
+        <v>70</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P198" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:44:55</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>118</v>
+      </c>
+      <c r="C199" t="n">
+        <v>68</v>
+      </c>
+      <c r="D199" t="n">
+        <v>6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>21</v>
+      </c>
+      <c r="F199" t="n">
+        <v>47</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>15</v>
+      </c>
+      <c r="I199" t="n">
+        <v>8</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N199" t="n">
+        <v>70</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P199" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2023-09-14 14:45:09</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>110</v>
+      </c>
+      <c r="C200" t="n">
+        <v>54</v>
+      </c>
+      <c r="D200" t="n">
+        <v>7</v>
+      </c>
+      <c r="E200" t="n">
+        <v>18</v>
+      </c>
+      <c r="F200" t="n">
+        <v>36</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>17</v>
+      </c>
+      <c r="I200" t="n">
+        <v>7</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N200" t="n">
+        <v>70</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P200" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:37:57</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>40</v>
+      </c>
+      <c r="C201" t="n">
+        <v>21</v>
+      </c>
+      <c r="D201" t="n">
+        <v>8</v>
+      </c>
+      <c r="E201" t="n">
+        <v>7</v>
+      </c>
+      <c r="F201" t="n">
+        <v>14</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>15</v>
+      </c>
+      <c r="I201" t="n">
+        <v>14</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N201" t="n">
+        <v>30</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P201" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:38:04</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>40</v>
+      </c>
+      <c r="C202" t="n">
+        <v>21</v>
+      </c>
+      <c r="D202" t="n">
+        <v>7</v>
+      </c>
+      <c r="E202" t="n">
+        <v>7</v>
+      </c>
+      <c r="F202" t="n">
+        <v>14</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>16</v>
+      </c>
+      <c r="I202" t="n">
+        <v>7</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N202" t="n">
+        <v>30</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P202" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:38:30</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>130</v>
+      </c>
+      <c r="C203" t="n">
+        <v>69</v>
+      </c>
+      <c r="D203" t="n">
+        <v>10</v>
+      </c>
+      <c r="E203" t="n">
+        <v>17</v>
+      </c>
+      <c r="F203" t="n">
+        <v>52</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>24</v>
+      </c>
+      <c r="I203" t="n">
+        <v>10</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N203" t="n">
+        <v>30</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P203" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:46:46</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>40</v>
+      </c>
+      <c r="C204" t="n">
+        <v>24</v>
+      </c>
+      <c r="D204" t="n">
+        <v>7</v>
+      </c>
+      <c r="E204" t="n">
+        <v>11</v>
+      </c>
+      <c r="F204" t="n">
+        <v>13</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>11</v>
+      </c>
+      <c r="I204" t="n">
+        <v>7</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N204" t="n">
+        <v>30</v>
+      </c>
+      <c r="O204" t="n">
+        <v>256</v>
+      </c>
+      <c r="P204" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:46:52</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>40</v>
+      </c>
+      <c r="C205" t="n">
+        <v>41</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3</v>
+      </c>
+      <c r="E205" t="n">
+        <v>15</v>
+      </c>
+      <c r="F205" t="n">
+        <v>26</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>8</v>
+      </c>
+      <c r="I205" t="n">
+        <v>5</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N205" t="n">
+        <v>30</v>
+      </c>
+      <c r="O205" t="n">
+        <v>256</v>
+      </c>
+      <c r="P205" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:47:10</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>130</v>
+      </c>
+      <c r="C206" t="n">
+        <v>107</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3</v>
+      </c>
+      <c r="E206" t="n">
+        <v>36</v>
+      </c>
+      <c r="F206" t="n">
+        <v>71</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>13</v>
+      </c>
+      <c r="I206" t="n">
+        <v>3</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M206" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N206" t="n">
+        <v>30</v>
+      </c>
+      <c r="O206" t="n">
+        <v>256</v>
+      </c>
+      <c r="P206" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:51:16</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>40</v>
+      </c>
+      <c r="C207" t="n">
+        <v>30</v>
+      </c>
+      <c r="D207" t="n">
+        <v>6</v>
+      </c>
+      <c r="E207" t="n">
+        <v>13</v>
+      </c>
+      <c r="F207" t="n">
+        <v>17</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>9</v>
+      </c>
+      <c r="I207" t="n">
+        <v>6</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N207" t="n">
+        <v>50</v>
+      </c>
+      <c r="O207" t="n">
+        <v>512</v>
+      </c>
+      <c r="P207" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:51:22</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>40</v>
+      </c>
+      <c r="C208" t="n">
+        <v>33</v>
+      </c>
+      <c r="D208" t="n">
+        <v>6</v>
+      </c>
+      <c r="E208" t="n">
+        <v>10</v>
+      </c>
+      <c r="F208" t="n">
+        <v>23</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>11</v>
+      </c>
+      <c r="I208" t="n">
+        <v>6</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N208" t="n">
+        <v>50</v>
+      </c>
+      <c r="O208" t="n">
+        <v>512</v>
+      </c>
+      <c r="P208" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:51:38</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>130</v>
+      </c>
+      <c r="C209" t="n">
+        <v>109</v>
+      </c>
+      <c r="D209" t="n">
+        <v>7</v>
+      </c>
+      <c r="E209" t="n">
+        <v>32</v>
+      </c>
+      <c r="F209" t="n">
+        <v>77</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>12</v>
+      </c>
+      <c r="I209" t="n">
+        <v>10</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N209" t="n">
+        <v>50</v>
+      </c>
+      <c r="O209" t="n">
+        <v>512</v>
+      </c>
+      <c r="P209" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:51:54</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>120</v>
+      </c>
+      <c r="C210" t="n">
+        <v>101</v>
+      </c>
+      <c r="D210" t="n">
+        <v>5</v>
+      </c>
+      <c r="E210" t="n">
+        <v>31</v>
+      </c>
+      <c r="F210" t="n">
+        <v>70</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>12</v>
+      </c>
+      <c r="I210" t="n">
+        <v>6</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N210" t="n">
+        <v>50</v>
+      </c>
+      <c r="O210" t="n">
+        <v>512</v>
+      </c>
+      <c r="P210" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:52:08</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>118</v>
+      </c>
+      <c r="C211" t="n">
+        <v>84</v>
+      </c>
+      <c r="D211" t="n">
+        <v>6</v>
+      </c>
+      <c r="E211" t="n">
+        <v>25</v>
+      </c>
+      <c r="F211" t="n">
+        <v>59</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>26</v>
+      </c>
+      <c r="I211" t="n">
+        <v>11</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N211" t="n">
+        <v>50</v>
+      </c>
+      <c r="O211" t="n">
+        <v>512</v>
+      </c>
+      <c r="P211" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:56:59</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>40</v>
+      </c>
+      <c r="C212" t="n">
+        <v>21</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5</v>
+      </c>
+      <c r="E212" t="n">
+        <v>7</v>
+      </c>
+      <c r="F212" t="n">
+        <v>7</v>
+      </c>
+      <c r="G212" t="n">
+        <v>7</v>
+      </c>
+      <c r="H212" t="n">
+        <v>21</v>
+      </c>
+      <c r="I212" t="n">
+        <v>15</v>
+      </c>
+      <c r="J212" t="n">
+        <v>12</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N212" t="n">
+        <v>50</v>
+      </c>
+      <c r="O212" t="n">
+        <v>512</v>
+      </c>
+      <c r="P212" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:57:05</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>40</v>
+      </c>
+      <c r="C213" t="n">
+        <v>13</v>
+      </c>
+      <c r="D213" t="n">
+        <v>8</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2</v>
+      </c>
+      <c r="F213" t="n">
+        <v>5</v>
+      </c>
+      <c r="G213" t="n">
+        <v>6</v>
+      </c>
+      <c r="H213" t="n">
+        <v>27</v>
+      </c>
+      <c r="I213" t="n">
+        <v>15</v>
+      </c>
+      <c r="J213" t="n">
+        <v>23</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N213" t="n">
+        <v>50</v>
+      </c>
+      <c r="O213" t="n">
+        <v>512</v>
+      </c>
+      <c r="P213" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:57:20</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>130</v>
+      </c>
+      <c r="C214" t="n">
+        <v>64</v>
+      </c>
+      <c r="D214" t="n">
+        <v>11</v>
+      </c>
+      <c r="E214" t="n">
+        <v>10</v>
+      </c>
+      <c r="F214" t="n">
+        <v>35</v>
+      </c>
+      <c r="G214" t="n">
+        <v>19</v>
+      </c>
+      <c r="H214" t="n">
+        <v>45</v>
+      </c>
+      <c r="I214" t="n">
+        <v>11</v>
+      </c>
+      <c r="J214" t="n">
+        <v>22</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N214" t="n">
+        <v>50</v>
+      </c>
+      <c r="O214" t="n">
+        <v>512</v>
+      </c>
+      <c r="P214" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:57:35</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>120</v>
+      </c>
+      <c r="C215" t="n">
+        <v>50</v>
+      </c>
+      <c r="D215" t="n">
+        <v>13</v>
+      </c>
+      <c r="E215" t="n">
+        <v>8</v>
+      </c>
+      <c r="F215" t="n">
+        <v>21</v>
+      </c>
+      <c r="G215" t="n">
+        <v>21</v>
+      </c>
+      <c r="H215" t="n">
+        <v>33</v>
+      </c>
+      <c r="I215" t="n">
+        <v>27</v>
+      </c>
+      <c r="J215" t="n">
+        <v>13</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N215" t="n">
+        <v>50</v>
+      </c>
+      <c r="O215" t="n">
+        <v>512</v>
+      </c>
+      <c r="P215" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:57:49</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>118</v>
+      </c>
+      <c r="C216" t="n">
+        <v>39</v>
+      </c>
+      <c r="D216" t="n">
+        <v>15</v>
+      </c>
+      <c r="E216" t="n">
+        <v>6</v>
+      </c>
+      <c r="F216" t="n">
+        <v>20</v>
+      </c>
+      <c r="G216" t="n">
+        <v>13</v>
+      </c>
+      <c r="H216" t="n">
+        <v>48</v>
+      </c>
+      <c r="I216" t="n">
+        <v>17</v>
+      </c>
+      <c r="J216" t="n">
+        <v>24</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N216" t="n">
+        <v>50</v>
+      </c>
+      <c r="O216" t="n">
+        <v>512</v>
+      </c>
+      <c r="P216" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-09-14 16:58:02</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>110</v>
+      </c>
+      <c r="C217" t="n">
+        <v>55</v>
+      </c>
+      <c r="D217" t="n">
+        <v>5</v>
+      </c>
+      <c r="E217" t="n">
+        <v>6</v>
+      </c>
+      <c r="F217" t="n">
+        <v>30</v>
+      </c>
+      <c r="G217" t="n">
+        <v>19</v>
+      </c>
+      <c r="H217" t="n">
+        <v>39</v>
+      </c>
+      <c r="I217" t="n">
+        <v>11</v>
+      </c>
+      <c r="J217" t="n">
+        <v>16</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N217" t="n">
+        <v>50</v>
+      </c>
+      <c r="O217" t="n">
+        <v>512</v>
+      </c>
+      <c r="P217" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:08:44</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>40</v>
+      </c>
+      <c r="C218" t="n">
+        <v>12</v>
+      </c>
+      <c r="D218" t="n">
+        <v>12</v>
+      </c>
+      <c r="E218" t="n">
+        <v>3</v>
+      </c>
+      <c r="F218" t="n">
+        <v>3</v>
+      </c>
+      <c r="G218" t="n">
+        <v>6</v>
+      </c>
+      <c r="H218" t="n">
+        <v>28</v>
+      </c>
+      <c r="I218" t="n">
+        <v>31</v>
+      </c>
+      <c r="J218" t="n">
+        <v>25</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N218" t="n">
+        <v>50</v>
+      </c>
+      <c r="O218" t="n">
+        <v>512</v>
+      </c>
+      <c r="P218" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:08:50</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>40</v>
+      </c>
+      <c r="C219" t="n">
+        <v>14</v>
+      </c>
+      <c r="D219" t="n">
+        <v>8</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>6</v>
+      </c>
+      <c r="G219" t="n">
+        <v>7</v>
+      </c>
+      <c r="H219" t="n">
+        <v>29</v>
+      </c>
+      <c r="I219" t="n">
+        <v>11</v>
+      </c>
+      <c r="J219" t="n">
+        <v>13</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N219" t="n">
+        <v>50</v>
+      </c>
+      <c r="O219" t="n">
+        <v>512</v>
+      </c>
+      <c r="P219" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:09:05</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>130</v>
+      </c>
+      <c r="C220" t="n">
+        <v>51</v>
+      </c>
+      <c r="D220" t="n">
+        <v>12</v>
+      </c>
+      <c r="E220" t="n">
+        <v>11</v>
+      </c>
+      <c r="F220" t="n">
+        <v>21</v>
+      </c>
+      <c r="G220" t="n">
+        <v>19</v>
+      </c>
+      <c r="H220" t="n">
+        <v>57</v>
+      </c>
+      <c r="I220" t="n">
+        <v>17</v>
+      </c>
+      <c r="J220" t="n">
+        <v>20</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N220" t="n">
+        <v>50</v>
+      </c>
+      <c r="O220" t="n">
+        <v>512</v>
+      </c>
+      <c r="P220" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:09:21</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>120</v>
+      </c>
+      <c r="C221" t="n">
+        <v>63</v>
+      </c>
+      <c r="D221" t="n">
+        <v>6</v>
+      </c>
+      <c r="E221" t="n">
+        <v>15</v>
+      </c>
+      <c r="F221" t="n">
+        <v>24</v>
+      </c>
+      <c r="G221" t="n">
+        <v>24</v>
+      </c>
+      <c r="H221" t="n">
+        <v>28</v>
+      </c>
+      <c r="I221" t="n">
+        <v>19</v>
+      </c>
+      <c r="J221" t="n">
+        <v>10</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N221" t="n">
+        <v>50</v>
+      </c>
+      <c r="O221" t="n">
+        <v>512</v>
+      </c>
+      <c r="P221" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:09:35</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>118</v>
+      </c>
+      <c r="C222" t="n">
+        <v>47</v>
+      </c>
+      <c r="D222" t="n">
+        <v>12</v>
+      </c>
+      <c r="E222" t="n">
+        <v>7</v>
+      </c>
+      <c r="F222" t="n">
+        <v>21</v>
+      </c>
+      <c r="G222" t="n">
+        <v>19</v>
+      </c>
+      <c r="H222" t="n">
+        <v>42</v>
+      </c>
+      <c r="I222" t="n">
+        <v>30</v>
+      </c>
+      <c r="J222" t="n">
+        <v>20</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N222" t="n">
+        <v>50</v>
+      </c>
+      <c r="O222" t="n">
+        <v>512</v>
+      </c>
+      <c r="P222" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:09:50</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>110</v>
+      </c>
+      <c r="C223" t="n">
+        <v>42</v>
+      </c>
+      <c r="D223" t="n">
+        <v>10</v>
+      </c>
+      <c r="E223" t="n">
+        <v>13</v>
+      </c>
+      <c r="F223" t="n">
+        <v>16</v>
+      </c>
+      <c r="G223" t="n">
+        <v>13</v>
+      </c>
+      <c r="H223" t="n">
+        <v>17</v>
+      </c>
+      <c r="I223" t="n">
+        <v>15</v>
+      </c>
+      <c r="J223" t="n">
+        <v>42</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N223" t="n">
+        <v>50</v>
+      </c>
+      <c r="O223" t="n">
+        <v>512</v>
+      </c>
+      <c r="P223" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:21:43</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>40</v>
+      </c>
+      <c r="C224" t="n">
+        <v>19</v>
+      </c>
+      <c r="D224" t="n">
+        <v>8</v>
+      </c>
+      <c r="E224" t="n">
+        <v>3</v>
+      </c>
+      <c r="F224" t="n">
+        <v>7</v>
+      </c>
+      <c r="G224" t="n">
+        <v>9</v>
+      </c>
+      <c r="H224" t="n">
+        <v>38</v>
+      </c>
+      <c r="I224" t="n">
+        <v>12</v>
+      </c>
+      <c r="J224" t="n">
+        <v>14</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N224" t="n">
+        <v>50</v>
+      </c>
+      <c r="O224" t="n">
+        <v>512</v>
+      </c>
+      <c r="P224" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:21:49</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>40</v>
+      </c>
+      <c r="C225" t="n">
+        <v>19</v>
+      </c>
+      <c r="D225" t="n">
+        <v>6</v>
+      </c>
+      <c r="E225" t="n">
+        <v>3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>5</v>
+      </c>
+      <c r="G225" t="n">
+        <v>11</v>
+      </c>
+      <c r="H225" t="n">
+        <v>22</v>
+      </c>
+      <c r="I225" t="n">
+        <v>14</v>
+      </c>
+      <c r="J225" t="n">
+        <v>8</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N225" t="n">
+        <v>50</v>
+      </c>
+      <c r="O225" t="n">
+        <v>512</v>
+      </c>
+      <c r="P225" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:22:04</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>130</v>
+      </c>
+      <c r="C226" t="n">
+        <v>85</v>
+      </c>
+      <c r="D226" t="n">
+        <v>7</v>
+      </c>
+      <c r="E226" t="n">
+        <v>16</v>
+      </c>
+      <c r="F226" t="n">
+        <v>42</v>
+      </c>
+      <c r="G226" t="n">
+        <v>27</v>
+      </c>
+      <c r="H226" t="n">
+        <v>25</v>
+      </c>
+      <c r="I226" t="n">
+        <v>14</v>
+      </c>
+      <c r="J226" t="n">
+        <v>12</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N226" t="n">
+        <v>50</v>
+      </c>
+      <c r="O226" t="n">
+        <v>512</v>
+      </c>
+      <c r="P226" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:22:19</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>120</v>
+      </c>
+      <c r="C227" t="n">
+        <v>60</v>
+      </c>
+      <c r="D227" t="n">
+        <v>7</v>
+      </c>
+      <c r="E227" t="n">
+        <v>9</v>
+      </c>
+      <c r="F227" t="n">
+        <v>32</v>
+      </c>
+      <c r="G227" t="n">
+        <v>19</v>
+      </c>
+      <c r="H227" t="n">
+        <v>33</v>
+      </c>
+      <c r="I227" t="n">
+        <v>15</v>
+      </c>
+      <c r="J227" t="n">
+        <v>18</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N227" t="n">
+        <v>50</v>
+      </c>
+      <c r="O227" t="n">
+        <v>512</v>
+      </c>
+      <c r="P227" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:22:33</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>118</v>
+      </c>
+      <c r="C228" t="n">
+        <v>52</v>
+      </c>
+      <c r="D228" t="n">
+        <v>12</v>
+      </c>
+      <c r="E228" t="n">
+        <v>9</v>
+      </c>
+      <c r="F228" t="n">
+        <v>22</v>
+      </c>
+      <c r="G228" t="n">
+        <v>21</v>
+      </c>
+      <c r="H228" t="n">
+        <v>30</v>
+      </c>
+      <c r="I228" t="n">
+        <v>17</v>
+      </c>
+      <c r="J228" t="n">
+        <v>26</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N228" t="n">
+        <v>50</v>
+      </c>
+      <c r="O228" t="n">
+        <v>512</v>
+      </c>
+      <c r="P228" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-09-14 18:22:48</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>110</v>
+      </c>
+      <c r="C229" t="n">
+        <v>54</v>
+      </c>
+      <c r="D229" t="n">
+        <v>10</v>
+      </c>
+      <c r="E229" t="n">
+        <v>9</v>
+      </c>
+      <c r="F229" t="n">
+        <v>23</v>
+      </c>
+      <c r="G229" t="n">
+        <v>22</v>
+      </c>
+      <c r="H229" t="n">
+        <v>35</v>
+      </c>
+      <c r="I229" t="n">
+        <v>24</v>
+      </c>
+      <c r="J229" t="n">
+        <v>16</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N229" t="n">
+        <v>50</v>
+      </c>
+      <c r="O229" t="n">
+        <v>512</v>
+      </c>
+      <c r="P229" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2023-09-14 20:03:18</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>74</v>
+      </c>
+      <c r="C230" t="n">
+        <v>60</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4</v>
+      </c>
+      <c r="E230" t="n">
+        <v>7</v>
+      </c>
+      <c r="F230" t="n">
+        <v>23</v>
+      </c>
+      <c r="G230" t="n">
+        <v>30</v>
+      </c>
+      <c r="H230" t="n">
+        <v>25</v>
+      </c>
+      <c r="I230" t="n">
+        <v>8</v>
+      </c>
+      <c r="J230" t="n">
+        <v>8</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N230" t="n">
+        <v>50</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P230" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2023-09-14 20:03:21</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>74</v>
+      </c>
+      <c r="C231" t="n">
+        <v>60</v>
+      </c>
+      <c r="D231" t="n">
+        <v>4</v>
+      </c>
+      <c r="E231" t="n">
+        <v>7</v>
+      </c>
+      <c r="F231" t="n">
+        <v>23</v>
+      </c>
+      <c r="G231" t="n">
+        <v>30</v>
+      </c>
+      <c r="H231" t="n">
+        <v>25</v>
+      </c>
+      <c r="I231" t="n">
+        <v>8</v>
+      </c>
+      <c r="J231" t="n">
+        <v>8</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N231" t="n">
+        <v>50</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P231" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2023-09-16 10:33:26</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>39</v>
+      </c>
+      <c r="C232" t="n">
+        <v>21</v>
+      </c>
+      <c r="D232" t="n">
+        <v>5</v>
+      </c>
+      <c r="E232" t="n">
+        <v>5</v>
+      </c>
+      <c r="F232" t="n">
+        <v>9</v>
+      </c>
+      <c r="G232" t="n">
+        <v>12</v>
+      </c>
+      <c r="H232" t="n">
+        <v>11</v>
+      </c>
+      <c r="I232" t="n">
+        <v>12</v>
+      </c>
+      <c r="J232" t="n">
+        <v>11</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N232" t="n">
+        <v>50</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P232" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2023-09-16 10:41:31</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>40</v>
+      </c>
+      <c r="C233" t="n">
+        <v>14</v>
+      </c>
+      <c r="D233" t="n">
+        <v>8</v>
+      </c>
+      <c r="E233" t="n">
+        <v>7</v>
+      </c>
+      <c r="F233" t="n">
+        <v>4</v>
+      </c>
+      <c r="G233" t="n">
+        <v>6</v>
+      </c>
+      <c r="H233" t="n">
+        <v>21</v>
+      </c>
+      <c r="I233" t="n">
+        <v>27</v>
+      </c>
+      <c r="J233" t="n">
+        <v>16</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N233" t="n">
+        <v>50</v>
+      </c>
+      <c r="O233" t="n">
+        <v>512</v>
+      </c>
+      <c r="P233" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2023-09-16 10:41:37</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>40</v>
+      </c>
+      <c r="C234" t="n">
+        <v>21</v>
+      </c>
+      <c r="D234" t="n">
+        <v>6</v>
+      </c>
+      <c r="E234" t="n">
+        <v>3</v>
+      </c>
+      <c r="F234" t="n">
+        <v>12</v>
+      </c>
+      <c r="G234" t="n">
+        <v>10</v>
+      </c>
+      <c r="H234" t="n">
+        <v>22</v>
+      </c>
+      <c r="I234" t="n">
+        <v>15</v>
+      </c>
+      <c r="J234" t="n">
+        <v>11</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N234" t="n">
+        <v>50</v>
+      </c>
+      <c r="O234" t="n">
+        <v>512</v>
+      </c>
+      <c r="P234" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2023-09-16 10:41:53</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>130</v>
+      </c>
+      <c r="C235" t="n">
+        <v>69</v>
+      </c>
+      <c r="D235" t="n">
+        <v>6</v>
+      </c>
+      <c r="E235" t="n">
+        <v>17</v>
+      </c>
+      <c r="F235" t="n">
+        <v>36</v>
+      </c>
+      <c r="G235" t="n">
+        <v>29</v>
+      </c>
+      <c r="H235" t="n">
+        <v>18</v>
+      </c>
+      <c r="I235" t="n">
+        <v>11</v>
+      </c>
+      <c r="J235" t="n">
+        <v>14</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N235" t="n">
+        <v>50</v>
+      </c>
+      <c r="O235" t="n">
+        <v>512</v>
+      </c>
+      <c r="P235" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>2023-09-16 10:42:09</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>120</v>
+      </c>
+      <c r="C236" t="n">
+        <v>60</v>
+      </c>
+      <c r="D236" t="n">
+        <v>8</v>
+      </c>
+      <c r="E236" t="n">
+        <v>10</v>
+      </c>
+      <c r="F236" t="n">
+        <v>39</v>
+      </c>
+      <c r="G236" t="n">
+        <v>27</v>
+      </c>
+      <c r="H236" t="n">
+        <v>29</v>
+      </c>
+      <c r="I236" t="n">
+        <v>9</v>
+      </c>
+      <c r="J236" t="n">
+        <v>20</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N236" t="n">
+        <v>50</v>
+      </c>
+      <c r="O236" t="n">
+        <v>512</v>
+      </c>
+      <c r="P236" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2023-09-16 10:42:25</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>118</v>
+      </c>
+      <c r="C237" t="n">
+        <v>46</v>
+      </c>
+      <c r="D237" t="n">
+        <v>12</v>
+      </c>
+      <c r="E237" t="n">
+        <v>10</v>
+      </c>
+      <c r="F237" t="n">
+        <v>22</v>
+      </c>
+      <c r="G237" t="n">
+        <v>22</v>
+      </c>
+      <c r="H237" t="n">
+        <v>19</v>
+      </c>
+      <c r="I237" t="n">
+        <v>20</v>
+      </c>
+      <c r="J237" t="n">
+        <v>23</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N237" t="n">
+        <v>50</v>
+      </c>
+      <c r="O237" t="n">
+        <v>512</v>
+      </c>
+      <c r="P237" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2023-09-16 10:42:45</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>110</v>
+      </c>
+      <c r="C238" t="n">
+        <v>57</v>
+      </c>
+      <c r="D238" t="n">
+        <v>9</v>
+      </c>
+      <c r="E238" t="n">
+        <v>10</v>
+      </c>
+      <c r="F238" t="n">
+        <v>31</v>
+      </c>
+      <c r="G238" t="n">
+        <v>24</v>
+      </c>
+      <c r="H238" t="n">
+        <v>20</v>
+      </c>
+      <c r="I238" t="n">
+        <v>17</v>
+      </c>
+      <c r="J238" t="n">
+        <v>13</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N238" t="n">
+        <v>50</v>
+      </c>
+      <c r="O238" t="n">
+        <v>512</v>
+      </c>
+      <c r="P238" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2023-09-16 10:52:47</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>74</v>
+      </c>
+      <c r="C239" t="n">
+        <v>64</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2</v>
+      </c>
+      <c r="E239" t="n">
+        <v>50</v>
+      </c>
+      <c r="F239" t="n">
+        <v>15</v>
+      </c>
+      <c r="G239" t="n">
+        <v>21</v>
+      </c>
+      <c r="H239" t="n">
+        <v>9</v>
+      </c>
+      <c r="I239" t="n">
+        <v>11</v>
+      </c>
+      <c r="J239" t="n">
+        <v>9</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N239" t="n">
+        <v>50</v>
+      </c>
+      <c r="O239" t="n">
+        <v>512</v>
+      </c>
+      <c r="P239" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2023-09-16 10:52:54</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>39</v>
+      </c>
+      <c r="C240" t="n">
+        <v>21</v>
+      </c>
+      <c r="D240" t="n">
+        <v>5</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4</v>
+      </c>
+      <c r="F240" t="n">
+        <v>10</v>
+      </c>
+      <c r="G240" t="n">
+        <v>13</v>
+      </c>
+      <c r="H240" t="n">
+        <v>21</v>
+      </c>
+      <c r="I240" t="n">
+        <v>9</v>
+      </c>
+      <c r="J240" t="n">
+        <v>5</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N240" t="n">
+        <v>50</v>
+      </c>
+      <c r="O240" t="n">
+        <v>512</v>
+      </c>
+      <c r="P240" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2023-09-16 10:59:56</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>74</v>
+      </c>
+      <c r="C241" t="n">
+        <v>62</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2</v>
+      </c>
+      <c r="E241" t="n">
+        <v>31</v>
+      </c>
+      <c r="F241" t="n">
+        <v>27</v>
+      </c>
+      <c r="G241" t="n">
+        <v>25</v>
+      </c>
+      <c r="H241" t="n">
+        <v>12</v>
+      </c>
+      <c r="I241" t="n">
+        <v>9</v>
+      </c>
+      <c r="J241" t="n">
+        <v>12</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N241" t="n">
+        <v>50</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P241" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2023-09-16 11:00:02</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>39</v>
+      </c>
+      <c r="C242" t="n">
+        <v>31</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2</v>
+      </c>
+      <c r="E242" t="n">
+        <v>6</v>
+      </c>
+      <c r="F242" t="n">
+        <v>17</v>
+      </c>
+      <c r="G242" t="n">
+        <v>18</v>
+      </c>
+      <c r="H242" t="n">
+        <v>18</v>
+      </c>
+      <c r="I242" t="n">
+        <v>8</v>
+      </c>
+      <c r="J242" t="n">
+        <v>5</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N242" t="n">
+        <v>50</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P242" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2023-09-16 11:08:39</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>74</v>
+      </c>
+      <c r="C243" t="n">
+        <v>67</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2</v>
+      </c>
+      <c r="E243" t="n">
+        <v>46</v>
+      </c>
+      <c r="F243" t="n">
+        <v>33</v>
+      </c>
+      <c r="G243" t="n">
+        <v>31</v>
+      </c>
+      <c r="H243" t="n">
+        <v>6</v>
+      </c>
+      <c r="I243" t="n">
+        <v>6</v>
+      </c>
+      <c r="J243" t="n">
+        <v>9</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N243" t="n">
+        <v>50</v>
+      </c>
+      <c r="O243" t="n">
+        <v>512</v>
+      </c>
+      <c r="P243" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2023-09-16 11:08:45</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>39</v>
+      </c>
+      <c r="C244" t="n">
+        <v>28</v>
+      </c>
+      <c r="D244" t="n">
+        <v>6</v>
+      </c>
+      <c r="E244" t="n">
+        <v>8</v>
+      </c>
+      <c r="F244" t="n">
+        <v>16</v>
+      </c>
+      <c r="G244" t="n">
+        <v>16</v>
+      </c>
+      <c r="H244" t="n">
+        <v>15</v>
+      </c>
+      <c r="I244" t="n">
+        <v>7</v>
+      </c>
+      <c r="J244" t="n">
+        <v>6</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N244" t="n">
+        <v>50</v>
+      </c>
+      <c r="O244" t="n">
+        <v>512</v>
+      </c>
+      <c r="P244" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2023-09-16 11:21:20</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>74</v>
+      </c>
+      <c r="C245" t="n">
+        <v>65</v>
+      </c>
+      <c r="D245" t="n">
+        <v>2</v>
+      </c>
+      <c r="E245" t="n">
+        <v>48</v>
+      </c>
+      <c r="F245" t="n">
+        <v>15</v>
+      </c>
+      <c r="G245" t="n">
+        <v>21</v>
+      </c>
+      <c r="H245" t="n">
+        <v>7</v>
+      </c>
+      <c r="I245" t="n">
+        <v>15</v>
+      </c>
+      <c r="J245" t="n">
+        <v>8</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N245" t="n">
+        <v>50</v>
+      </c>
+      <c r="O245" t="n">
+        <v>512</v>
+      </c>
+      <c r="P245" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2023-09-16 11:21:26</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>39</v>
+      </c>
+      <c r="C246" t="n">
+        <v>20</v>
+      </c>
+      <c r="D246" t="n">
+        <v>5</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2</v>
+      </c>
+      <c r="F246" t="n">
+        <v>10</v>
+      </c>
+      <c r="G246" t="n">
+        <v>14</v>
+      </c>
+      <c r="H246" t="n">
+        <v>29</v>
+      </c>
+      <c r="I246" t="n">
+        <v>13</v>
+      </c>
+      <c r="J246" t="n">
+        <v>7</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N246" t="n">
+        <v>50</v>
+      </c>
+      <c r="O246" t="n">
+        <v>512</v>
+      </c>
+      <c r="P246" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2023-09-16 12:18:23</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>74</v>
+      </c>
+      <c r="C247" t="n">
+        <v>69</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>54</v>
+      </c>
+      <c r="F247" t="n">
+        <v>29</v>
+      </c>
+      <c r="G247" t="n">
+        <v>31</v>
+      </c>
+      <c r="H247" t="n">
+        <v>7</v>
+      </c>
+      <c r="I247" t="n">
+        <v>9</v>
+      </c>
+      <c r="J247" t="n">
+        <v>6</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N247" t="n">
+        <v>50</v>
+      </c>
+      <c r="O247" t="n">
+        <v>512</v>
+      </c>
+      <c r="P247" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2023-09-16 12:18:30</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>39</v>
+      </c>
+      <c r="C248" t="n">
+        <v>32</v>
+      </c>
+      <c r="D248" t="n">
+        <v>5</v>
+      </c>
+      <c r="E248" t="n">
+        <v>5</v>
+      </c>
+      <c r="F248" t="n">
+        <v>25</v>
+      </c>
+      <c r="G248" t="n">
+        <v>22</v>
+      </c>
+      <c r="H248" t="n">
+        <v>14</v>
+      </c>
+      <c r="I248" t="n">
+        <v>5</v>
+      </c>
+      <c r="J248" t="n">
+        <v>10</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N248" t="n">
+        <v>50</v>
+      </c>
+      <c r="O248" t="n">
+        <v>512</v>
+      </c>
+      <c r="P248" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2023-09-16 12:24:24</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>74</v>
+      </c>
+      <c r="C249" t="n">
+        <v>48</v>
+      </c>
+      <c r="D249" t="n">
+        <v>6</v>
+      </c>
+      <c r="E249" t="n">
+        <v>35</v>
+      </c>
+      <c r="F249" t="n">
+        <v>12</v>
+      </c>
+      <c r="G249" t="n">
+        <v>14</v>
+      </c>
+      <c r="H249" t="n">
+        <v>10</v>
+      </c>
+      <c r="I249" t="n">
+        <v>21</v>
+      </c>
+      <c r="J249" t="n">
+        <v>13</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N249" t="n">
+        <v>50</v>
+      </c>
+      <c r="O249" t="n">
+        <v>512</v>
+      </c>
+      <c r="P249" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2023-09-16 12:24:30</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>39</v>
+      </c>
+      <c r="C250" t="n">
+        <v>18</v>
+      </c>
+      <c r="D250" t="n">
+        <v>7</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4</v>
+      </c>
+      <c r="F250" t="n">
+        <v>9</v>
+      </c>
+      <c r="G250" t="n">
+        <v>11</v>
+      </c>
+      <c r="H250" t="n">
+        <v>28</v>
+      </c>
+      <c r="I250" t="n">
+        <v>18</v>
+      </c>
+      <c r="J250" t="n">
+        <v>7</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N250" t="n">
+        <v>50</v>
+      </c>
+      <c r="O250" t="n">
+        <v>512</v>
+      </c>
+      <c r="P250" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2023-09-16 12:38:18</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>74</v>
+      </c>
+      <c r="C251" t="n">
+        <v>16</v>
+      </c>
+      <c r="D251" t="n">
+        <v>12</v>
+      </c>
+      <c r="E251" t="n">
+        <v>11</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2</v>
+      </c>
+      <c r="G251" t="n">
+        <v>3</v>
+      </c>
+      <c r="H251" t="n">
+        <v>21</v>
+      </c>
+      <c r="I251" t="n">
+        <v>47</v>
+      </c>
+      <c r="J251" t="n">
+        <v>45</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N251" t="n">
+        <v>50</v>
+      </c>
+      <c r="O251" t="n">
+        <v>512</v>
+      </c>
+      <c r="P251" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2023-09-16 12:38:28</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>39</v>
+      </c>
+      <c r="C252" t="n">
+        <v>5</v>
+      </c>
+      <c r="D252" t="n">
+        <v>14</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1</v>
+      </c>
+      <c r="F252" t="n">
+        <v>4</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>33</v>
+      </c>
+      <c r="I252" t="n">
+        <v>24</v>
+      </c>
+      <c r="J252" t="n">
+        <v>49</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N252" t="n">
+        <v>50</v>
+      </c>
+      <c r="O252" t="n">
+        <v>512</v>
+      </c>
+      <c r="P252" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2023-09-16 12:43:44</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>74</v>
+      </c>
+      <c r="C253" t="n">
+        <v>35</v>
+      </c>
+      <c r="D253" t="n">
+        <v>8</v>
+      </c>
+      <c r="E253" t="n">
+        <v>27</v>
+      </c>
+      <c r="F253" t="n">
+        <v>3</v>
+      </c>
+      <c r="G253" t="n">
+        <v>5</v>
+      </c>
+      <c r="H253" t="n">
+        <v>9</v>
+      </c>
+      <c r="I253" t="n">
+        <v>46</v>
+      </c>
+      <c r="J253" t="n">
+        <v>27</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N253" t="n">
+        <v>50</v>
+      </c>
+      <c r="O253" t="n">
+        <v>512</v>
+      </c>
+      <c r="P253" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2023-09-16 12:43:51</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>39</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4</v>
+      </c>
+      <c r="D254" t="n">
+        <v>18</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2</v>
+      </c>
+      <c r="G254" t="n">
+        <v>2</v>
+      </c>
+      <c r="H254" t="n">
+        <v>49</v>
+      </c>
+      <c r="I254" t="n">
+        <v>26</v>
+      </c>
+      <c r="J254" t="n">
+        <v>30</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N254" t="n">
+        <v>50</v>
+      </c>
+      <c r="O254" t="n">
+        <v>512</v>
+      </c>
+      <c r="P254" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2023-09-16 12:53:34</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>75</v>
+      </c>
+      <c r="C255" t="n">
+        <v>43</v>
+      </c>
+      <c r="D255" t="n">
+        <v>5</v>
+      </c>
+      <c r="E255" t="n">
+        <v>27</v>
+      </c>
+      <c r="F255" t="n">
+        <v>11</v>
+      </c>
+      <c r="G255" t="n">
+        <v>9</v>
+      </c>
+      <c r="H255" t="n">
+        <v>9</v>
+      </c>
+      <c r="I255" t="n">
+        <v>18</v>
+      </c>
+      <c r="J255" t="n">
+        <v>36</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N255" t="n">
+        <v>50</v>
+      </c>
+      <c r="O255" t="n">
+        <v>512</v>
+      </c>
+      <c r="P255" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2023-09-16 12:53:40</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>39</v>
+      </c>
+      <c r="C256" t="n">
+        <v>14</v>
+      </c>
+      <c r="D256" t="n">
+        <v>6</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2</v>
+      </c>
+      <c r="F256" t="n">
+        <v>7</v>
+      </c>
+      <c r="G256" t="n">
+        <v>7</v>
+      </c>
+      <c r="H256" t="n">
+        <v>37</v>
+      </c>
+      <c r="I256" t="n">
+        <v>24</v>
+      </c>
+      <c r="J256" t="n">
+        <v>12</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N256" t="n">
+        <v>50</v>
+      </c>
+      <c r="O256" t="n">
+        <v>512</v>
+      </c>
+      <c r="P256" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2023-09-16 13:29:08</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>75</v>
+      </c>
+      <c r="C257" t="n">
+        <v>39</v>
+      </c>
+      <c r="D257" t="n">
+        <v>5</v>
+      </c>
+      <c r="E257" t="n">
+        <v>27</v>
+      </c>
+      <c r="F257" t="n">
+        <v>7</v>
+      </c>
+      <c r="G257" t="n">
+        <v>8</v>
+      </c>
+      <c r="H257" t="n">
+        <v>7</v>
+      </c>
+      <c r="I257" t="n">
+        <v>37</v>
+      </c>
+      <c r="J257" t="n">
+        <v>34</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N257" t="n">
+        <v>50</v>
+      </c>
+      <c r="O257" t="n">
+        <v>512</v>
+      </c>
+      <c r="P257" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2023-09-16 13:29:14</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>39</v>
+      </c>
+      <c r="C258" t="n">
+        <v>15</v>
+      </c>
+      <c r="D258" t="n">
+        <v>7</v>
+      </c>
+      <c r="E258" t="n">
+        <v>4</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2</v>
+      </c>
+      <c r="G258" t="n">
+        <v>10</v>
+      </c>
+      <c r="H258" t="n">
+        <v>25</v>
+      </c>
+      <c r="I258" t="n">
+        <v>26</v>
+      </c>
+      <c r="J258" t="n">
+        <v>9</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N258" t="n">
+        <v>50</v>
+      </c>
+      <c r="O258" t="n">
+        <v>512</v>
+      </c>
+      <c r="P258" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2023-09-16 13:36:34</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>75</v>
+      </c>
+      <c r="C259" t="n">
+        <v>32</v>
+      </c>
+      <c r="D259" t="n">
+        <v>6</v>
+      </c>
+      <c r="E259" t="n">
+        <v>15</v>
+      </c>
+      <c r="F259" t="n">
+        <v>8</v>
+      </c>
+      <c r="G259" t="n">
+        <v>10</v>
+      </c>
+      <c r="H259" t="n">
+        <v>14</v>
+      </c>
+      <c r="I259" t="n">
+        <v>26</v>
+      </c>
+      <c r="J259" t="n">
+        <v>32</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N259" t="n">
+        <v>50</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P259" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2023-09-16 13:36:40</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>39</v>
+      </c>
+      <c r="C260" t="n">
+        <v>16</v>
+      </c>
+      <c r="D260" t="n">
+        <v>7</v>
+      </c>
+      <c r="E260" t="n">
+        <v>3</v>
+      </c>
+      <c r="F260" t="n">
+        <v>7</v>
+      </c>
+      <c r="G260" t="n">
+        <v>7</v>
+      </c>
+      <c r="H260" t="n">
+        <v>26</v>
+      </c>
+      <c r="I260" t="n">
+        <v>26</v>
+      </c>
+      <c r="J260" t="n">
+        <v>13</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N260" t="n">
+        <v>50</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1024</v>
+      </c>
+      <c r="P260" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2023-09-16 13:50:58</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>75</v>
+      </c>
+      <c r="C261" t="n">
+        <v>52</v>
+      </c>
+      <c r="D261" t="n">
+        <v>4</v>
+      </c>
+      <c r="E261" t="n">
+        <v>41</v>
+      </c>
+      <c r="F261" t="n">
+        <v>9</v>
+      </c>
+      <c r="G261" t="n">
+        <v>8</v>
+      </c>
+      <c r="H261" t="n">
+        <v>11</v>
+      </c>
+      <c r="I261" t="n">
+        <v>30</v>
+      </c>
+      <c r="J261" t="n">
+        <v>17</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N261" t="n">
+        <v>50</v>
+      </c>
+      <c r="O261" t="n">
+        <v>256</v>
+      </c>
+      <c r="P261" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2023-09-16 13:56:56</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>75</v>
+      </c>
+      <c r="C262" t="n">
+        <v>38</v>
+      </c>
+      <c r="D262" t="n">
+        <v>10</v>
+      </c>
+      <c r="E262" t="n">
+        <v>22</v>
+      </c>
+      <c r="F262" t="n">
+        <v>9</v>
+      </c>
+      <c r="G262" t="n">
+        <v>10</v>
+      </c>
+      <c r="H262" t="n">
+        <v>12</v>
+      </c>
+      <c r="I262" t="n">
+        <v>20</v>
+      </c>
+      <c r="J262" t="n">
+        <v>19</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N262" t="n">
+        <v>50</v>
+      </c>
+      <c r="O262" t="n">
+        <v>256</v>
+      </c>
+      <c r="P262" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2023-09-16 13:57:03</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>39</v>
+      </c>
+      <c r="C263" t="n">
+        <v>13</v>
+      </c>
+      <c r="D263" t="n">
+        <v>6</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>7</v>
+      </c>
+      <c r="G263" t="n">
+        <v>7</v>
+      </c>
+      <c r="H263" t="n">
+        <v>25</v>
+      </c>
+      <c r="I263" t="n">
+        <v>13</v>
+      </c>
+      <c r="J263" t="n">
+        <v>16</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N263" t="n">
+        <v>50</v>
+      </c>
+      <c r="O263" t="n">
+        <v>256</v>
+      </c>
+      <c r="P263" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q263"/>
+  <dimension ref="A1:R265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>Nros Anteriores</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Efectividad</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -572,6 +577,7 @@
         <v>4</v>
       </c>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -625,6 +631,7 @@
         <v>4</v>
       </c>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -678,6 +685,7 @@
         <v>4</v>
       </c>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -731,6 +739,7 @@
         <v>4</v>
       </c>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -784,6 +793,7 @@
         <v>4</v>
       </c>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -837,6 +847,7 @@
         <v>4</v>
       </c>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -890,6 +901,7 @@
         <v>3</v>
       </c>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -943,6 +955,7 @@
         <v>3</v>
       </c>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -996,6 +1009,7 @@
         <v>3</v>
       </c>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1049,6 +1063,7 @@
         <v>3</v>
       </c>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1102,6 +1117,7 @@
         <v>3</v>
       </c>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1155,6 +1171,7 @@
         <v>3</v>
       </c>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1208,6 +1225,7 @@
         <v>3</v>
       </c>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1261,6 +1279,7 @@
         <v>3</v>
       </c>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1314,6 +1333,7 @@
         <v>3</v>
       </c>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1367,6 +1387,7 @@
         <v>3</v>
       </c>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1420,6 +1441,7 @@
         <v>3</v>
       </c>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1473,6 +1495,7 @@
         <v>3</v>
       </c>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1526,6 +1549,7 @@
         <v>3</v>
       </c>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1579,6 +1603,7 @@
         <v>3</v>
       </c>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1632,6 +1657,7 @@
         <v>3</v>
       </c>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1685,6 +1711,7 @@
         <v>3</v>
       </c>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1738,6 +1765,7 @@
         <v>3</v>
       </c>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1791,6 +1819,7 @@
         <v>3</v>
       </c>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1873,7 @@
         <v>3</v>
       </c>
       <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1897,6 +1927,7 @@
         <v>3</v>
       </c>
       <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1950,6 +1981,7 @@
         <v>3</v>
       </c>
       <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2003,6 +2035,7 @@
         <v>3</v>
       </c>
       <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2056,6 +2089,7 @@
         <v>3</v>
       </c>
       <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2109,6 +2143,7 @@
         <v>3</v>
       </c>
       <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2162,6 +2197,7 @@
         <v>3</v>
       </c>
       <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2215,6 +2251,7 @@
         <v>3</v>
       </c>
       <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2268,6 +2305,7 @@
         <v>3</v>
       </c>
       <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2321,6 +2359,7 @@
         <v>3</v>
       </c>
       <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2374,6 +2413,7 @@
         <v>3</v>
       </c>
       <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2427,6 +2467,7 @@
         <v>3</v>
       </c>
       <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2480,6 +2521,7 @@
         <v>3</v>
       </c>
       <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2533,6 +2575,7 @@
         <v>3</v>
       </c>
       <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2586,6 +2629,7 @@
         <v>3</v>
       </c>
       <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2639,6 +2683,7 @@
         <v>3</v>
       </c>
       <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2692,6 +2737,7 @@
         <v>3</v>
       </c>
       <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2745,6 +2791,7 @@
         <v>3</v>
       </c>
       <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2798,6 +2845,7 @@
         <v>3</v>
       </c>
       <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2851,6 +2899,7 @@
         <v>3</v>
       </c>
       <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2904,6 +2953,7 @@
         <v>3</v>
       </c>
       <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2957,6 +3007,7 @@
         <v>3</v>
       </c>
       <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3010,6 +3061,7 @@
         <v>3</v>
       </c>
       <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3063,6 +3115,7 @@
         <v>3</v>
       </c>
       <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3116,6 +3169,7 @@
         <v>3</v>
       </c>
       <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3169,6 +3223,7 @@
         <v>3</v>
       </c>
       <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3222,6 +3277,7 @@
         <v>3</v>
       </c>
       <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3275,6 +3331,7 @@
         <v>3</v>
       </c>
       <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3328,6 +3385,7 @@
         <v>3</v>
       </c>
       <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3381,6 +3439,7 @@
         <v>3</v>
       </c>
       <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3434,6 +3493,7 @@
         <v>3</v>
       </c>
       <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3487,6 +3547,7 @@
         <v>3</v>
       </c>
       <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3540,6 +3601,7 @@
         <v>3</v>
       </c>
       <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3593,6 +3655,7 @@
         <v>3</v>
       </c>
       <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3646,6 +3709,7 @@
         <v>3</v>
       </c>
       <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3699,6 +3763,7 @@
         <v>3</v>
       </c>
       <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3752,6 +3817,7 @@
         <v>3</v>
       </c>
       <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3805,6 +3871,7 @@
         <v>3</v>
       </c>
       <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3858,6 +3925,7 @@
         <v>3</v>
       </c>
       <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3911,6 +3979,7 @@
         <v>3</v>
       </c>
       <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3964,6 +4033,7 @@
         <v>3</v>
       </c>
       <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4017,6 +4087,7 @@
         <v>3</v>
       </c>
       <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4070,6 +4141,7 @@
         <v>3</v>
       </c>
       <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4123,6 +4195,7 @@
         <v>3</v>
       </c>
       <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4176,6 +4249,7 @@
         <v>3</v>
       </c>
       <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4229,6 +4303,7 @@
         <v>3</v>
       </c>
       <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4282,6 +4357,7 @@
         <v>3</v>
       </c>
       <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4335,6 +4411,7 @@
         <v>3</v>
       </c>
       <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4388,6 +4465,7 @@
         <v>3</v>
       </c>
       <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4441,6 +4519,7 @@
         <v>3</v>
       </c>
       <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4494,6 +4573,7 @@
         <v>3</v>
       </c>
       <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4547,6 +4627,7 @@
         <v>3</v>
       </c>
       <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4600,6 +4681,7 @@
         <v>5</v>
       </c>
       <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4653,6 +4735,7 @@
         <v>5</v>
       </c>
       <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4706,6 +4789,7 @@
         <v>5</v>
       </c>
       <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4759,6 +4843,7 @@
         <v>5</v>
       </c>
       <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4812,6 +4897,7 @@
         <v>5</v>
       </c>
       <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4865,6 +4951,7 @@
         <v>5</v>
       </c>
       <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4918,6 +5005,7 @@
         <v>4</v>
       </c>
       <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4971,6 +5059,7 @@
         <v>4</v>
       </c>
       <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5024,6 +5113,7 @@
         <v>4</v>
       </c>
       <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5077,6 +5167,7 @@
         <v>4</v>
       </c>
       <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5130,6 +5221,7 @@
         <v>4</v>
       </c>
       <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5183,6 +5275,7 @@
         <v>4</v>
       </c>
       <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5236,6 +5329,7 @@
         <v>4</v>
       </c>
       <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5289,6 +5383,7 @@
         <v>4</v>
       </c>
       <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5342,6 +5437,7 @@
         <v>4</v>
       </c>
       <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5395,6 +5491,7 @@
         <v>4</v>
       </c>
       <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5448,6 +5545,7 @@
         <v>4</v>
       </c>
       <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5501,6 +5599,7 @@
         <v>4</v>
       </c>
       <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5554,6 +5653,7 @@
         <v>4</v>
       </c>
       <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5607,6 +5707,7 @@
         <v>4</v>
       </c>
       <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5660,6 +5761,7 @@
         <v>4</v>
       </c>
       <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5713,6 +5815,7 @@
         <v>4</v>
       </c>
       <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5766,6 +5869,7 @@
         <v>4</v>
       </c>
       <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5819,6 +5923,7 @@
         <v>4</v>
       </c>
       <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5872,6 +5977,7 @@
         <v>3</v>
       </c>
       <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5925,6 +6031,7 @@
         <v>3</v>
       </c>
       <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5978,6 +6085,7 @@
         <v>3</v>
       </c>
       <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6031,6 +6139,7 @@
         <v>3</v>
       </c>
       <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6084,6 +6193,7 @@
         <v>3</v>
       </c>
       <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6137,6 +6247,7 @@
         <v>3</v>
       </c>
       <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6190,6 +6301,7 @@
         <v>4</v>
       </c>
       <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6243,6 +6355,7 @@
         <v>4</v>
       </c>
       <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6296,6 +6409,7 @@
         <v>4</v>
       </c>
       <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6349,6 +6463,7 @@
         <v>4</v>
       </c>
       <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6402,6 +6517,7 @@
         <v>4</v>
       </c>
       <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6455,6 +6571,7 @@
         <v>4</v>
       </c>
       <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6508,6 +6625,7 @@
         <v>4</v>
       </c>
       <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6561,6 +6679,7 @@
         <v>4</v>
       </c>
       <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6614,6 +6733,7 @@
         <v>10</v>
       </c>
       <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6667,6 +6787,7 @@
         <v>10</v>
       </c>
       <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6720,6 +6841,7 @@
         <v>10</v>
       </c>
       <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6773,6 +6895,7 @@
         <v>6</v>
       </c>
       <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6826,6 +6949,7 @@
         <v>6</v>
       </c>
       <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6879,6 +7003,7 @@
         <v>6</v>
       </c>
       <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6932,6 +7057,7 @@
         <v>6</v>
       </c>
       <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6985,6 +7111,7 @@
         <v>6</v>
       </c>
       <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7038,6 +7165,7 @@
         <v>6</v>
       </c>
       <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7091,6 +7219,7 @@
         <v>6</v>
       </c>
       <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7144,6 +7273,7 @@
         <v>6</v>
       </c>
       <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7197,6 +7327,7 @@
         <v>6</v>
       </c>
       <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7250,6 +7381,7 @@
         <v>6</v>
       </c>
       <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7303,6 +7435,7 @@
         <v>6</v>
       </c>
       <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7356,6 +7489,7 @@
         <v>6</v>
       </c>
       <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7409,6 +7543,7 @@
         <v>12</v>
       </c>
       <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7462,6 +7597,7 @@
         <v>12</v>
       </c>
       <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7515,6 +7651,7 @@
         <v>12</v>
       </c>
       <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7568,6 +7705,7 @@
         <v>12</v>
       </c>
       <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7621,6 +7759,7 @@
         <v>12</v>
       </c>
       <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7674,6 +7813,7 @@
         <v>12</v>
       </c>
       <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7727,6 +7867,7 @@
         <v>12</v>
       </c>
       <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7780,6 +7921,7 @@
         <v>12</v>
       </c>
       <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7833,6 +7975,7 @@
         <v>12</v>
       </c>
       <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7886,6 +8029,7 @@
         <v>6</v>
       </c>
       <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7939,6 +8083,7 @@
         <v>6</v>
       </c>
       <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7992,6 +8137,7 @@
         <v>6</v>
       </c>
       <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8047,6 +8193,7 @@
       <c r="Q143" t="n">
         <v>3</v>
       </c>
+      <c r="R143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -8102,6 +8249,7 @@
       <c r="Q144" t="n">
         <v>3</v>
       </c>
+      <c r="R144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -8157,6 +8305,7 @@
       <c r="Q145" t="n">
         <v>3</v>
       </c>
+      <c r="R145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8212,6 +8361,7 @@
       <c r="Q146" t="n">
         <v>3</v>
       </c>
+      <c r="R146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8267,6 +8417,7 @@
       <c r="Q147" t="n">
         <v>3</v>
       </c>
+      <c r="R147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8322,6 +8473,7 @@
       <c r="Q148" t="n">
         <v>3</v>
       </c>
+      <c r="R148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8377,6 +8529,7 @@
       <c r="Q149" t="n">
         <v>5</v>
       </c>
+      <c r="R149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8432,6 +8585,7 @@
       <c r="Q150" t="n">
         <v>5</v>
       </c>
+      <c r="R150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8487,6 +8641,7 @@
       <c r="Q151" t="n">
         <v>5</v>
       </c>
+      <c r="R151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8542,6 +8697,7 @@
       <c r="Q152" t="n">
         <v>5</v>
       </c>
+      <c r="R152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8597,6 +8753,7 @@
       <c r="Q153" t="n">
         <v>5</v>
       </c>
+      <c r="R153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8652,6 +8809,7 @@
       <c r="Q154" t="n">
         <v>5</v>
       </c>
+      <c r="R154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8707,6 +8865,7 @@
       <c r="Q155" t="n">
         <v>2</v>
       </c>
+      <c r="R155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8762,6 +8921,7 @@
       <c r="Q156" t="n">
         <v>2</v>
       </c>
+      <c r="R156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8817,6 +8977,7 @@
       <c r="Q157" t="n">
         <v>2</v>
       </c>
+      <c r="R157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8872,6 +9033,7 @@
       <c r="Q158" t="n">
         <v>2</v>
       </c>
+      <c r="R158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8927,6 +9089,7 @@
       <c r="Q159" t="n">
         <v>2</v>
       </c>
+      <c r="R159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8982,6 +9145,7 @@
       <c r="Q160" t="n">
         <v>6</v>
       </c>
+      <c r="R160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9037,6 +9201,7 @@
       <c r="Q161" t="n">
         <v>6</v>
       </c>
+      <c r="R161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -9092,6 +9257,7 @@
       <c r="Q162" t="n">
         <v>6</v>
       </c>
+      <c r="R162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -9147,6 +9313,7 @@
       <c r="Q163" t="n">
         <v>6</v>
       </c>
+      <c r="R163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -9202,6 +9369,7 @@
       <c r="Q164" t="n">
         <v>6</v>
       </c>
+      <c r="R164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9257,6 +9425,7 @@
       <c r="Q165" t="n">
         <v>6</v>
       </c>
+      <c r="R165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9312,6 +9481,7 @@
       <c r="Q166" t="n">
         <v>6</v>
       </c>
+      <c r="R166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9367,6 +9537,7 @@
       <c r="Q167" t="n">
         <v>6</v>
       </c>
+      <c r="R167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9422,6 +9593,7 @@
       <c r="Q168" t="n">
         <v>6</v>
       </c>
+      <c r="R168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9475,6 +9647,7 @@
         <v>6</v>
       </c>
       <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9528,6 +9701,7 @@
         <v>6</v>
       </c>
       <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9583,6 +9757,7 @@
       <c r="Q171" t="n">
         <v>10</v>
       </c>
+      <c r="R171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9638,6 +9813,7 @@
       <c r="Q172" t="n">
         <v>10</v>
       </c>
+      <c r="R172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9693,6 +9869,7 @@
       <c r="Q173" t="n">
         <v>10</v>
       </c>
+      <c r="R173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9748,6 +9925,7 @@
       <c r="Q174" t="n">
         <v>10</v>
       </c>
+      <c r="R174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9803,6 +9981,7 @@
       <c r="Q175" t="n">
         <v>10</v>
       </c>
+      <c r="R175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9858,6 +10037,7 @@
       <c r="Q176" t="n">
         <v>10</v>
       </c>
+      <c r="R176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9913,6 +10093,7 @@
       <c r="Q177" t="n">
         <v>10</v>
       </c>
+      <c r="R177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9968,6 +10149,7 @@
       <c r="Q178" t="n">
         <v>10</v>
       </c>
+      <c r="R178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -10023,6 +10205,7 @@
       <c r="Q179" t="n">
         <v>10</v>
       </c>
+      <c r="R179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -10078,6 +10261,7 @@
       <c r="Q180" t="n">
         <v>10</v>
       </c>
+      <c r="R180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -10133,6 +10317,7 @@
       <c r="Q181" t="n">
         <v>10</v>
       </c>
+      <c r="R181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -10188,6 +10373,7 @@
       <c r="Q182" t="n">
         <v>10</v>
       </c>
+      <c r="R182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -10243,6 +10429,7 @@
       <c r="Q183" t="n">
         <v>6</v>
       </c>
+      <c r="R183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -10298,6 +10485,7 @@
       <c r="Q184" t="n">
         <v>6</v>
       </c>
+      <c r="R184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10353,6 +10541,7 @@
       <c r="Q185" t="n">
         <v>6</v>
       </c>
+      <c r="R185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10408,6 +10597,7 @@
       <c r="Q186" t="n">
         <v>6</v>
       </c>
+      <c r="R186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10463,6 +10653,7 @@
       <c r="Q187" t="n">
         <v>6</v>
       </c>
+      <c r="R187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10518,6 +10709,7 @@
       <c r="Q188" t="n">
         <v>6</v>
       </c>
+      <c r="R188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10573,6 +10765,7 @@
       <c r="Q189" t="n">
         <v>6</v>
       </c>
+      <c r="R189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10628,6 +10821,7 @@
       <c r="Q190" t="n">
         <v>6</v>
       </c>
+      <c r="R190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10683,6 +10877,7 @@
       <c r="Q191" t="n">
         <v>6</v>
       </c>
+      <c r="R191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10738,6 +10933,7 @@
       <c r="Q192" t="n">
         <v>6</v>
       </c>
+      <c r="R192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10793,6 +10989,7 @@
       <c r="Q193" t="n">
         <v>6</v>
       </c>
+      <c r="R193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10848,6 +11045,7 @@
       <c r="Q194" t="n">
         <v>6</v>
       </c>
+      <c r="R194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10903,6 +11101,7 @@
       <c r="Q195" t="n">
         <v>10</v>
       </c>
+      <c r="R195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10958,6 +11157,7 @@
       <c r="Q196" t="n">
         <v>10</v>
       </c>
+      <c r="R196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -11013,6 +11213,7 @@
       <c r="Q197" t="n">
         <v>10</v>
       </c>
+      <c r="R197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -11068,6 +11269,7 @@
       <c r="Q198" t="n">
         <v>10</v>
       </c>
+      <c r="R198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -11123,6 +11325,7 @@
       <c r="Q199" t="n">
         <v>10</v>
       </c>
+      <c r="R199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -11178,6 +11381,7 @@
       <c r="Q200" t="n">
         <v>10</v>
       </c>
+      <c r="R200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -11233,6 +11437,7 @@
       <c r="Q201" t="n">
         <v>10</v>
       </c>
+      <c r="R201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -11288,6 +11493,7 @@
       <c r="Q202" t="n">
         <v>10</v>
       </c>
+      <c r="R202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -11343,6 +11549,7 @@
       <c r="Q203" t="n">
         <v>10</v>
       </c>
+      <c r="R203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11398,6 +11605,7 @@
       <c r="Q204" t="n">
         <v>12</v>
       </c>
+      <c r="R204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11453,6 +11661,7 @@
       <c r="Q205" t="n">
         <v>12</v>
       </c>
+      <c r="R205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11508,6 +11717,7 @@
       <c r="Q206" t="n">
         <v>12</v>
       </c>
+      <c r="R206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11563,6 +11773,7 @@
       <c r="Q207" t="n">
         <v>7</v>
       </c>
+      <c r="R207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11618,6 +11829,7 @@
       <c r="Q208" t="n">
         <v>7</v>
       </c>
+      <c r="R208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11673,6 +11885,7 @@
       <c r="Q209" t="n">
         <v>7</v>
       </c>
+      <c r="R209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11728,6 +11941,7 @@
       <c r="Q210" t="n">
         <v>7</v>
       </c>
+      <c r="R210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11783,6 +11997,7 @@
       <c r="Q211" t="n">
         <v>7</v>
       </c>
+      <c r="R211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11838,6 +12053,7 @@
       <c r="Q212" t="n">
         <v>7</v>
       </c>
+      <c r="R212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11893,6 +12109,7 @@
       <c r="Q213" t="n">
         <v>7</v>
       </c>
+      <c r="R213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11948,6 +12165,7 @@
       <c r="Q214" t="n">
         <v>7</v>
       </c>
+      <c r="R214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12003,6 +12221,7 @@
       <c r="Q215" t="n">
         <v>7</v>
       </c>
+      <c r="R215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12058,6 +12277,7 @@
       <c r="Q216" t="n">
         <v>7</v>
       </c>
+      <c r="R216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12113,6 +12333,7 @@
       <c r="Q217" t="n">
         <v>7</v>
       </c>
+      <c r="R217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12168,6 +12389,7 @@
       <c r="Q218" t="n">
         <v>7</v>
       </c>
+      <c r="R218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12223,6 +12445,7 @@
       <c r="Q219" t="n">
         <v>7</v>
       </c>
+      <c r="R219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12278,6 +12501,7 @@
       <c r="Q220" t="n">
         <v>7</v>
       </c>
+      <c r="R220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12333,6 +12557,7 @@
       <c r="Q221" t="n">
         <v>7</v>
       </c>
+      <c r="R221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12388,6 +12613,7 @@
       <c r="Q222" t="n">
         <v>7</v>
       </c>
+      <c r="R222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12443,6 +12669,7 @@
       <c r="Q223" t="n">
         <v>7</v>
       </c>
+      <c r="R223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12498,6 +12725,7 @@
       <c r="Q224" t="n">
         <v>7</v>
       </c>
+      <c r="R224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12553,6 +12781,7 @@
       <c r="Q225" t="n">
         <v>7</v>
       </c>
+      <c r="R225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12608,6 +12837,7 @@
       <c r="Q226" t="n">
         <v>7</v>
       </c>
+      <c r="R226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12663,6 +12893,7 @@
       <c r="Q227" t="n">
         <v>7</v>
       </c>
+      <c r="R227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12718,6 +12949,7 @@
       <c r="Q228" t="n">
         <v>7</v>
       </c>
+      <c r="R228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12773,6 +13005,7 @@
       <c r="Q229" t="n">
         <v>7</v>
       </c>
+      <c r="R229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12828,6 +13061,7 @@
       <c r="Q230" t="n">
         <v>7</v>
       </c>
+      <c r="R230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12883,6 +13117,7 @@
       <c r="Q231" t="n">
         <v>7</v>
       </c>
+      <c r="R231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12936,6 +13171,7 @@
         <v>4</v>
       </c>
       <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12991,6 +13227,7 @@
       <c r="Q233" t="n">
         <v>7</v>
       </c>
+      <c r="R233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -13046,6 +13283,7 @@
       <c r="Q234" t="n">
         <v>7</v>
       </c>
+      <c r="R234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -13101,6 +13339,7 @@
       <c r="Q235" t="n">
         <v>7</v>
       </c>
+      <c r="R235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -13156,6 +13395,7 @@
       <c r="Q236" t="n">
         <v>7</v>
       </c>
+      <c r="R236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -13211,6 +13451,7 @@
       <c r="Q237" t="n">
         <v>7</v>
       </c>
+      <c r="R237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -13266,6 +13507,7 @@
       <c r="Q238" t="n">
         <v>7</v>
       </c>
+      <c r="R238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -13321,6 +13563,7 @@
       <c r="Q239" t="n">
         <v>7</v>
       </c>
+      <c r="R239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -13376,6 +13619,7 @@
       <c r="Q240" t="n">
         <v>7</v>
       </c>
+      <c r="R240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13431,6 +13675,7 @@
       <c r="Q241" t="n">
         <v>7</v>
       </c>
+      <c r="R241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13486,6 +13731,7 @@
       <c r="Q242" t="n">
         <v>7</v>
       </c>
+      <c r="R242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13541,6 +13787,7 @@
       <c r="Q243" t="n">
         <v>7</v>
       </c>
+      <c r="R243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13596,6 +13843,7 @@
       <c r="Q244" t="n">
         <v>7</v>
       </c>
+      <c r="R244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13651,6 +13899,7 @@
       <c r="Q245" t="n">
         <v>7</v>
       </c>
+      <c r="R245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13706,6 +13955,7 @@
       <c r="Q246" t="n">
         <v>7</v>
       </c>
+      <c r="R246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13761,6 +14011,7 @@
       <c r="Q247" t="n">
         <v>7</v>
       </c>
+      <c r="R247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13816,6 +14067,7 @@
       <c r="Q248" t="n">
         <v>7</v>
       </c>
+      <c r="R248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13871,6 +14123,7 @@
       <c r="Q249" t="n">
         <v>7</v>
       </c>
+      <c r="R249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13926,6 +14179,7 @@
       <c r="Q250" t="n">
         <v>7</v>
       </c>
+      <c r="R250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13981,6 +14235,7 @@
       <c r="Q251" t="n">
         <v>7</v>
       </c>
+      <c r="R251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -14036,6 +14291,7 @@
       <c r="Q252" t="n">
         <v>7</v>
       </c>
+      <c r="R252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -14091,6 +14347,7 @@
       <c r="Q253" t="n">
         <v>7</v>
       </c>
+      <c r="R253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -14146,6 +14403,7 @@
       <c r="Q254" t="n">
         <v>7</v>
       </c>
+      <c r="R254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -14201,6 +14459,7 @@
       <c r="Q255" t="n">
         <v>7</v>
       </c>
+      <c r="R255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -14256,6 +14515,7 @@
       <c r="Q256" t="n">
         <v>7</v>
       </c>
+      <c r="R256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -14311,6 +14571,7 @@
       <c r="Q257" t="n">
         <v>7</v>
       </c>
+      <c r="R257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -14366,6 +14627,7 @@
       <c r="Q258" t="n">
         <v>7</v>
       </c>
+      <c r="R258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -14421,6 +14683,7 @@
       <c r="Q259" t="n">
         <v>7</v>
       </c>
+      <c r="R259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -14476,6 +14739,7 @@
       <c r="Q260" t="n">
         <v>7</v>
       </c>
+      <c r="R260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -14531,6 +14795,7 @@
       <c r="Q261" t="n">
         <v>7</v>
       </c>
+      <c r="R261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14586,6 +14851,7 @@
       <c r="Q262" t="n">
         <v>7</v>
       </c>
+      <c r="R262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14640,6 +14906,123 @@
       </c>
       <c r="Q263" t="n">
         <v>7</v>
+      </c>
+      <c r="R263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2023-09-16 15:41:48</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>50</v>
+      </c>
+      <c r="C264" t="n">
+        <v>21</v>
+      </c>
+      <c r="D264" t="n">
+        <v>6</v>
+      </c>
+      <c r="E264" t="n">
+        <v>5</v>
+      </c>
+      <c r="F264" t="n">
+        <v>11</v>
+      </c>
+      <c r="G264" t="n">
+        <v>6</v>
+      </c>
+      <c r="H264" t="n">
+        <v>25</v>
+      </c>
+      <c r="I264" t="n">
+        <v>8</v>
+      </c>
+      <c r="J264" t="n">
+        <v>12</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N264" t="n">
+        <v>50</v>
+      </c>
+      <c r="O264" t="n">
+        <v>512</v>
+      </c>
+      <c r="P264" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>7</v>
+      </c>
+      <c r="R264" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2023-09-19 23:29:56</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>53</v>
+      </c>
+      <c r="C265" t="n">
+        <v>17</v>
+      </c>
+      <c r="D265" t="n">
+        <v>10</v>
+      </c>
+      <c r="E265" t="n">
+        <v>8</v>
+      </c>
+      <c r="F265" t="n">
+        <v>8</v>
+      </c>
+      <c r="G265" t="n">
+        <v>5</v>
+      </c>
+      <c r="H265" t="n">
+        <v>14</v>
+      </c>
+      <c r="I265" t="n">
+        <v>21</v>
+      </c>
+      <c r="J265" t="n">
+        <v>30</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N265" t="n">
+        <v>50</v>
+      </c>
+      <c r="O265" t="n">
+        <v>512</v>
+      </c>
+      <c r="P265" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>7</v>
+      </c>
+      <c r="R265" t="n">
+        <v>32.0754716981132</v>
       </c>
     </row>
   </sheetData>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R461"/>
+  <dimension ref="A1:R463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26393,6 +26393,122 @@
         <v>0.07692307692307693</v>
       </c>
     </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2023-11-23 21:26:51</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>12</v>
+      </c>
+      <c r="C462" t="n">
+        <v>3</v>
+      </c>
+      <c r="D462" t="n">
+        <v>4</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0</v>
+      </c>
+      <c r="F462" t="n">
+        <v>0</v>
+      </c>
+      <c r="G462" t="n">
+        <v>3</v>
+      </c>
+      <c r="H462" t="n">
+        <v>13</v>
+      </c>
+      <c r="I462" t="n">
+        <v>13</v>
+      </c>
+      <c r="J462" t="n">
+        <v>4</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L462" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M462" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N462" t="n">
+        <v>100</v>
+      </c>
+      <c r="O462" t="n">
+        <v>512</v>
+      </c>
+      <c r="P462" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q462" t="n">
+        <v>7</v>
+      </c>
+      <c r="R462" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2023-11-23 23:12:11</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>35</v>
+      </c>
+      <c r="C463" t="n">
+        <v>6</v>
+      </c>
+      <c r="D463" t="n">
+        <v>11</v>
+      </c>
+      <c r="E463" t="n">
+        <v>2</v>
+      </c>
+      <c r="F463" t="n">
+        <v>4</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0</v>
+      </c>
+      <c r="H463" t="n">
+        <v>15</v>
+      </c>
+      <c r="I463" t="n">
+        <v>12</v>
+      </c>
+      <c r="J463" t="n">
+        <v>36</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L463" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M463" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N463" t="n">
+        <v>100</v>
+      </c>
+      <c r="O463" t="n">
+        <v>512</v>
+      </c>
+      <c r="P463" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q463" t="n">
+        <v>7</v>
+      </c>
+      <c r="R463" t="n">
+        <v>0.1714285714285714</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R463"/>
+  <dimension ref="A1:R469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26509,6 +26509,354 @@
         <v>0.1714285714285714</v>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2023-11-25 00:55:53</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>21</v>
+      </c>
+      <c r="C464" t="n">
+        <v>5</v>
+      </c>
+      <c r="D464" t="n">
+        <v>12</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0</v>
+      </c>
+      <c r="F464" t="n">
+        <v>3</v>
+      </c>
+      <c r="G464" t="n">
+        <v>2</v>
+      </c>
+      <c r="H464" t="n">
+        <v>23</v>
+      </c>
+      <c r="I464" t="n">
+        <v>20</v>
+      </c>
+      <c r="J464" t="n">
+        <v>15</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L464" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M464" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N464" t="n">
+        <v>100</v>
+      </c>
+      <c r="O464" t="n">
+        <v>512</v>
+      </c>
+      <c r="P464" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q464" t="n">
+        <v>7</v>
+      </c>
+      <c r="R464" t="n">
+        <v>0.2380952380952381</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2023-11-25 11:06:27</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>56</v>
+      </c>
+      <c r="C465" t="n">
+        <v>7</v>
+      </c>
+      <c r="D465" t="n">
+        <v>21</v>
+      </c>
+      <c r="E465" t="n">
+        <v>1</v>
+      </c>
+      <c r="F465" t="n">
+        <v>5</v>
+      </c>
+      <c r="G465" t="n">
+        <v>1</v>
+      </c>
+      <c r="H465" t="n">
+        <v>41</v>
+      </c>
+      <c r="I465" t="n">
+        <v>21</v>
+      </c>
+      <c r="J465" t="n">
+        <v>36</v>
+      </c>
+      <c r="K465" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L465" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M465" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N465" t="n">
+        <v>100</v>
+      </c>
+      <c r="O465" t="n">
+        <v>512</v>
+      </c>
+      <c r="P465" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q465" t="n">
+        <v>7</v>
+      </c>
+      <c r="R465" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2023-11-25 11:44:58</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>98</v>
+      </c>
+      <c r="C466" t="n">
+        <v>13</v>
+      </c>
+      <c r="D466" t="n">
+        <v>23</v>
+      </c>
+      <c r="E466" t="n">
+        <v>3</v>
+      </c>
+      <c r="F466" t="n">
+        <v>3</v>
+      </c>
+      <c r="G466" t="n">
+        <v>7</v>
+      </c>
+      <c r="H466" t="n">
+        <v>44</v>
+      </c>
+      <c r="I466" t="n">
+        <v>58</v>
+      </c>
+      <c r="J466" t="n">
+        <v>23</v>
+      </c>
+      <c r="K466" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L466" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M466" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N466" t="n">
+        <v>100</v>
+      </c>
+      <c r="O466" t="n">
+        <v>512</v>
+      </c>
+      <c r="P466" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q466" t="n">
+        <v>7</v>
+      </c>
+      <c r="R466" t="n">
+        <v>0.1326530612244898</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2023-11-25 19:07:44</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>14</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0</v>
+      </c>
+      <c r="D467" t="n">
+        <v>14</v>
+      </c>
+      <c r="E467" t="n">
+        <v>0</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0</v>
+      </c>
+      <c r="H467" t="n">
+        <v>14</v>
+      </c>
+      <c r="I467" t="n">
+        <v>14</v>
+      </c>
+      <c r="J467" t="n">
+        <v>14</v>
+      </c>
+      <c r="K467" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L467" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M467" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N467" t="n">
+        <v>100</v>
+      </c>
+      <c r="O467" t="n">
+        <v>512</v>
+      </c>
+      <c r="P467" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q467" t="n">
+        <v>7</v>
+      </c>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2023-11-25 19:19:02</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>63</v>
+      </c>
+      <c r="C468" t="n">
+        <v>7</v>
+      </c>
+      <c r="D468" t="n">
+        <v>24</v>
+      </c>
+      <c r="E468" t="n">
+        <v>1</v>
+      </c>
+      <c r="F468" t="n">
+        <v>3</v>
+      </c>
+      <c r="G468" t="n">
+        <v>3</v>
+      </c>
+      <c r="H468" t="n">
+        <v>52</v>
+      </c>
+      <c r="I468" t="n">
+        <v>46</v>
+      </c>
+      <c r="J468" t="n">
+        <v>24</v>
+      </c>
+      <c r="K468" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L468" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M468" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N468" t="n">
+        <v>100</v>
+      </c>
+      <c r="O468" t="n">
+        <v>512</v>
+      </c>
+      <c r="P468" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q468" t="n">
+        <v>7</v>
+      </c>
+      <c r="R468" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2023-11-25 20:35:36</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>31</v>
+      </c>
+      <c r="C469" t="n">
+        <v>5</v>
+      </c>
+      <c r="D469" t="n">
+        <v>8</v>
+      </c>
+      <c r="E469" t="n">
+        <v>1</v>
+      </c>
+      <c r="F469" t="n">
+        <v>4</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0</v>
+      </c>
+      <c r="H469" t="n">
+        <v>24</v>
+      </c>
+      <c r="I469" t="n">
+        <v>12</v>
+      </c>
+      <c r="J469" t="n">
+        <v>31</v>
+      </c>
+      <c r="K469" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L469" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M469" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N469" t="n">
+        <v>100</v>
+      </c>
+      <c r="O469" t="n">
+        <v>512</v>
+      </c>
+      <c r="P469" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q469" t="n">
+        <v>7</v>
+      </c>
+      <c r="R469" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R469"/>
+  <dimension ref="A1:R471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26857,6 +26857,122 @@
         <v>0.1612903225806452</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2023-11-25 22:06:05</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>17</v>
+      </c>
+      <c r="C470" t="n">
+        <v>2</v>
+      </c>
+      <c r="D470" t="n">
+        <v>7</v>
+      </c>
+      <c r="E470" t="n">
+        <v>1</v>
+      </c>
+      <c r="F470" t="n">
+        <v>1</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0</v>
+      </c>
+      <c r="H470" t="n">
+        <v>14</v>
+      </c>
+      <c r="I470" t="n">
+        <v>11</v>
+      </c>
+      <c r="J470" t="n">
+        <v>18</v>
+      </c>
+      <c r="K470" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L470" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M470" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N470" t="n">
+        <v>100</v>
+      </c>
+      <c r="O470" t="n">
+        <v>512</v>
+      </c>
+      <c r="P470" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q470" t="n">
+        <v>7</v>
+      </c>
+      <c r="R470" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2023-11-26 00:55:37</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>79</v>
+      </c>
+      <c r="C471" t="n">
+        <v>10</v>
+      </c>
+      <c r="D471" t="n">
+        <v>26</v>
+      </c>
+      <c r="E471" t="n">
+        <v>1</v>
+      </c>
+      <c r="F471" t="n">
+        <v>3</v>
+      </c>
+      <c r="G471" t="n">
+        <v>6</v>
+      </c>
+      <c r="H471" t="n">
+        <v>44</v>
+      </c>
+      <c r="I471" t="n">
+        <v>52</v>
+      </c>
+      <c r="J471" t="n">
+        <v>26</v>
+      </c>
+      <c r="K471" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L471" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M471" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N471" t="n">
+        <v>100</v>
+      </c>
+      <c r="O471" t="n">
+        <v>512</v>
+      </c>
+      <c r="P471" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q471" t="n">
+        <v>7</v>
+      </c>
+      <c r="R471" t="n">
+        <v>0.1265822784810127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R471"/>
+  <dimension ref="A1:R473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26973,6 +26973,122 @@
         <v>0.1265822784810127</v>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2023-11-26 08:43:33</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>17</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0</v>
+      </c>
+      <c r="D472" t="n">
+        <v>18</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0</v>
+      </c>
+      <c r="F472" t="n">
+        <v>0</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0</v>
+      </c>
+      <c r="H472" t="n">
+        <v>18</v>
+      </c>
+      <c r="I472" t="n">
+        <v>18</v>
+      </c>
+      <c r="J472" t="n">
+        <v>18</v>
+      </c>
+      <c r="K472" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L472" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M472" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N472" t="n">
+        <v>100</v>
+      </c>
+      <c r="O472" t="n">
+        <v>512</v>
+      </c>
+      <c r="P472" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q472" t="n">
+        <v>7</v>
+      </c>
+      <c r="R472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2023-11-26 13:01:30</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>75</v>
+      </c>
+      <c r="C473" t="n">
+        <v>16</v>
+      </c>
+      <c r="D473" t="n">
+        <v>18</v>
+      </c>
+      <c r="E473" t="n">
+        <v>1</v>
+      </c>
+      <c r="F473" t="n">
+        <v>7</v>
+      </c>
+      <c r="G473" t="n">
+        <v>8</v>
+      </c>
+      <c r="H473" t="n">
+        <v>50</v>
+      </c>
+      <c r="I473" t="n">
+        <v>24</v>
+      </c>
+      <c r="J473" t="n">
+        <v>26</v>
+      </c>
+      <c r="K473" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L473" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M473" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N473" t="n">
+        <v>100</v>
+      </c>
+      <c r="O473" t="n">
+        <v>512</v>
+      </c>
+      <c r="P473" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q473" t="n">
+        <v>7</v>
+      </c>
+      <c r="R473" t="n">
+        <v>0.2133333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R216"/>
+  <dimension ref="A1:R218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12995,6 +12995,122 @@
         <v>0.1627906976744186</v>
       </c>
     </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-11-29 02:02:36</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>18</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="n">
+        <v>13</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="n">
+        <v>18</v>
+      </c>
+      <c r="I217" t="n">
+        <v>18</v>
+      </c>
+      <c r="J217" t="n">
+        <v>13</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N217" t="n">
+        <v>100</v>
+      </c>
+      <c r="O217" t="n">
+        <v>512</v>
+      </c>
+      <c r="P217" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>7</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-11-29 20:52:15</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>47</v>
+      </c>
+      <c r="C218" t="n">
+        <v>10</v>
+      </c>
+      <c r="D218" t="n">
+        <v>11</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>4</v>
+      </c>
+      <c r="G218" t="n">
+        <v>6</v>
+      </c>
+      <c r="H218" t="n">
+        <v>48</v>
+      </c>
+      <c r="I218" t="n">
+        <v>20</v>
+      </c>
+      <c r="J218" t="n">
+        <v>24</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N218" t="n">
+        <v>100</v>
+      </c>
+      <c r="O218" t="n">
+        <v>512</v>
+      </c>
+      <c r="P218" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>7</v>
+      </c>
+      <c r="R218" t="n">
+        <v>0.2127659574468085</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R218"/>
+  <dimension ref="A1:R219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13111,6 +13111,64 @@
         <v>0.2127659574468085</v>
       </c>
     </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-11-29 22:02:29</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>27</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5</v>
+      </c>
+      <c r="D219" t="n">
+        <v>11</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>3</v>
+      </c>
+      <c r="H219" t="n">
+        <v>18</v>
+      </c>
+      <c r="I219" t="n">
+        <v>27</v>
+      </c>
+      <c r="J219" t="n">
+        <v>11</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N219" t="n">
+        <v>100</v>
+      </c>
+      <c r="O219" t="n">
+        <v>512</v>
+      </c>
+      <c r="P219" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>7</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0.1851851851851852</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R219"/>
+  <dimension ref="A1:R228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13169,6 +13169,528 @@
         <v>0.1851851851851852</v>
       </c>
     </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-11-30 20:34:36</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>9</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="n">
+        <v>7</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>7</v>
+      </c>
+      <c r="I220" t="n">
+        <v>10</v>
+      </c>
+      <c r="J220" t="n">
+        <v>10</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N220" t="n">
+        <v>100</v>
+      </c>
+      <c r="O220" t="n">
+        <v>512</v>
+      </c>
+      <c r="P220" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>7</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-12-01 01:09:34</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>27</v>
+      </c>
+      <c r="C221" t="n">
+        <v>4</v>
+      </c>
+      <c r="D221" t="n">
+        <v>7</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>14</v>
+      </c>
+      <c r="I221" t="n">
+        <v>18</v>
+      </c>
+      <c r="J221" t="n">
+        <v>19</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N221" t="n">
+        <v>100</v>
+      </c>
+      <c r="O221" t="n">
+        <v>512</v>
+      </c>
+      <c r="P221" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>7</v>
+      </c>
+      <c r="R221" t="n">
+        <v>0.1481481481481481</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-12-02 01:12:45</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>28</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5</v>
+      </c>
+      <c r="D222" t="n">
+        <v>8</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1</v>
+      </c>
+      <c r="F222" t="n">
+        <v>3</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>18</v>
+      </c>
+      <c r="I222" t="n">
+        <v>8</v>
+      </c>
+      <c r="J222" t="n">
+        <v>27</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N222" t="n">
+        <v>100</v>
+      </c>
+      <c r="O222" t="n">
+        <v>512</v>
+      </c>
+      <c r="P222" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>7</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0.1785714285714286</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-12-02 13:33:46</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>22</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>13</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="n">
+        <v>22</v>
+      </c>
+      <c r="I223" t="n">
+        <v>13</v>
+      </c>
+      <c r="J223" t="n">
+        <v>17</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N223" t="n">
+        <v>100</v>
+      </c>
+      <c r="O223" t="n">
+        <v>512</v>
+      </c>
+      <c r="P223" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>7</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-12-02 16:34:49</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>13</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="n">
+        <v>9</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>9</v>
+      </c>
+      <c r="I224" t="n">
+        <v>13</v>
+      </c>
+      <c r="J224" t="n">
+        <v>13</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N224" t="n">
+        <v>100</v>
+      </c>
+      <c r="O224" t="n">
+        <v>512</v>
+      </c>
+      <c r="P224" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>7</v>
+      </c>
+      <c r="R224" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-12-02 16:48:04</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>40</v>
+      </c>
+      <c r="C225" t="n">
+        <v>6</v>
+      </c>
+      <c r="D225" t="n">
+        <v>23</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>36</v>
+      </c>
+      <c r="I225" t="n">
+        <v>30</v>
+      </c>
+      <c r="J225" t="n">
+        <v>25</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N225" t="n">
+        <v>100</v>
+      </c>
+      <c r="O225" t="n">
+        <v>512</v>
+      </c>
+      <c r="P225" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>7</v>
+      </c>
+      <c r="R225" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-12-02 20:27:47</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>98</v>
+      </c>
+      <c r="C226" t="n">
+        <v>15</v>
+      </c>
+      <c r="D226" t="n">
+        <v>22</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>4</v>
+      </c>
+      <c r="G226" t="n">
+        <v>7</v>
+      </c>
+      <c r="H226" t="n">
+        <v>35</v>
+      </c>
+      <c r="I226" t="n">
+        <v>62</v>
+      </c>
+      <c r="J226" t="n">
+        <v>24</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N226" t="n">
+        <v>100</v>
+      </c>
+      <c r="O226" t="n">
+        <v>512</v>
+      </c>
+      <c r="P226" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>7</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0.1530612244897959</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-12-03 15:12:19</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2</v>
+      </c>
+      <c r="I227" t="n">
+        <v>2</v>
+      </c>
+      <c r="J227" t="n">
+        <v>2</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N227" t="n">
+        <v>100</v>
+      </c>
+      <c r="O227" t="n">
+        <v>512</v>
+      </c>
+      <c r="P227" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>7</v>
+      </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-12-05 00:00:45</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>18</v>
+      </c>
+      <c r="C228" t="n">
+        <v>3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>6</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>18</v>
+      </c>
+      <c r="I228" t="n">
+        <v>8</v>
+      </c>
+      <c r="J228" t="n">
+        <v>16</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N228" t="n">
+        <v>100</v>
+      </c>
+      <c r="O228" t="n">
+        <v>512</v>
+      </c>
+      <c r="P228" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>7</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +608,153 @@
         <v>0.6666666666666666</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-12-10 19:20:33</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100</v>
+      </c>
+      <c r="L4" t="n">
+        <v>512</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-12-10 21:05:03</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100</v>
+      </c>
+      <c r="L5" t="n">
+        <v>512</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-12-10 22:30:25</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K6" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" t="n">
+        <v>512</v>
+      </c>
+      <c r="M6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,6 +755,104 @@
         <v>0.76</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2023-12-11 00:18:56</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K7" t="n">
+        <v>100</v>
+      </c>
+      <c r="L7" t="n">
+        <v>512</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2023-12-12 19:20:40</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L8" t="n">
+        <v>512</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,6 +853,153 @@
         <v>1.625</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2023-12-15 01:16:26</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L9" t="n">
+        <v>512</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2023-12-15 01:21:13</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K10" t="n">
+        <v>100</v>
+      </c>
+      <c r="L10" t="n">
+        <v>512</v>
+      </c>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2023-12-16 15:20:34</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K11" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" t="n">
+        <v>512</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1000,6 +1000,55 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2023-12-17 21:45:49</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
+      <c r="L12" t="n">
+        <v>512</v>
+      </c>
+      <c r="M12" t="n">
+        <v>10</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,6 +1049,349 @@
         <v>0.6666666666666666</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2023-12-17 23:50:32</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>34</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
+      <c r="L13" t="n">
+        <v>512</v>
+      </c>
+      <c r="M13" t="n">
+        <v>10</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.9117647058823529</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2023-12-18 18:37:39</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K14" t="n">
+        <v>100</v>
+      </c>
+      <c r="L14" t="n">
+        <v>512</v>
+      </c>
+      <c r="M14" t="n">
+        <v>10</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2023-12-18 18:56:47</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
+      <c r="L15" t="n">
+        <v>512</v>
+      </c>
+      <c r="M15" t="n">
+        <v>10</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2023-12-19 00:43:14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
+      <c r="L16" t="n">
+        <v>512</v>
+      </c>
+      <c r="M16" t="n">
+        <v>10</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2023-12-19 01:16:00</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
+      <c r="L17" t="n">
+        <v>512</v>
+      </c>
+      <c r="M17" t="n">
+        <v>10</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2023-12-21 07:21:25</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
+      <c r="L18" t="n">
+        <v>512</v>
+      </c>
+      <c r="M18" t="n">
+        <v>10</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2023-12-22 22:48:45</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
+      <c r="L19" t="n">
+        <v>512</v>
+      </c>
+      <c r="M19" t="n">
+        <v>10</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1849,6 +1849,462 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-12-24 17:01:04</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+      <c r="C27" t="n">
+        <v>16</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L27" t="n">
+        <v>100</v>
+      </c>
+      <c r="M27" t="n">
+        <v>512</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>7</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-12-24 17:58:01</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>18</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L28" t="n">
+        <v>100</v>
+      </c>
+      <c r="M28" t="n">
+        <v>512</v>
+      </c>
+      <c r="N28" t="n">
+        <v>10</v>
+      </c>
+      <c r="O28" t="n">
+        <v>7</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Data/bombay2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-12-24 18:03:00</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L29" t="n">
+        <v>100</v>
+      </c>
+      <c r="M29" t="n">
+        <v>512</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>7</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-12-24 21:23:35</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L30" t="n">
+        <v>100</v>
+      </c>
+      <c r="M30" t="n">
+        <v>512</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>7</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-12-25 11:57:55</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" t="n">
+        <v>7</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L31" t="n">
+        <v>100</v>
+      </c>
+      <c r="M31" t="n">
+        <v>512</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>7</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-12-25 15:54:32</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L32" t="n">
+        <v>100</v>
+      </c>
+      <c r="M32" t="n">
+        <v>512</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>7</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-12-25 16:17:20</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L33" t="n">
+        <v>100</v>
+      </c>
+      <c r="M33" t="n">
+        <v>512</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10</v>
+      </c>
+      <c r="O33" t="n">
+        <v>7</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Data/lighting.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-12-25 22:36:43</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L34" t="n">
+        <v>100</v>
+      </c>
+      <c r="M34" t="n">
+        <v>512</v>
+      </c>
+      <c r="N34" t="n">
+        <v>10</v>
+      </c>
+      <c r="O34" t="n">
+        <v>7</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2305,6 +2305,1089 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-12-26 21:51:26</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L35" t="n">
+        <v>100</v>
+      </c>
+      <c r="M35" t="n">
+        <v>512</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10</v>
+      </c>
+      <c r="O35" t="n">
+        <v>7</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-12-26 23:10:03</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L36" t="n">
+        <v>100</v>
+      </c>
+      <c r="M36" t="n">
+        <v>512</v>
+      </c>
+      <c r="N36" t="n">
+        <v>10</v>
+      </c>
+      <c r="O36" t="n">
+        <v>7</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-12-27 00:20:26</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>12</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L37" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" t="n">
+        <v>512</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>7</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-12-27 19:00:08</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L38" t="n">
+        <v>100</v>
+      </c>
+      <c r="M38" t="n">
+        <v>512</v>
+      </c>
+      <c r="N38" t="n">
+        <v>10</v>
+      </c>
+      <c r="O38" t="n">
+        <v>7</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-12-27 20:20:07</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L39" t="n">
+        <v>100</v>
+      </c>
+      <c r="M39" t="n">
+        <v>512</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10</v>
+      </c>
+      <c r="O39" t="n">
+        <v>7</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-12-28 00:16:28</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>24</v>
+      </c>
+      <c r="C40" t="n">
+        <v>21</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L40" t="n">
+        <v>100</v>
+      </c>
+      <c r="M40" t="n">
+        <v>512</v>
+      </c>
+      <c r="N40" t="n">
+        <v>10</v>
+      </c>
+      <c r="O40" t="n">
+        <v>7</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-12-28 21:19:06</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>42</v>
+      </c>
+      <c r="C41" t="n">
+        <v>42</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>17</v>
+      </c>
+      <c r="F41" t="n">
+        <v>15</v>
+      </c>
+      <c r="G41" t="n">
+        <v>16</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L41" t="n">
+        <v>100</v>
+      </c>
+      <c r="M41" t="n">
+        <v>512</v>
+      </c>
+      <c r="N41" t="n">
+        <v>10</v>
+      </c>
+      <c r="O41" t="n">
+        <v>7</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-12-28 23:05:42</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>22</v>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L42" t="n">
+        <v>100</v>
+      </c>
+      <c r="M42" t="n">
+        <v>512</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10</v>
+      </c>
+      <c r="O42" t="n">
+        <v>7</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-12-29 08:17:18</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" t="n">
+        <v>17</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L43" t="n">
+        <v>100</v>
+      </c>
+      <c r="M43" t="n">
+        <v>100</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10</v>
+      </c>
+      <c r="O43" t="n">
+        <v>7</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-12-29 11:24:20</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L44" t="n">
+        <v>50</v>
+      </c>
+      <c r="M44" t="n">
+        <v>100</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10</v>
+      </c>
+      <c r="O44" t="n">
+        <v>7</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-12-29 13:50:48</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>17</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L45" t="n">
+        <v>100</v>
+      </c>
+      <c r="M45" t="n">
+        <v>100</v>
+      </c>
+      <c r="N45" t="n">
+        <v>10</v>
+      </c>
+      <c r="O45" t="n">
+        <v>7</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-12-29 19:37:27</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>31</v>
+      </c>
+      <c r="C46" t="n">
+        <v>30</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L46" t="n">
+        <v>100</v>
+      </c>
+      <c r="M46" t="n">
+        <v>100</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" t="n">
+        <v>7</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-12-29 20:28:30</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>37</v>
+      </c>
+      <c r="C47" t="n">
+        <v>34</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L47" t="n">
+        <v>100</v>
+      </c>
+      <c r="M47" t="n">
+        <v>100</v>
+      </c>
+      <c r="N47" t="n">
+        <v>10</v>
+      </c>
+      <c r="O47" t="n">
+        <v>7</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.918918918918919</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-12-29 23:52:48</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>21</v>
+      </c>
+      <c r="C48" t="n">
+        <v>19</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>11</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" t="n">
+        <v>11</v>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L48" t="n">
+        <v>100</v>
+      </c>
+      <c r="M48" t="n">
+        <v>100</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10</v>
+      </c>
+      <c r="O48" t="n">
+        <v>7</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.9047619047619048</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-12-30 00:44:35</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>20</v>
+      </c>
+      <c r="C49" t="n">
+        <v>21</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>13</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5</v>
+      </c>
+      <c r="G49" t="n">
+        <v>11</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L49" t="n">
+        <v>100</v>
+      </c>
+      <c r="M49" t="n">
+        <v>100</v>
+      </c>
+      <c r="N49" t="n">
+        <v>10</v>
+      </c>
+      <c r="O49" t="n">
+        <v>7</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-12-30 09:30:39</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L50" t="n">
+        <v>100</v>
+      </c>
+      <c r="M50" t="n">
+        <v>100</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-12-30 12:07:16</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L51" t="n">
+        <v>100</v>
+      </c>
+      <c r="M51" t="n">
+        <v>200</v>
+      </c>
+      <c r="N51" t="n">
+        <v>10</v>
+      </c>
+      <c r="O51" t="n">
+        <v>7</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-12-30 12:38:43</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>17</v>
+      </c>
+      <c r="C52" t="n">
+        <v>16</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L52" t="n">
+        <v>100</v>
+      </c>
+      <c r="M52" t="n">
+        <v>200</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10</v>
+      </c>
+      <c r="O52" t="n">
+        <v>7</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-12-30 15:44:37</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>9</v>
+      </c>
+      <c r="C53" t="n">
+        <v>8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L53" t="n">
+        <v>100</v>
+      </c>
+      <c r="M53" t="n">
+        <v>200</v>
+      </c>
+      <c r="N53" t="n">
+        <v>10</v>
+      </c>
+      <c r="O53" t="n">
+        <v>7</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3388,6 +3388,234 @@
         </is>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-12-31 23:22:02</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>56</v>
+      </c>
+      <c r="C54" t="n">
+        <v>48</v>
+      </c>
+      <c r="D54" t="n">
+        <v>11</v>
+      </c>
+      <c r="E54" t="n">
+        <v>17</v>
+      </c>
+      <c r="F54" t="n">
+        <v>20</v>
+      </c>
+      <c r="G54" t="n">
+        <v>23</v>
+      </c>
+      <c r="H54" t="n">
+        <v>19</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L54" t="n">
+        <v>100</v>
+      </c>
+      <c r="M54" t="n">
+        <v>200</v>
+      </c>
+      <c r="N54" t="n">
+        <v>10</v>
+      </c>
+      <c r="O54" t="n">
+        <v>7</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-01-01 13:29:32</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="n">
+        <v>37</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14</v>
+      </c>
+      <c r="F55" t="n">
+        <v>14</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10</v>
+      </c>
+      <c r="H55" t="n">
+        <v>14</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L55" t="n">
+        <v>100</v>
+      </c>
+      <c r="M55" t="n">
+        <v>200</v>
+      </c>
+      <c r="N55" t="n">
+        <v>10</v>
+      </c>
+      <c r="O55" t="n">
+        <v>7</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-01-01 15:01:29</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>20</v>
+      </c>
+      <c r="C56" t="n">
+        <v>18</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="n">
+        <v>9</v>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L56" t="n">
+        <v>100</v>
+      </c>
+      <c r="M56" t="n">
+        <v>500</v>
+      </c>
+      <c r="N56" t="n">
+        <v>10</v>
+      </c>
+      <c r="O56" t="n">
+        <v>7</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-01-01 15:28:07</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>19</v>
+      </c>
+      <c r="C57" t="n">
+        <v>16</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L57" t="n">
+        <v>100</v>
+      </c>
+      <c r="M57" t="n">
+        <v>500</v>
+      </c>
+      <c r="N57" t="n">
+        <v>10</v>
+      </c>
+      <c r="O57" t="n">
+        <v>7</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Data/bombayauto.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3616,6 +3616,63 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-01-01 21:43:33</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>39</v>
+      </c>
+      <c r="C58" t="n">
+        <v>32</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13</v>
+      </c>
+      <c r="F58" t="n">
+        <v>14</v>
+      </c>
+      <c r="G58" t="n">
+        <v>9</v>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L58" t="n">
+        <v>100</v>
+      </c>
+      <c r="M58" t="n">
+        <v>500</v>
+      </c>
+      <c r="N58" t="n">
+        <v>10</v>
+      </c>
+      <c r="O58" t="n">
+        <v>7</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3673,6 +3673,234 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-01-01 23:16:05</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L59" t="n">
+        <v>100</v>
+      </c>
+      <c r="M59" t="n">
+        <v>500</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10</v>
+      </c>
+      <c r="O59" t="n">
+        <v>7</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-01-01 23:39:23</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>12</v>
+      </c>
+      <c r="C60" t="n">
+        <v>6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L60" t="n">
+        <v>100</v>
+      </c>
+      <c r="M60" t="n">
+        <v>500</v>
+      </c>
+      <c r="N60" t="n">
+        <v>10</v>
+      </c>
+      <c r="O60" t="n">
+        <v>7</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-01-02 06:40:31</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" t="n">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L61" t="n">
+        <v>100</v>
+      </c>
+      <c r="M61" t="n">
+        <v>500</v>
+      </c>
+      <c r="N61" t="n">
+        <v>10</v>
+      </c>
+      <c r="O61" t="n">
+        <v>7</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-01-02 12:48:24</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>15</v>
+      </c>
+      <c r="C62" t="n">
+        <v>11</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L62" t="n">
+        <v>100</v>
+      </c>
+      <c r="M62" t="n">
+        <v>500</v>
+      </c>
+      <c r="N62" t="n">
+        <v>10</v>
+      </c>
+      <c r="O62" t="n">
+        <v>7</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3901,6 +3901,120 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-01-03 01:03:59</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>20</v>
+      </c>
+      <c r="C63" t="n">
+        <v>18</v>
+      </c>
+      <c r="D63" t="n">
+        <v>7</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L63" t="n">
+        <v>100</v>
+      </c>
+      <c r="M63" t="n">
+        <v>500</v>
+      </c>
+      <c r="N63" t="n">
+        <v>10</v>
+      </c>
+      <c r="O63" t="n">
+        <v>7</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-01-03 19:37:51</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L64" t="n">
+        <v>100</v>
+      </c>
+      <c r="M64" t="n">
+        <v>500</v>
+      </c>
+      <c r="N64" t="n">
+        <v>10</v>
+      </c>
+      <c r="O64" t="n">
+        <v>7</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3901,120 +3901,6 @@
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2024-01-03 01:03:59</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>20</v>
-      </c>
-      <c r="C63" t="n">
-        <v>18</v>
-      </c>
-      <c r="D63" t="n">
-        <v>7</v>
-      </c>
-      <c r="E63" t="n">
-        <v>4</v>
-      </c>
-      <c r="F63" t="n">
-        <v>7</v>
-      </c>
-      <c r="G63" t="n">
-        <v>5</v>
-      </c>
-      <c r="H63" t="n">
-        <v>6</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="L63" t="n">
-        <v>100</v>
-      </c>
-      <c r="M63" t="n">
-        <v>500</v>
-      </c>
-      <c r="N63" t="n">
-        <v>10</v>
-      </c>
-      <c r="O63" t="n">
-        <v>7</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Data/bombay1.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2024-01-03 19:37:51</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="L64" t="n">
-        <v>100</v>
-      </c>
-      <c r="M64" t="n">
-        <v>500</v>
-      </c>
-      <c r="N64" t="n">
-        <v>10</v>
-      </c>
-      <c r="O64" t="n">
-        <v>7</v>
-      </c>
-      <c r="P64" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>Data/bombay1.xlsx</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3901,6 +3901,633 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-01-05 12:39:36</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>13</v>
+      </c>
+      <c r="C63" t="n">
+        <v>9</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L63" t="n">
+        <v>100</v>
+      </c>
+      <c r="M63" t="n">
+        <v>500</v>
+      </c>
+      <c r="N63" t="n">
+        <v>10</v>
+      </c>
+      <c r="O63" t="n">
+        <v>7</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-01-07 23:24:08</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>14</v>
+      </c>
+      <c r="C64" t="n">
+        <v>14</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L64" t="n">
+        <v>100</v>
+      </c>
+      <c r="M64" t="n">
+        <v>500</v>
+      </c>
+      <c r="N64" t="n">
+        <v>10</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-01-08 01:14:48</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L65" t="n">
+        <v>100</v>
+      </c>
+      <c r="M65" t="n">
+        <v>500</v>
+      </c>
+      <c r="N65" t="n">
+        <v>10</v>
+      </c>
+      <c r="O65" t="n">
+        <v>5</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-01-08 11:40:37</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L66" t="n">
+        <v>100</v>
+      </c>
+      <c r="M66" t="n">
+        <v>500</v>
+      </c>
+      <c r="N66" t="n">
+        <v>10</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-01-08 12:15:19</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="n">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L67" t="n">
+        <v>100</v>
+      </c>
+      <c r="M67" t="n">
+        <v>500</v>
+      </c>
+      <c r="N67" t="n">
+        <v>10</v>
+      </c>
+      <c r="O67" t="n">
+        <v>5</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-01-08 19:04:39</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>11</v>
+      </c>
+      <c r="C68" t="n">
+        <v>11</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L68" t="n">
+        <v>100</v>
+      </c>
+      <c r="M68" t="n">
+        <v>500</v>
+      </c>
+      <c r="N68" t="n">
+        <v>10</v>
+      </c>
+      <c r="O68" t="n">
+        <v>5</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-01-09 00:56:00</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>8</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L69" t="n">
+        <v>100</v>
+      </c>
+      <c r="M69" t="n">
+        <v>500</v>
+      </c>
+      <c r="N69" t="n">
+        <v>10</v>
+      </c>
+      <c r="O69" t="n">
+        <v>5</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-01-09 01:12:42</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>18</v>
+      </c>
+      <c r="C70" t="n">
+        <v>18</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
+      </c>
+      <c r="F70" t="n">
+        <v>8</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L70" t="n">
+        <v>100</v>
+      </c>
+      <c r="M70" t="n">
+        <v>500</v>
+      </c>
+      <c r="N70" t="n">
+        <v>10</v>
+      </c>
+      <c r="O70" t="n">
+        <v>5</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-01-09 01:44:11</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L71" t="n">
+        <v>100</v>
+      </c>
+      <c r="M71" t="n">
+        <v>500</v>
+      </c>
+      <c r="N71" t="n">
+        <v>10</v>
+      </c>
+      <c r="O71" t="n">
+        <v>5</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-01-09 02:00:12</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L72" t="n">
+        <v>100</v>
+      </c>
+      <c r="M72" t="n">
+        <v>500</v>
+      </c>
+      <c r="N72" t="n">
+        <v>10</v>
+      </c>
+      <c r="O72" t="n">
+        <v>5</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Data/lighting.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-01-09 21:16:15</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>17</v>
+      </c>
+      <c r="C73" t="n">
+        <v>18</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>8</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3</v>
+      </c>
+      <c r="G73" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L73" t="n">
+        <v>100</v>
+      </c>
+      <c r="M73" t="n">
+        <v>500</v>
+      </c>
+      <c r="N73" t="n">
+        <v>10</v>
+      </c>
+      <c r="O73" t="n">
+        <v>5</v>
+      </c>
+      <c r="P73" t="n">
+        <v>1.058823529411765</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4528,6 +4528,576 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-01-10 08:35:39</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+      <c r="C74" t="n">
+        <v>8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L74" t="n">
+        <v>100</v>
+      </c>
+      <c r="M74" t="n">
+        <v>500</v>
+      </c>
+      <c r="N74" t="n">
+        <v>10</v>
+      </c>
+      <c r="O74" t="n">
+        <v>5</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Data/lighting.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-01-10 09:03:02</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>3</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L75" t="n">
+        <v>100</v>
+      </c>
+      <c r="M75" t="n">
+        <v>500</v>
+      </c>
+      <c r="N75" t="n">
+        <v>10</v>
+      </c>
+      <c r="O75" t="n">
+        <v>5</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-01-10 16:49:52</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>14</v>
+      </c>
+      <c r="C76" t="n">
+        <v>15</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>8</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L76" t="n">
+        <v>100</v>
+      </c>
+      <c r="M76" t="n">
+        <v>500</v>
+      </c>
+      <c r="N76" t="n">
+        <v>10</v>
+      </c>
+      <c r="O76" t="n">
+        <v>5</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-01-10 21:02:11</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>15</v>
+      </c>
+      <c r="C77" t="n">
+        <v>15</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L77" t="n">
+        <v>100</v>
+      </c>
+      <c r="M77" t="n">
+        <v>500</v>
+      </c>
+      <c r="N77" t="n">
+        <v>10</v>
+      </c>
+      <c r="O77" t="n">
+        <v>5</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-01-11 01:13:43</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L78" t="n">
+        <v>100</v>
+      </c>
+      <c r="M78" t="n">
+        <v>500</v>
+      </c>
+      <c r="N78" t="n">
+        <v>10</v>
+      </c>
+      <c r="O78" t="n">
+        <v>5</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-01-11 11:05:55</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L79" t="n">
+        <v>100</v>
+      </c>
+      <c r="M79" t="n">
+        <v>500</v>
+      </c>
+      <c r="N79" t="n">
+        <v>10</v>
+      </c>
+      <c r="O79" t="n">
+        <v>5</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-01-11 21:35:49</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+      <c r="C80" t="n">
+        <v>7</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L80" t="n">
+        <v>100</v>
+      </c>
+      <c r="M80" t="n">
+        <v>500</v>
+      </c>
+      <c r="N80" t="n">
+        <v>10</v>
+      </c>
+      <c r="O80" t="n">
+        <v>5</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-01-11 21:42:25</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L81" t="n">
+        <v>100</v>
+      </c>
+      <c r="M81" t="n">
+        <v>500</v>
+      </c>
+      <c r="N81" t="n">
+        <v>10</v>
+      </c>
+      <c r="O81" t="n">
+        <v>5</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Data/lighting.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-01-12 00:50:12</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>14</v>
+      </c>
+      <c r="C82" t="n">
+        <v>15</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" t="n">
+        <v>7</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L82" t="n">
+        <v>100</v>
+      </c>
+      <c r="M82" t="n">
+        <v>500</v>
+      </c>
+      <c r="N82" t="n">
+        <v>10</v>
+      </c>
+      <c r="O82" t="n">
+        <v>5</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-01-12 19:06:21</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>11</v>
+      </c>
+      <c r="C83" t="n">
+        <v>12</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="n">
+        <v>3</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L83" t="n">
+        <v>100</v>
+      </c>
+      <c r="M83" t="n">
+        <v>500</v>
+      </c>
+      <c r="N83" t="n">
+        <v>10</v>
+      </c>
+      <c r="O83" t="n">
+        <v>5</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5098,6 +5098,118 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-01-13 22:48:13</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>18</v>
+      </c>
+      <c r="C84" t="n">
+        <v>18</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" t="n">
+        <v>3</v>
+      </c>
+      <c r="G84" t="n">
+        <v>6</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L84" t="n">
+        <v>100</v>
+      </c>
+      <c r="M84" t="n">
+        <v>500</v>
+      </c>
+      <c r="N84" t="n">
+        <v>10</v>
+      </c>
+      <c r="O84" t="n">
+        <v>5</v>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-01-13 23:28:28</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L85" t="n">
+        <v>100</v>
+      </c>
+      <c r="M85" t="n">
+        <v>500</v>
+      </c>
+      <c r="N85" t="n">
+        <v>10</v>
+      </c>
+      <c r="O85" t="n">
+        <v>5</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Data/lighting.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5210,6 +5210,395 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-01-14 03:26:08</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="n">
+        <v>7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L86" t="n">
+        <v>100</v>
+      </c>
+      <c r="M86" t="n">
+        <v>500</v>
+      </c>
+      <c r="N86" t="n">
+        <v>10</v>
+      </c>
+      <c r="O86" t="n">
+        <v>5</v>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-01-14 03:38:50</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L87" t="n">
+        <v>100</v>
+      </c>
+      <c r="M87" t="n">
+        <v>500</v>
+      </c>
+      <c r="N87" t="n">
+        <v>10</v>
+      </c>
+      <c r="O87" t="n">
+        <v>5</v>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Data/bombay2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-01-14 03:42:44</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L88" t="n">
+        <v>50</v>
+      </c>
+      <c r="M88" t="n">
+        <v>500</v>
+      </c>
+      <c r="N88" t="n">
+        <v>10</v>
+      </c>
+      <c r="O88" t="n">
+        <v>5</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Data/lighting.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-01-14 10:28:51</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>10</v>
+      </c>
+      <c r="C89" t="n">
+        <v>10</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L89" t="n">
+        <v>100</v>
+      </c>
+      <c r="M89" t="n">
+        <v>500</v>
+      </c>
+      <c r="N89" t="n">
+        <v>10</v>
+      </c>
+      <c r="O89" t="n">
+        <v>5</v>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Data/bombay2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-01-14 10:46:48</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L90" t="n">
+        <v>10</v>
+      </c>
+      <c r="M90" t="n">
+        <v>500</v>
+      </c>
+      <c r="N90" t="n">
+        <v>10</v>
+      </c>
+      <c r="O90" t="n">
+        <v>5</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Data/lighting.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-01-14 23:58:42</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L91" t="n">
+        <v>100</v>
+      </c>
+      <c r="M91" t="n">
+        <v>500</v>
+      </c>
+      <c r="N91" t="n">
+        <v>10</v>
+      </c>
+      <c r="O91" t="n">
+        <v>5</v>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Data/bombay2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-01-15 02:03:10</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>8</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L92" t="n">
+        <v>100</v>
+      </c>
+      <c r="M92" t="n">
+        <v>500</v>
+      </c>
+      <c r="N92" t="n">
+        <v>10</v>
+      </c>
+      <c r="O92" t="n">
+        <v>5</v>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Data/bombay2.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q92"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5599,6 +5599,61 @@
         </is>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-01-15 14:35:21</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>8</v>
+      </c>
+      <c r="C93" t="n">
+        <v>8</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>6</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L93" t="n">
+        <v>100</v>
+      </c>
+      <c r="M93" t="n">
+        <v>500</v>
+      </c>
+      <c r="N93" t="n">
+        <v>10</v>
+      </c>
+      <c r="O93" t="n">
+        <v>5</v>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Data/bombay2.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5654,6 +5654,116 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-01-15 18:58:58</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>13</v>
+      </c>
+      <c r="C94" t="n">
+        <v>13</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3</v>
+      </c>
+      <c r="F94" t="n">
+        <v>6</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L94" t="n">
+        <v>100</v>
+      </c>
+      <c r="M94" t="n">
+        <v>500</v>
+      </c>
+      <c r="N94" t="n">
+        <v>10</v>
+      </c>
+      <c r="O94" t="n">
+        <v>5</v>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Data/bombay2.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-01-16 13:32:44</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>69</v>
+      </c>
+      <c r="C95" t="n">
+        <v>52</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>20</v>
+      </c>
+      <c r="F95" t="n">
+        <v>15</v>
+      </c>
+      <c r="G95" t="n">
+        <v>9</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L95" t="n">
+        <v>100</v>
+      </c>
+      <c r="M95" t="n">
+        <v>500</v>
+      </c>
+      <c r="N95" t="n">
+        <v>10</v>
+      </c>
+      <c r="O95" t="n">
+        <v>5</v>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Reportes.xlsx
+++ b/Reportes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t>Ruleta</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Ganancia</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -572,6 +577,7 @@
         <v>0.75</v>
       </c>
       <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -625,6 +631,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -678,6 +685,7 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -731,6 +739,7 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -784,6 +793,7 @@
         <v>0.76</v>
       </c>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -837,6 +847,7 @@
         <v>0.9230769230769231</v>
       </c>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -890,6 +901,7 @@
         <v>1.625</v>
       </c>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -943,6 +955,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -996,6 +1009,7 @@
         <v>1</v>
       </c>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1049,6 +1063,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1102,6 +1117,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1155,6 +1171,7 @@
         <v>0.9117647058823529</v>
       </c>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1208,6 +1225,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1261,6 +1279,7 @@
         <v>1</v>
       </c>
       <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1314,6 +1333,7 @@
         <v>0.8</v>
       </c>
       <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1367,6 +1387,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1420,6 +1441,7 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1473,6 +1495,7 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1526,6 +1549,7 @@
         <v>0.7368421052631579</v>
       </c>
       <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1579,6 +1603,7 @@
         <v>0.85</v>
       </c>
       <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1632,6 +1657,7 @@
         <v>0.6</v>
       </c>
       <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1685,6 +1711,7 @@
         <v>1</v>
       </c>
       <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1738,6 +1765,7 @@
         <v>1</v>
       </c>
       <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1791,6 +1819,7 @@
         <v>1</v>
       </c>
       <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1848,6 +1877,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1905,6 +1935,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1962,6 +1993,7 @@
           <t>Data/bombay2.xlsx</t>
         </is>
       </c>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2019,6 +2051,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2076,6 +2109,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2133,6 +2167,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2190,6 +2225,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2247,6 +2283,7 @@
           <t>Data/lighting.xlsx</t>
         </is>
       </c>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2304,6 +2341,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2361,6 +2399,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2418,6 +2457,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2475,6 +2515,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2532,6 +2573,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2589,6 +2631,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2646,6 +2689,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2703,6 +2747,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2760,6 +2805,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2817,6 +2863,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2874,6 +2921,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2931,6 +2979,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2988,6 +3037,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3045,6 +3095,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3102,6 +3153,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3159,6 +3211,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3216,6 +3269,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3273,6 +3327,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3330,6 +3385,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3387,6 +3443,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3444,6 +3501,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3501,6 +3559,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3558,6 +3617,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3615,6 +3675,7 @@
           <t>Data/bombayauto.xlsx</t>
         </is>
       </c>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3672,6 +3733,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3729,6 +3791,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3786,6 +3849,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3843,6 +3907,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3900,6 +3965,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3957,6 +4023,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4014,6 +4081,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4071,6 +4139,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4128,6 +4197,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4185,6 +4255,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4242,6 +4313,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4299,6 +4371,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4356,6 +4429,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4413,6 +4487,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4470,6 +4545,7 @@
           <t>Data/lighting.xlsx</t>
         </is>
       </c>
+      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4527,6 +4603,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4584,6 +4661,7 @@
           <t>Data/lighting.xlsx</t>
         </is>
       </c>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4641,6 +4719,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4698,6 +4777,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4755,6 +4835,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4812,6 +4893,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4869,6 +4951,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4926,6 +5009,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4983,6 +5067,7 @@
           <t>Data/lighting.xlsx</t>
         </is>
       </c>
+      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5040,6 +5125,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5097,6 +5183,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5152,6 +5239,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5209,6 +5297,7 @@
           <t>Data/lighting.xlsx</t>
         </is>
       </c>
+      <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5264,6 +5353,7 @@
           <t>Data/bombay1.xlsx</t>
         </is>
       </c>
+      <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5319,6 +5409,7 @@
           <t>Data/bombay2.xlsx</t>
         </is>
       </c>
+      <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5376,6 +5467,7 @@
           <t>Data/lighting.xlsx</t>
         </is>
       </c>
+      <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5431,6 +5523,7 @@
           <t>Data/bombay2.xlsx</t>
         </is>
       </c>
+      <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5488,6 +5581,7 @@
           <t>Data/lighting.xlsx</t>
         </is>
       </c>
+      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5543,6 +5637,7 @@
           <t>Data/bombay2.xlsx</t>
         </is>
       </c>
+      <c r="R91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5598,6 +5693,7 @@
           <t>Data/bombay2.xlsx</t>
         </is>
       </c>
+      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5653,6 +5749,7 @@
           <t>Data/bombay2.xlsx</t>
         </is>
       </c>
+      <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5708,6 +5805,7 @@
           <t>Data/bombay2.xlsx</t>
         </is>
       </c>
+      <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5762,6 +5860,239 @@
         <is>
           <t>Data/bombay1.xlsx</t>
         </is>
+      </c>
+      <c r="R95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-01-17 02:36:41</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L96" t="n">
+        <v>100</v>
+      </c>
+      <c r="M96" t="n">
+        <v>500</v>
+      </c>
+      <c r="N96" t="n">
+        <v>10</v>
+      </c>
+      <c r="O96" t="n">
+        <v>5</v>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-01-19 01:32:00</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>55</v>
+      </c>
+      <c r="C97" t="n">
+        <v>40</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>15</v>
+      </c>
+      <c r="F97" t="n">
+        <v>11</v>
+      </c>
+      <c r="G97" t="n">
+        <v>12</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L97" t="n">
+        <v>100</v>
+      </c>
+      <c r="M97" t="n">
+        <v>500</v>
+      </c>
+      <c r="N97" t="n">
+        <v>10</v>
+      </c>
+      <c r="O97" t="n">
+        <v>5</v>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>-298000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-01-19 01:58:03</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>35</v>
+      </c>
+      <c r="C98" t="n">
+        <v>28</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>6</v>
+      </c>
+      <c r="F98" t="n">
+        <v>5</v>
+      </c>
+      <c r="G98" t="n">
+        <v>7</v>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L98" t="n">
+        <v>100</v>
+      </c>
+      <c r="M98" t="n">
+        <v>500</v>
+      </c>
+      <c r="N98" t="n">
+        <v>10</v>
+      </c>
+      <c r="O98" t="n">
+        <v>5</v>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>504000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-01-19 07:54:21</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>29</v>
+      </c>
+      <c r="C99" t="n">
+        <v>25</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5</v>
+      </c>
+      <c r="E99" t="n">
+        <v>8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>6</v>
+      </c>
+      <c r="G99" t="n">
+        <v>6</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L99" t="n">
+        <v>100</v>
+      </c>
+      <c r="M99" t="n">
+        <v>500</v>
+      </c>
+      <c r="N99" t="n">
+        <v>10</v>
+      </c>
+      <c r="O99" t="n">
+        <v>5</v>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Data/bombay1.xlsx</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>573000</v>
       </c>
     </row>
   </sheetData>
